--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="131">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -410,6 +410,15 @@
   </si>
   <si>
     <t>Transferencia  B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGROPECUARIA EL TOPETE   </t>
+  </si>
+  <si>
+    <t>CANALES 249</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TAPETE  250</t>
   </si>
 </sst>
 </file>
@@ -2809,111 +2818,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2925,30 +2832,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2971,6 +2854,132 @@
     </xf>
     <xf numFmtId="1" fontId="22" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3299,18 +3308,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="455" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="G1" s="420"/>
-      <c r="H1" s="420"/>
-      <c r="I1" s="420"/>
-      <c r="J1" s="420"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
       <c r="K1" s="377"/>
       <c r="L1" s="377"/>
       <c r="M1" s="377"/>
@@ -3324,22 +3333,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="421" t="s">
+      <c r="W1" s="456" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="422"/>
+      <c r="X1" s="457"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="420"/>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
-      <c r="G2" s="420"/>
-      <c r="H2" s="420"/>
-      <c r="I2" s="420"/>
-      <c r="J2" s="420"/>
+      <c r="A2" s="455"/>
+      <c r="B2" s="455"/>
+      <c r="C2" s="455"/>
+      <c r="D2" s="455"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="455"/>
+      <c r="G2" s="455"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="455"/>
+      <c r="J2" s="455"/>
       <c r="K2" s="379"/>
       <c r="L2" s="379"/>
       <c r="M2" s="379"/>
@@ -3393,10 +3402,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="423" t="s">
+      <c r="O3" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="424"/>
+      <c r="P3" s="459"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3908,7 +3917,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="435" t="s">
+      <c r="C12" s="460" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="402"/>
@@ -3968,7 +3977,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="436"/>
+      <c r="C13" s="461"/>
       <c r="D13" s="402"/>
       <c r="E13" s="403"/>
       <c r="F13" s="404">
@@ -4356,10 +4365,10 @@
         <f t="shared" si="1"/>
         <v>790920</v>
       </c>
-      <c r="O19" s="469" t="s">
+      <c r="O19" s="427" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="471">
+      <c r="P19" s="429">
         <v>44595</v>
       </c>
       <c r="Q19" s="79">
@@ -4416,10 +4425,10 @@
         <f t="shared" si="1"/>
         <v>206820</v>
       </c>
-      <c r="O20" s="469" t="s">
+      <c r="O20" s="427" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="471">
+      <c r="P20" s="429">
         <v>44595</v>
       </c>
       <c r="Q20" s="79">
@@ -4476,10 +4485,10 @@
         <f t="shared" si="1"/>
         <v>804600</v>
       </c>
-      <c r="O21" s="470" t="s">
+      <c r="O21" s="428" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="471">
+      <c r="P21" s="429">
         <v>44596</v>
       </c>
       <c r="Q21" s="79">
@@ -4536,10 +4545,10 @@
         <f t="shared" si="1"/>
         <v>195120</v>
       </c>
-      <c r="O22" s="470" t="s">
+      <c r="O22" s="428" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="471">
+      <c r="P22" s="429">
         <v>44596</v>
       </c>
       <c r="Q22" s="79">
@@ -4596,10 +4605,10 @@
         <f t="shared" si="1"/>
         <v>822240</v>
       </c>
-      <c r="O23" s="470" t="s">
+      <c r="O23" s="428" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="471">
+      <c r="P23" s="429">
         <v>44600</v>
       </c>
       <c r="Q23" s="79">
@@ -4656,10 +4665,10 @@
         <f t="shared" si="1"/>
         <v>195480</v>
       </c>
-      <c r="O24" s="469" t="s">
+      <c r="O24" s="427" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="471">
+      <c r="P24" s="429">
         <v>44600</v>
       </c>
       <c r="Q24" s="79">
@@ -4717,10 +4726,10 @@
         <f t="shared" si="1"/>
         <v>781711.55999999994</v>
       </c>
-      <c r="O25" s="470" t="s">
+      <c r="O25" s="428" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="471">
+      <c r="P25" s="429">
         <v>44600</v>
       </c>
       <c r="Q25" s="79">
@@ -4777,10 +4786,10 @@
         <f t="shared" si="1"/>
         <v>806382.5</v>
       </c>
-      <c r="O26" s="470" t="s">
+      <c r="O26" s="428" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="471">
+      <c r="P26" s="429">
         <v>44602</v>
       </c>
       <c r="Q26" s="79">
@@ -4837,10 +4846,10 @@
         <f t="shared" si="1"/>
         <v>813400</v>
       </c>
-      <c r="O27" s="470" t="s">
+      <c r="O27" s="428" t="s">
         <v>127</v>
       </c>
-      <c r="P27" s="471">
+      <c r="P27" s="429">
         <v>44603</v>
       </c>
       <c r="Q27" s="79">
@@ -4897,10 +4906,10 @@
         <f t="shared" si="1"/>
         <v>194425</v>
       </c>
-      <c r="O28" s="470" t="s">
+      <c r="O28" s="428" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="471">
+      <c r="P28" s="429">
         <v>44603</v>
       </c>
       <c r="Q28" s="66">
@@ -4938,7 +4947,7 @@
       <c r="G29" s="62">
         <v>44591</v>
       </c>
-      <c r="H29" s="474">
+      <c r="H29" s="432">
         <v>19900</v>
       </c>
       <c r="I29" s="64">
@@ -4957,12 +4966,12 @@
         <f t="shared" si="1"/>
         <v>763700</v>
       </c>
-      <c r="O29" s="470"/>
-      <c r="P29" s="471"/>
-      <c r="Q29" s="472">
+      <c r="O29" s="428"/>
+      <c r="P29" s="429"/>
+      <c r="Q29" s="430">
         <v>25140</v>
       </c>
-      <c r="R29" s="473">
+      <c r="R29" s="431">
         <v>44596</v>
       </c>
       <c r="S29" s="91"/>
@@ -4994,7 +5003,7 @@
       <c r="G30" s="62">
         <v>44591</v>
       </c>
-      <c r="H30" s="474">
+      <c r="H30" s="432">
         <v>19900</v>
       </c>
       <c r="I30" s="64">
@@ -5013,12 +5022,12 @@
         <f t="shared" si="1"/>
         <v>190225</v>
       </c>
-      <c r="O30" s="470"/>
-      <c r="P30" s="471"/>
-      <c r="Q30" s="472">
-        <v>0</v>
-      </c>
-      <c r="R30" s="473">
+      <c r="O30" s="428"/>
+      <c r="P30" s="429"/>
+      <c r="Q30" s="430">
+        <v>0</v>
+      </c>
+      <c r="R30" s="431">
         <v>44596</v>
       </c>
       <c r="S30" s="91"/>
@@ -5890,13 +5899,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="463" t="s">
+      <c r="A56" s="433" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="465" t="s">
+      <c r="C56" s="435" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -5907,7 +5916,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="429">
+      <c r="H56" s="437">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -5936,11 +5945,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="464"/>
+      <c r="A57" s="434"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="466"/>
+      <c r="C57" s="436"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -5949,7 +5958,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="430"/>
+      <c r="H57" s="438"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -5976,13 +5985,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="451" t="s">
+      <c r="A58" s="464" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="453" t="s">
+      <c r="C58" s="462" t="s">
         <v>109</v>
       </c>
       <c r="D58" s="165"/>
@@ -5996,7 +6005,7 @@
       <c r="G58" s="152">
         <v>44585</v>
       </c>
-      <c r="H58" s="429">
+      <c r="H58" s="437">
         <v>800</v>
       </c>
       <c r="I58" s="151">
@@ -6015,10 +6024,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O58" s="459" t="s">
+      <c r="O58" s="465" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="460">
+      <c r="P58" s="467">
         <v>44594</v>
       </c>
       <c r="Q58" s="166"/>
@@ -6031,11 +6040,11 @@
       <c r="X58"/>
     </row>
     <row r="59" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="438"/>
+      <c r="A59" s="450"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="454"/>
+      <c r="C59" s="463"/>
       <c r="D59" s="167"/>
       <c r="E59" s="40">
         <f t="shared" si="2"/>
@@ -6047,7 +6056,7 @@
       <c r="G59" s="152">
         <v>44585</v>
       </c>
-      <c r="H59" s="430"/>
+      <c r="H59" s="438"/>
       <c r="I59" s="151">
         <v>231.6</v>
       </c>
@@ -6064,8 +6073,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O59" s="461"/>
-      <c r="P59" s="462"/>
+      <c r="O59" s="466"/>
+      <c r="P59" s="468"/>
       <c r="Q59" s="166"/>
       <c r="R59" s="129"/>
       <c r="S59" s="92"/>
@@ -6074,11 +6083,11 @@
       <c r="V59" s="54"/>
     </row>
     <row r="60" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="455"/>
+      <c r="A60" s="421"/>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="452"/>
+      <c r="C60" s="420"/>
       <c r="D60" s="167"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
@@ -6086,7 +6095,7 @@
       </c>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="456"/>
+      <c r="H60" s="422"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -6099,8 +6108,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O60" s="457"/>
-      <c r="P60" s="458"/>
+      <c r="O60" s="423"/>
+      <c r="P60" s="424"/>
       <c r="Q60" s="166"/>
       <c r="R60" s="129"/>
       <c r="S60" s="92"/>
@@ -6109,11 +6118,11 @@
       <c r="V60" s="54"/>
     </row>
     <row r="61" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="437"/>
+      <c r="A61" s="449"/>
       <c r="B61" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="439"/>
+      <c r="C61" s="451"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6121,7 +6130,7 @@
       </c>
       <c r="F61" s="151"/>
       <c r="G61" s="152"/>
-      <c r="H61" s="429"/>
+      <c r="H61" s="437"/>
       <c r="I61" s="151"/>
       <c r="J61" s="45">
         <f t="shared" si="0"/>
@@ -6146,11 +6155,11 @@
       <c r="X61"/>
     </row>
     <row r="62" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="438"/>
+      <c r="A62" s="450"/>
       <c r="B62" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="440"/>
+      <c r="C62" s="452"/>
       <c r="D62" s="170"/>
       <c r="E62" s="40">
         <f t="shared" si="2"/>
@@ -6158,7 +6167,7 @@
       </c>
       <c r="F62" s="151"/>
       <c r="G62" s="152"/>
-      <c r="H62" s="430"/>
+      <c r="H62" s="438"/>
       <c r="I62" s="151"/>
       <c r="J62" s="45">
         <f t="shared" si="0"/>
@@ -6336,8 +6345,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="431"/>
-      <c r="P66" s="433"/>
+      <c r="O66" s="441"/>
+      <c r="P66" s="453"/>
       <c r="Q66" s="166"/>
       <c r="R66" s="129"/>
       <c r="S66" s="182"/>
@@ -6371,8 +6380,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O67" s="441"/>
-      <c r="P67" s="442"/>
+      <c r="O67" s="442"/>
+      <c r="P67" s="454"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="129"/>
       <c r="S67" s="182"/>
@@ -6561,10 +6570,10 @@
         <f t="shared" si="1"/>
         <v>13566</v>
       </c>
-      <c r="O71" s="467" t="s">
+      <c r="O71" s="425" t="s">
         <v>59</v>
       </c>
-      <c r="P71" s="468">
+      <c r="P71" s="426">
         <v>44595</v>
       </c>
       <c r="Q71" s="166"/>
@@ -6862,8 +6871,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="431"/>
-      <c r="P80" s="449"/>
+      <c r="O80" s="441"/>
+      <c r="P80" s="447"/>
       <c r="Q80" s="166"/>
       <c r="R80" s="129"/>
       <c r="S80" s="182"/>
@@ -6895,8 +6904,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="441"/>
-      <c r="P81" s="450"/>
+      <c r="O81" s="442"/>
+      <c r="P81" s="448"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="129"/>
       <c r="S81" s="182"/>
@@ -6928,8 +6937,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="431"/>
-      <c r="P82" s="449"/>
+      <c r="O82" s="441"/>
+      <c r="P82" s="447"/>
       <c r="Q82" s="166"/>
       <c r="R82" s="158"/>
       <c r="S82" s="182"/>
@@ -6961,8 +6970,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="441"/>
-      <c r="P83" s="450"/>
+      <c r="O83" s="442"/>
+      <c r="P83" s="448"/>
       <c r="Q83" s="166"/>
       <c r="R83" s="158"/>
       <c r="S83" s="182"/>
@@ -7120,8 +7129,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="443"/>
-      <c r="M88" s="444"/>
+      <c r="L88" s="439"/>
+      <c r="M88" s="440"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7153,8 +7162,8 @@
         <v>0</v>
       </c>
       <c r="K89" s="100"/>
-      <c r="L89" s="443"/>
-      <c r="M89" s="444"/>
+      <c r="L89" s="439"/>
+      <c r="M89" s="440"/>
       <c r="N89" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7357,8 +7366,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="431"/>
-      <c r="P95" s="445"/>
+      <c r="O95" s="441"/>
+      <c r="P95" s="443"/>
       <c r="Q95" s="166"/>
       <c r="R95" s="129"/>
       <c r="S95" s="182"/>
@@ -7390,8 +7399,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O96" s="441"/>
-      <c r="P96" s="446"/>
+      <c r="O96" s="442"/>
+      <c r="P96" s="444"/>
       <c r="Q96" s="166"/>
       <c r="R96" s="129"/>
       <c r="S96" s="182"/>
@@ -12783,11 +12792,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F260" s="447" t="s">
+      <c r="F260" s="445" t="s">
         <v>26</v>
       </c>
-      <c r="G260" s="447"/>
-      <c r="H260" s="448"/>
+      <c r="G260" s="445"/>
+      <c r="H260" s="446"/>
       <c r="I260" s="319">
         <f>SUM(I4:I259)</f>
         <v>423660.27</v>
@@ -13361,21 +13370,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L88:M89"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="F260:H260"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="O66:O67"/>
     <mergeCell ref="P66:P67"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
@@ -13386,6 +13380,21 @@
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="O58:O59"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P95:P96"/>
+    <mergeCell ref="F260:H260"/>
+    <mergeCell ref="O80:O81"/>
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="L88:M89"/>
+    <mergeCell ref="O95:O96"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="O66:O67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13400,10 +13409,10 @@
   <dimension ref="A1:X291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13432,18 +13441,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="420" t="s">
+      <c r="A1" s="455" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="D1" s="420"/>
-      <c r="E1" s="420"/>
-      <c r="F1" s="420"/>
-      <c r="G1" s="420"/>
-      <c r="H1" s="420"/>
-      <c r="I1" s="420"/>
-      <c r="J1" s="420"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
       <c r="K1" s="377"/>
       <c r="L1" s="377"/>
       <c r="M1" s="377"/>
@@ -13457,22 +13466,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="421" t="s">
+      <c r="W1" s="456" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="422"/>
+      <c r="X1" s="457"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="420"/>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
-      <c r="G2" s="420"/>
-      <c r="H2" s="420"/>
-      <c r="I2" s="420"/>
-      <c r="J2" s="420"/>
+      <c r="A2" s="455"/>
+      <c r="B2" s="455"/>
+      <c r="C2" s="455"/>
+      <c r="D2" s="455"/>
+      <c r="E2" s="455"/>
+      <c r="F2" s="455"/>
+      <c r="G2" s="455"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="455"/>
+      <c r="J2" s="455"/>
       <c r="K2" s="379"/>
       <c r="L2" s="379"/>
       <c r="M2" s="379"/>
@@ -13526,10 +13535,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="423" t="s">
+      <c r="O3" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="424"/>
+      <c r="P3" s="459"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -14184,25 +14193,37 @@
       <c r="X16" s="70"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="61">
+        <v>17220</v>
+      </c>
+      <c r="G17" s="62">
+        <v>44605</v>
+      </c>
       <c r="H17" s="413"/>
-      <c r="I17" s="414"/>
+      <c r="I17" s="414">
+        <v>21340</v>
+      </c>
       <c r="J17" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="76"/>
+        <v>4120</v>
+      </c>
+      <c r="K17" s="76">
+        <v>33.5</v>
+      </c>
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
       <c r="N17" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>714890</v>
       </c>
       <c r="O17" s="399"/>
       <c r="P17" s="400"/>
@@ -14218,25 +14239,37 @@
       <c r="X17" s="70"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="F18" s="61">
+        <v>20360</v>
+      </c>
+      <c r="G18" s="62">
+        <v>44607</v>
+      </c>
       <c r="H18" s="413"/>
-      <c r="I18" s="414"/>
+      <c r="I18" s="414">
+        <v>20110</v>
+      </c>
       <c r="J18" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="76"/>
+        <v>-250</v>
+      </c>
+      <c r="K18" s="76">
+        <v>32.75</v>
+      </c>
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
       <c r="N18" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>658602.5</v>
       </c>
       <c r="O18" s="399"/>
       <c r="P18" s="400"/>
@@ -14250,25 +14283,37 @@
       <c r="X18" s="70"/>
     </row>
     <row r="19" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
+      <c r="F19" s="61">
+        <v>0</v>
+      </c>
+      <c r="G19" s="62">
+        <v>44607</v>
+      </c>
       <c r="H19" s="413"/>
-      <c r="I19" s="414"/>
+      <c r="I19" s="414">
+        <v>5175</v>
+      </c>
       <c r="J19" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="76"/>
+        <v>5175</v>
+      </c>
+      <c r="K19" s="76">
+        <v>32.75</v>
+      </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
       <c r="N19" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>169481.25</v>
       </c>
       <c r="O19" s="399"/>
       <c r="P19" s="400"/>
@@ -14282,25 +14327,37 @@
       <c r="X19" s="70"/>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="80"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>129</v>
+      </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="F20" s="61">
+        <v>21610</v>
+      </c>
+      <c r="G20" s="62">
+        <v>44609</v>
+      </c>
       <c r="H20" s="413"/>
-      <c r="I20" s="414"/>
+      <c r="I20" s="414">
+        <v>21115</v>
+      </c>
       <c r="J20" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="76"/>
+        <v>-495</v>
+      </c>
+      <c r="K20" s="76">
+        <v>32.75</v>
+      </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
       <c r="N20" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>691516.25</v>
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
@@ -14314,25 +14371,37 @@
       <c r="X20" s="70"/>
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="F21" s="61">
+        <v>0</v>
+      </c>
+      <c r="G21" s="62">
+        <v>44609</v>
+      </c>
       <c r="H21" s="413"/>
-      <c r="I21" s="414"/>
+      <c r="I21" s="414">
+        <v>5780</v>
+      </c>
       <c r="J21" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="76"/>
+        <v>5780</v>
+      </c>
+      <c r="K21" s="76">
+        <v>32.75</v>
+      </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>189295</v>
       </c>
       <c r="O21" s="89"/>
       <c r="P21" s="90"/>
@@ -14346,25 +14415,37 @@
       <c r="X21" s="70"/>
     </row>
     <row r="22" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="61">
+        <v>21980</v>
+      </c>
+      <c r="G22" s="62">
+        <v>44610</v>
+      </c>
       <c r="H22" s="413"/>
-      <c r="I22" s="414"/>
+      <c r="I22" s="414">
+        <v>22560</v>
+      </c>
       <c r="J22" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="76"/>
+        <v>580</v>
+      </c>
+      <c r="K22" s="76">
+        <v>32.75</v>
+      </c>
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="N22" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>738840</v>
       </c>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
@@ -14378,25 +14459,37 @@
       <c r="X22" s="70"/>
     </row>
     <row r="23" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
+      <c r="F23" s="61">
+        <v>0</v>
+      </c>
+      <c r="G23" s="62">
+        <v>44610</v>
+      </c>
       <c r="H23" s="413"/>
-      <c r="I23" s="414"/>
+      <c r="I23" s="414">
+        <v>5550</v>
+      </c>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="76"/>
+        <v>5550</v>
+      </c>
+      <c r="K23" s="76">
+        <v>32.75</v>
+      </c>
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
       <c r="N23" s="77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>181762.5</v>
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
@@ -15501,16 +15594,16 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="425"/>
+      <c r="A57" s="469"/>
       <c r="B57" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="427"/>
+      <c r="C57" s="471"/>
       <c r="D57" s="167"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151"/>
       <c r="G57" s="152"/>
-      <c r="H57" s="429"/>
+      <c r="H57" s="437"/>
       <c r="I57" s="151"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -15523,8 +15616,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="431"/>
-      <c r="P57" s="433"/>
+      <c r="O57" s="441"/>
+      <c r="P57" s="453"/>
       <c r="Q57" s="166"/>
       <c r="R57" s="129"/>
       <c r="S57" s="92"/>
@@ -15533,16 +15626,16 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="426"/>
+      <c r="A58" s="470"/>
       <c r="B58" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="428"/>
+      <c r="C58" s="472"/>
       <c r="D58" s="167"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151"/>
       <c r="G58" s="152"/>
-      <c r="H58" s="430"/>
+      <c r="H58" s="438"/>
       <c r="I58" s="151"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -15555,8 +15648,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="432"/>
-      <c r="P58" s="434"/>
+      <c r="O58" s="473"/>
+      <c r="P58" s="474"/>
       <c r="Q58" s="166"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -15565,16 +15658,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="437"/>
+      <c r="A59" s="449"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="439"/>
+      <c r="C59" s="451"/>
       <c r="D59" s="165"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="429"/>
+      <c r="H59" s="437"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -15599,16 +15692,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="438"/>
+      <c r="A60" s="450"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="440"/>
+      <c r="C60" s="452"/>
       <c r="D60" s="170"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="430"/>
+      <c r="H60" s="438"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -15745,8 +15838,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="431"/>
-      <c r="P64" s="433"/>
+      <c r="O64" s="441"/>
+      <c r="P64" s="453"/>
       <c r="Q64" s="166"/>
       <c r="R64" s="129"/>
       <c r="S64" s="182"/>
@@ -15775,8 +15868,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="441"/>
-      <c r="P65" s="442"/>
+      <c r="O65" s="442"/>
+      <c r="P65" s="454"/>
       <c r="Q65" s="166"/>
       <c r="R65" s="129"/>
       <c r="S65" s="182"/>
@@ -16173,8 +16266,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="431"/>
-      <c r="P78" s="449"/>
+      <c r="O78" s="441"/>
+      <c r="P78" s="447"/>
       <c r="Q78" s="166"/>
       <c r="R78" s="129"/>
       <c r="S78" s="182"/>
@@ -16203,8 +16296,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="441"/>
-      <c r="P79" s="450"/>
+      <c r="O79" s="442"/>
+      <c r="P79" s="448"/>
       <c r="Q79" s="166"/>
       <c r="R79" s="129"/>
       <c r="S79" s="182"/>
@@ -16233,8 +16326,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="431"/>
-      <c r="P80" s="449"/>
+      <c r="O80" s="441"/>
+      <c r="P80" s="447"/>
       <c r="Q80" s="166"/>
       <c r="R80" s="158"/>
       <c r="S80" s="182"/>
@@ -16266,8 +16359,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="441"/>
-      <c r="P81" s="450"/>
+      <c r="O81" s="442"/>
+      <c r="P81" s="448"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="158"/>
       <c r="S81" s="182"/>
@@ -16425,8 +16518,8 @@
         <v>0</v>
       </c>
       <c r="K86" s="100"/>
-      <c r="L86" s="443"/>
-      <c r="M86" s="444"/>
+      <c r="L86" s="439"/>
+      <c r="M86" s="440"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16458,8 +16551,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="443"/>
-      <c r="M87" s="444"/>
+      <c r="L87" s="439"/>
+      <c r="M87" s="440"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16662,8 +16755,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="431"/>
-      <c r="P93" s="445"/>
+      <c r="O93" s="441"/>
+      <c r="P93" s="443"/>
       <c r="Q93" s="166"/>
       <c r="R93" s="129"/>
       <c r="S93" s="182"/>
@@ -16695,8 +16788,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="441"/>
-      <c r="P94" s="446"/>
+      <c r="O94" s="442"/>
+      <c r="P94" s="444"/>
       <c r="Q94" s="166"/>
       <c r="R94" s="129"/>
       <c r="S94" s="182"/>
@@ -22088,14 +22181,14 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="447" t="s">
+      <c r="F258" s="445" t="s">
         <v>26</v>
       </c>
-      <c r="G258" s="447"/>
-      <c r="H258" s="448"/>
+      <c r="G258" s="445"/>
+      <c r="H258" s="446"/>
       <c r="I258" s="319">
         <f>SUM(I4:I257)</f>
-        <v>172025</v>
+        <v>273655</v>
       </c>
       <c r="J258" s="320"/>
       <c r="K258" s="316"/>
@@ -22194,7 +22287,7 @@
       <c r="M262" s="338"/>
       <c r="N262" s="339">
         <f>SUM(N4:N261)</f>
-        <v>5951597.5</v>
+        <v>9295985</v>
       </c>
       <c r="O262" s="340"/>
       <c r="Q262" s="341">
@@ -22254,7 +22347,7 @@
       <c r="M265" s="354"/>
       <c r="N265" s="355">
         <f>V262+S262+Q262+N262+L262</f>
-        <v>6102537.5</v>
+        <v>9446925</v>
       </c>
       <c r="O265" s="356"/>
       <c r="R265" s="326"/>
@@ -22666,6 +22759,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="L86:M87"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="P93:P94"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O80:O81"/>
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="O78:O79"/>
     <mergeCell ref="P78:P79"/>
@@ -22677,16 +22780,6 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="P57:P58"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="L86:M87"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="P93:P94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="148">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -385,12 +385,6 @@
     <t>xxxxxx</t>
   </si>
   <si>
-    <t>19923--</t>
-  </si>
-  <si>
-    <t>19934--</t>
-  </si>
-  <si>
     <t>19861--10557</t>
   </si>
   <si>
@@ -419,6 +413,63 @@
   </si>
   <si>
     <t>AGROPECUARIA EL TAPETE  250</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6918</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6927</t>
+  </si>
+  <si>
+    <t>19934--4655</t>
+  </si>
+  <si>
+    <t>19934--10613</t>
+  </si>
+  <si>
+    <t>19967--</t>
+  </si>
+  <si>
+    <t>19972--</t>
+  </si>
+  <si>
+    <t>19941--4957</t>
+  </si>
+  <si>
+    <t>19977--</t>
+  </si>
+  <si>
+    <t>19989--</t>
+  </si>
+  <si>
+    <t>20001--</t>
+  </si>
+  <si>
+    <t>20012--</t>
+  </si>
+  <si>
+    <t>19952--10625</t>
+  </si>
+  <si>
+    <t>19952--4659</t>
+  </si>
+  <si>
+    <t>19941--10621</t>
+  </si>
+  <si>
+    <t>19923--3167</t>
+  </si>
+  <si>
+    <t>19923--10605</t>
+  </si>
+  <si>
+    <t>19900--10593</t>
+  </si>
+  <si>
+    <t>19900--3161</t>
+  </si>
+  <si>
+    <t>D-3602</t>
   </si>
 </sst>
 </file>
@@ -907,7 +958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1682,12 +1733,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="475">
+  <cellXfs count="478">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2803,9 +2872,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2817,21 +2883,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2855,6 +2906,39 @@
     <xf numFmtId="1" fontId="22" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2867,102 +2951,93 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2979,6 +3054,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3273,13 +3351,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:X293"/>
+  <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="K21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="U12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3308,18 +3386,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="455" t="s">
+      <c r="A1" s="456" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
       <c r="K1" s="377"/>
       <c r="L1" s="377"/>
       <c r="M1" s="377"/>
@@ -3333,22 +3411,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="456" t="s">
+      <c r="W1" s="457" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="457"/>
+      <c r="X1" s="458"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="455"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="455"/>
-      <c r="E2" s="455"/>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
+      <c r="A2" s="456"/>
+      <c r="B2" s="456"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
       <c r="K2" s="379"/>
       <c r="L2" s="379"/>
       <c r="M2" s="379"/>
@@ -3402,10 +3480,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="458" t="s">
+      <c r="O3" s="459" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="459"/>
+      <c r="P3" s="460"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3452,7 +3530,7 @@
         <v>21980</v>
       </c>
       <c r="J4" s="45">
-        <f t="shared" ref="J4:J151" si="0">I4-F4</f>
+        <f t="shared" ref="J4:J153" si="0">I4-F4</f>
         <v>1480</v>
       </c>
       <c r="K4" s="46">
@@ -3461,7 +3539,7 @@
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
       <c r="N4" s="48">
-        <f t="shared" ref="N4:N155" si="1">K4*I4</f>
+        <f t="shared" ref="N4:N157" si="1">K4*I4</f>
         <v>824250</v>
       </c>
       <c r="O4" s="394" t="s">
@@ -3478,8 +3556,12 @@
       </c>
       <c r="S4" s="51"/>
       <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
+      <c r="U4" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V4" s="54">
+        <v>5104</v>
+      </c>
       <c r="W4" s="55" t="s">
         <v>108</v>
       </c>
@@ -3538,8 +3620,12 @@
       </c>
       <c r="S5" s="51"/>
       <c r="T5" s="52"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V5" s="54">
+        <v>0</v>
+      </c>
       <c r="W5" s="68" t="s">
         <v>108</v>
       </c>
@@ -3599,8 +3685,12 @@
       </c>
       <c r="S6" s="51"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="54"/>
+      <c r="U6" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6" s="54">
+        <v>5104</v>
+      </c>
       <c r="W6" s="53" t="s">
         <v>108</v>
       </c>
@@ -3659,8 +3749,12 @@
       </c>
       <c r="S7" s="51"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="54"/>
+      <c r="U7" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V7" s="54">
+        <v>0</v>
+      </c>
       <c r="W7" s="53" t="s">
         <v>108</v>
       </c>
@@ -3720,8 +3814,12 @@
       </c>
       <c r="S8" s="51"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="54"/>
+      <c r="U8" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="54">
+        <v>5104</v>
+      </c>
       <c r="W8" s="53" t="s">
         <v>108</v>
       </c>
@@ -3780,8 +3878,12 @@
       </c>
       <c r="S9" s="51"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54"/>
+      <c r="U9" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V9" s="54">
+        <v>0</v>
+      </c>
       <c r="W9" s="53" t="s">
         <v>108</v>
       </c>
@@ -3841,8 +3943,12 @@
       </c>
       <c r="S10" s="51"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
+      <c r="U10" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V10" s="54">
+        <v>5104</v>
+      </c>
       <c r="W10" s="53" t="s">
         <v>108</v>
       </c>
@@ -3901,8 +4007,12 @@
       </c>
       <c r="S11" s="51"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54"/>
+      <c r="U11" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V11" s="54">
+        <v>0</v>
+      </c>
       <c r="W11" s="53" t="s">
         <v>108</v>
       </c>
@@ -3917,7 +4027,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="460" t="s">
+      <c r="C12" s="461" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="402"/>
@@ -3961,8 +4071,12 @@
       </c>
       <c r="S12" s="51"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54"/>
+      <c r="U12" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V12" s="54">
+        <v>5104</v>
+      </c>
       <c r="W12" s="53" t="s">
         <v>108</v>
       </c>
@@ -3977,7 +4091,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="461"/>
+      <c r="C13" s="462"/>
       <c r="D13" s="402"/>
       <c r="E13" s="403"/>
       <c r="F13" s="404">
@@ -4019,8 +4133,12 @@
       </c>
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="54"/>
+      <c r="U13" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V13" s="54">
+        <v>0</v>
+      </c>
       <c r="W13" s="53" t="s">
         <v>108</v>
       </c>
@@ -4079,8 +4197,12 @@
       </c>
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="54"/>
+      <c r="U14" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V14" s="54">
+        <v>5104</v>
+      </c>
       <c r="W14" s="53" t="s">
         <v>108</v>
       </c>
@@ -4139,8 +4261,12 @@
       </c>
       <c r="S15" s="51"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="54"/>
+      <c r="U15" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="V15" s="54">
+        <v>0</v>
+      </c>
       <c r="W15" s="53" t="s">
         <v>108</v>
       </c>
@@ -4200,7 +4326,9 @@
       <c r="S16" s="51"/>
       <c r="T16" s="52"/>
       <c r="U16" s="53"/>
-      <c r="V16" s="54"/>
+      <c r="V16" s="54">
+        <v>0</v>
+      </c>
       <c r="W16" s="53" t="s">
         <v>108</v>
       </c>
@@ -4260,7 +4388,9 @@
       <c r="S17" s="51"/>
       <c r="T17" s="52"/>
       <c r="U17" s="53"/>
-      <c r="V17" s="54"/>
+      <c r="V17" s="54">
+        <v>0</v>
+      </c>
       <c r="W17" s="53" t="s">
         <v>108</v>
       </c>
@@ -4365,10 +4495,10 @@
         <f t="shared" si="1"/>
         <v>790920</v>
       </c>
-      <c r="O19" s="427" t="s">
+      <c r="O19" s="421" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="429">
+      <c r="P19" s="423">
         <v>44595</v>
       </c>
       <c r="Q19" s="79">
@@ -4425,10 +4555,10 @@
         <f t="shared" si="1"/>
         <v>206820</v>
       </c>
-      <c r="O20" s="427" t="s">
+      <c r="O20" s="421" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="429">
+      <c r="P20" s="423">
         <v>44595</v>
       </c>
       <c r="Q20" s="79">
@@ -4485,10 +4615,10 @@
         <f t="shared" si="1"/>
         <v>804600</v>
       </c>
-      <c r="O21" s="428" t="s">
+      <c r="O21" s="422" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="429">
+      <c r="P21" s="423">
         <v>44596</v>
       </c>
       <c r="Q21" s="79">
@@ -4545,10 +4675,10 @@
         <f t="shared" si="1"/>
         <v>195120</v>
       </c>
-      <c r="O22" s="428" t="s">
+      <c r="O22" s="422" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="429">
+      <c r="P22" s="423">
         <v>44596</v>
       </c>
       <c r="Q22" s="79">
@@ -4587,7 +4717,7 @@
         <v>44584</v>
       </c>
       <c r="H23" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I23" s="64">
         <v>22840</v>
@@ -4605,10 +4735,10 @@
         <f t="shared" si="1"/>
         <v>822240</v>
       </c>
-      <c r="O23" s="428" t="s">
+      <c r="O23" s="422" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="429">
+      <c r="P23" s="423">
         <v>44600</v>
       </c>
       <c r="Q23" s="79">
@@ -4647,7 +4777,7 @@
         <v>44584</v>
       </c>
       <c r="H24" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I24" s="64">
         <v>5430</v>
@@ -4665,10 +4795,10 @@
         <f t="shared" si="1"/>
         <v>195480</v>
       </c>
-      <c r="O24" s="427" t="s">
+      <c r="O24" s="421" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="429">
+      <c r="P24" s="423">
         <v>44600</v>
       </c>
       <c r="Q24" s="79">
@@ -4707,7 +4837,7 @@
         <v>44586</v>
       </c>
       <c r="H25" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I25" s="64">
         <f>21825-110.79</f>
@@ -4726,10 +4856,10 @@
         <f t="shared" si="1"/>
         <v>781711.55999999994</v>
       </c>
-      <c r="O25" s="428" t="s">
+      <c r="O25" s="422" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="429">
+      <c r="P25" s="423">
         <v>44600</v>
       </c>
       <c r="Q25" s="79">
@@ -4768,7 +4898,7 @@
         <v>44588</v>
       </c>
       <c r="H26" s="63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I26" s="64">
         <v>22715</v>
@@ -4786,10 +4916,10 @@
         <f t="shared" si="1"/>
         <v>806382.5</v>
       </c>
-      <c r="O26" s="428" t="s">
+      <c r="O26" s="422" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="429">
+      <c r="P26" s="423">
         <v>44602</v>
       </c>
       <c r="Q26" s="79">
@@ -4828,7 +4958,7 @@
         <v>44589</v>
       </c>
       <c r="H27" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I27" s="64">
         <v>23240</v>
@@ -4846,10 +4976,10 @@
         <f t="shared" si="1"/>
         <v>813400</v>
       </c>
-      <c r="O27" s="428" t="s">
-        <v>127</v>
-      </c>
-      <c r="P27" s="429">
+      <c r="O27" s="422" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="423">
         <v>44603</v>
       </c>
       <c r="Q27" s="79">
@@ -4888,7 +5018,7 @@
         <v>44589</v>
       </c>
       <c r="H28" s="63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I28" s="64">
         <v>5555</v>
@@ -4906,10 +5036,10 @@
         <f t="shared" si="1"/>
         <v>194425</v>
       </c>
-      <c r="O28" s="428" t="s">
+      <c r="O28" s="422" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="429">
+      <c r="P28" s="423">
         <v>44603</v>
       </c>
       <c r="Q28" s="66">
@@ -4929,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57" t="s">
         <v>69</v>
       </c>
@@ -4947,8 +5077,8 @@
       <c r="G29" s="62">
         <v>44591</v>
       </c>
-      <c r="H29" s="432">
-        <v>19900</v>
+      <c r="H29" s="426" t="s">
+        <v>145</v>
       </c>
       <c r="I29" s="64">
         <v>21820</v>
@@ -4966,12 +5096,16 @@
         <f t="shared" si="1"/>
         <v>763700</v>
       </c>
-      <c r="O29" s="428"/>
-      <c r="P29" s="429"/>
-      <c r="Q29" s="430">
+      <c r="O29" s="422" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="423">
+        <v>44606</v>
+      </c>
+      <c r="Q29" s="424">
         <v>25140</v>
       </c>
-      <c r="R29" s="431">
+      <c r="R29" s="425">
         <v>44596</v>
       </c>
       <c r="S29" s="91"/>
@@ -5003,8 +5137,8 @@
       <c r="G30" s="62">
         <v>44591</v>
       </c>
-      <c r="H30" s="432">
-        <v>19900</v>
+      <c r="H30" s="426" t="s">
+        <v>146</v>
       </c>
       <c r="I30" s="64">
         <v>5435</v>
@@ -5022,12 +5156,16 @@
         <f t="shared" si="1"/>
         <v>190225</v>
       </c>
-      <c r="O30" s="428"/>
-      <c r="P30" s="429"/>
-      <c r="Q30" s="430">
-        <v>0</v>
-      </c>
-      <c r="R30" s="431">
+      <c r="O30" s="422" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="423">
+        <v>44606</v>
+      </c>
+      <c r="Q30" s="424">
+        <v>0</v>
+      </c>
+      <c r="R30" s="425">
         <v>44596</v>
       </c>
       <c r="S30" s="91"/>
@@ -5408,7 +5546,7 @@
       <c r="C42" s="108"/>
       <c r="D42" s="109"/>
       <c r="E42" s="40">
-        <f t="shared" ref="E42:E70" si="2">D42*F42</f>
+        <f t="shared" ref="E42:E72" si="2">D42*F42</f>
         <v>0</v>
       </c>
       <c r="F42" s="61"/>
@@ -5866,7 +6004,7 @@
       <c r="G55" s="152">
         <v>44564</v>
       </c>
-      <c r="H55" s="153">
+      <c r="H55" s="428">
         <v>767</v>
       </c>
       <c r="I55" s="151">
@@ -5899,13 +6037,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="433" t="s">
+      <c r="A56" s="438" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="435" t="s">
+      <c r="C56" s="440" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -5916,7 +6054,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="437">
+      <c r="H56" s="442">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -5945,11 +6083,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="434"/>
+      <c r="A57" s="439"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="436"/>
+      <c r="C57" s="441"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -5958,7 +6096,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="438"/>
+      <c r="H57" s="443"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -5984,32 +6122,29 @@
       <c r="U57" s="159"/>
       <c r="V57" s="160"/>
     </row>
-    <row r="58" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="464" t="s">
+    <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="438" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="462" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="165"/>
-      <c r="E58" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C58" s="440" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="150"/>
+      <c r="E58" s="40"/>
       <c r="F58" s="151">
-        <v>1661.4</v>
+        <v>833.8</v>
       </c>
       <c r="G58" s="152">
-        <v>44585</v>
-      </c>
-      <c r="H58" s="437">
-        <v>800</v>
+        <v>44578</v>
+      </c>
+      <c r="H58" s="442">
+        <v>810</v>
       </c>
       <c r="I58" s="151">
-        <v>1661.4</v>
+        <v>833.8</v>
       </c>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -6022,366 +6157,407 @@
       <c r="M58" s="65"/>
       <c r="N58" s="154">
         <f t="shared" si="1"/>
-        <v>151187.4</v>
-      </c>
-      <c r="O58" s="465" t="s">
+        <v>75875.8</v>
+      </c>
+      <c r="O58" s="444" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="467">
-        <v>44594</v>
-      </c>
-      <c r="Q58" s="166"/>
+      <c r="P58" s="434">
+        <v>44606</v>
+      </c>
+      <c r="Q58" s="128"/>
       <c r="R58" s="158"/>
       <c r="S58" s="92"/>
       <c r="T58" s="92"/>
       <c r="U58" s="159"/>
       <c r="V58" s="160"/>
-      <c r="W58"/>
-      <c r="X58"/>
-    </row>
-    <row r="59" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="450"/>
+    </row>
+    <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="439"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="463"/>
-      <c r="D59" s="167"/>
-      <c r="E59" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="C59" s="441"/>
+      <c r="D59" s="150"/>
+      <c r="E59" s="40"/>
       <c r="F59" s="151">
-        <v>231.6</v>
+        <v>220</v>
       </c>
       <c r="G59" s="152">
-        <v>44585</v>
-      </c>
-      <c r="H59" s="438"/>
+        <v>44578</v>
+      </c>
+      <c r="H59" s="443"/>
       <c r="I59" s="151">
-        <v>231.6</v>
+        <v>220</v>
       </c>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K59" s="168">
+      <c r="K59" s="46">
         <v>102</v>
       </c>
-      <c r="L59" s="99"/>
-      <c r="M59" s="99"/>
+      <c r="L59" s="65"/>
+      <c r="M59" s="65"/>
       <c r="N59" s="154">
         <f t="shared" si="1"/>
-        <v>23623.200000000001</v>
-      </c>
-      <c r="O59" s="466"/>
-      <c r="P59" s="468"/>
-      <c r="Q59" s="166"/>
-      <c r="R59" s="129"/>
+        <v>22440</v>
+      </c>
+      <c r="O59" s="445"/>
+      <c r="P59" s="435"/>
+      <c r="Q59" s="128"/>
+      <c r="R59" s="158"/>
       <c r="S59" s="92"/>
       <c r="T59" s="92"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="54"/>
-    </row>
-    <row r="60" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="421"/>
+      <c r="U59" s="159"/>
+      <c r="V59" s="160"/>
+    </row>
+    <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="465" t="s">
+        <v>41</v>
+      </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="420"/>
-      <c r="D60" s="167"/>
+      <c r="C60" s="463" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="165"/>
       <c r="E60" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F60" s="151"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="422"/>
-      <c r="I60" s="151"/>
+      <c r="F60" s="151">
+        <v>1661.4</v>
+      </c>
+      <c r="G60" s="152">
+        <v>44585</v>
+      </c>
+      <c r="H60" s="442">
+        <v>800</v>
+      </c>
+      <c r="I60" s="151">
+        <v>1661.4</v>
+      </c>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K60" s="168"/>
-      <c r="L60" s="99"/>
-      <c r="M60" s="99"/>
+      <c r="K60" s="46">
+        <v>91</v>
+      </c>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
       <c r="N60" s="154">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="423"/>
-      <c r="P60" s="424"/>
+        <v>151187.4</v>
+      </c>
+      <c r="O60" s="444" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" s="434">
+        <v>44594</v>
+      </c>
       <c r="Q60" s="166"/>
-      <c r="R60" s="129"/>
+      <c r="R60" s="158"/>
       <c r="S60" s="92"/>
       <c r="T60" s="92"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="54"/>
-    </row>
-    <row r="61" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="449"/>
+      <c r="U60" s="159"/>
+      <c r="V60" s="160"/>
+      <c r="W60"/>
+      <c r="X60"/>
+    </row>
+    <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="466"/>
       <c r="B61" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="451"/>
-      <c r="D61" s="165"/>
+        <v>24</v>
+      </c>
+      <c r="C61" s="464"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F61" s="151"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="437"/>
-      <c r="I61" s="151"/>
+      <c r="F61" s="151">
+        <v>231.6</v>
+      </c>
+      <c r="G61" s="152">
+        <v>44585</v>
+      </c>
+      <c r="H61" s="443"/>
+      <c r="I61" s="151">
+        <v>231.6</v>
+      </c>
       <c r="J61" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K61" s="46"/>
-      <c r="L61" s="65"/>
-      <c r="M61" s="65"/>
+      <c r="K61" s="168">
+        <v>102</v>
+      </c>
+      <c r="L61" s="99"/>
+      <c r="M61" s="99"/>
       <c r="N61" s="154">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="166"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="169"/>
-      <c r="R61" s="158"/>
+        <v>23623.200000000001</v>
+      </c>
+      <c r="O61" s="445"/>
+      <c r="P61" s="435"/>
+      <c r="Q61" s="166"/>
+      <c r="R61" s="129"/>
       <c r="S61" s="92"/>
       <c r="T61" s="92"/>
-      <c r="U61" s="159"/>
-      <c r="V61" s="160"/>
-      <c r="W61"/>
-      <c r="X61"/>
-    </row>
-    <row r="62" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="450"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="54"/>
+    </row>
+    <row r="62" spans="1:24" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="429" t="s">
+        <v>41</v>
+      </c>
       <c r="B62" s="148" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="452"/>
-      <c r="D62" s="170"/>
+        <v>23</v>
+      </c>
+      <c r="C62" s="427" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="167"/>
       <c r="E62" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F62" s="151"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="438"/>
-      <c r="I62" s="151"/>
+      <c r="F62" s="151">
+        <v>1531.4</v>
+      </c>
+      <c r="G62" s="152">
+        <v>44592</v>
+      </c>
+      <c r="H62" s="431">
+        <v>808</v>
+      </c>
+      <c r="I62" s="151">
+        <v>1531.4</v>
+      </c>
       <c r="J62" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K62" s="168"/>
+      <c r="K62" s="168">
+        <v>93</v>
+      </c>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
-      <c r="N62" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="166"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="169"/>
+      <c r="N62" s="154">
+        <f t="shared" si="1"/>
+        <v>142420.20000000001</v>
+      </c>
+      <c r="O62" s="432" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" s="433">
+        <v>44606</v>
+      </c>
+      <c r="Q62" s="166"/>
       <c r="R62" s="129"/>
       <c r="S62" s="92"/>
       <c r="T62" s="92"/>
       <c r="U62" s="53"/>
       <c r="V62" s="54"/>
     </row>
-    <row r="63" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="171"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="170"/>
+    <row r="63" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="430"/>
+      <c r="B63" s="148" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="467"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="153"/>
+      <c r="H63" s="469"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="168"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="174"/>
-      <c r="P63" s="175"/>
-      <c r="Q63" s="166"/>
-      <c r="R63" s="129"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="154">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="166"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="169"/>
+      <c r="R63" s="158"/>
       <c r="S63" s="92"/>
       <c r="T63" s="92"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="54"/>
-    </row>
-    <row r="64" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="176" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="393" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="177" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="178"/>
+      <c r="U63" s="159"/>
+      <c r="V63" s="160"/>
+      <c r="W63"/>
+      <c r="X63"/>
+    </row>
+    <row r="64" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="78"/>
+      <c r="B64" s="148" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="468"/>
+      <c r="D64" s="170"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F64" s="151">
-        <v>410</v>
-      </c>
-      <c r="G64" s="152">
-        <v>44565</v>
-      </c>
-      <c r="H64" s="153" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="151">
-        <v>410</v>
-      </c>
+      <c r="F64" s="151"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="470"/>
+      <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K64" s="168">
-        <v>65</v>
-      </c>
+      <c r="K64" s="168"/>
       <c r="L64" s="99"/>
       <c r="M64" s="99"/>
       <c r="N64" s="48">
         <f t="shared" si="1"/>
-        <v>26650</v>
-      </c>
-      <c r="O64" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="P64" s="162">
-        <v>44572</v>
-      </c>
-      <c r="Q64" s="166"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="166"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="169"/>
       <c r="R64" s="129"/>
       <c r="S64" s="92"/>
       <c r="T64" s="92"/>
       <c r="U64" s="53"/>
       <c r="V64" s="54"/>
     </row>
-    <row r="65" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="395" t="s">
-        <v>53</v>
-      </c>
-      <c r="B65" s="384" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="181" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="382"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="385">
-        <v>18647.810000000001</v>
-      </c>
-      <c r="G65" s="188">
-        <v>44567</v>
-      </c>
-      <c r="H65" s="383"/>
-      <c r="I65" s="151">
-        <v>18647.810000000001</v>
-      </c>
+    <row r="65" spans="1:22" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="171"/>
+      <c r="B65" s="172"/>
+      <c r="C65" s="173"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="151"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="151"/>
       <c r="J65" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K65" s="168">
-        <v>32.799999999999997</v>
-      </c>
+      <c r="K65" s="168"/>
       <c r="L65" s="99"/>
       <c r="M65" s="99"/>
       <c r="N65" s="48">
         <f t="shared" si="1"/>
-        <v>611648.16799999995</v>
-      </c>
-      <c r="O65" s="166"/>
-      <c r="P65" s="162"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="174"/>
+      <c r="P65" s="175"/>
       <c r="Q65" s="166"/>
       <c r="R65" s="129"/>
-      <c r="S65" s="182"/>
-      <c r="T65" s="52"/>
+      <c r="S65" s="92"/>
+      <c r="T65" s="92"/>
       <c r="U65" s="53"/>
       <c r="V65" s="54"/>
     </row>
-    <row r="66" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="179" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="180"/>
-      <c r="C66" s="185"/>
-      <c r="D66" s="173"/>
-      <c r="E66" s="60">
+    <row r="66" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="176" t="s">
+        <v>43</v>
+      </c>
+      <c r="B66" s="393" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="177" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="178"/>
+      <c r="E66" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F66" s="151"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="390"/>
-      <c r="I66" s="151"/>
+      <c r="F66" s="151">
+        <v>410</v>
+      </c>
+      <c r="G66" s="152">
+        <v>44565</v>
+      </c>
+      <c r="H66" s="153" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="151">
+        <v>410</v>
+      </c>
       <c r="J66" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K66" s="168"/>
+      <c r="K66" s="168">
+        <v>65</v>
+      </c>
       <c r="L66" s="99"/>
       <c r="M66" s="99"/>
       <c r="N66" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="441"/>
-      <c r="P66" s="453"/>
+        <v>26650</v>
+      </c>
+      <c r="O66" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="P66" s="162">
+        <v>44572</v>
+      </c>
       <c r="Q66" s="166"/>
       <c r="R66" s="129"/>
-      <c r="S66" s="182"/>
-      <c r="T66" s="52"/>
+      <c r="S66" s="92"/>
+      <c r="T66" s="92"/>
       <c r="U66" s="53"/>
       <c r="V66" s="54"/>
     </row>
-    <row r="67" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="179" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="180"/>
-      <c r="C67" s="185"/>
-      <c r="D67" s="173"/>
-      <c r="E67" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="151"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="390"/>
-      <c r="I67" s="151"/>
+    <row r="67" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="395" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="384" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="382"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="385">
+        <v>18647.810000000001</v>
+      </c>
+      <c r="G67" s="188">
+        <v>44567</v>
+      </c>
+      <c r="H67" s="383"/>
+      <c r="I67" s="151">
+        <v>18647.810000000001</v>
+      </c>
       <c r="J67" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K67" s="168"/>
+      <c r="K67" s="168">
+        <v>32.799999999999997</v>
+      </c>
       <c r="L67" s="99"/>
       <c r="M67" s="99"/>
       <c r="N67" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="442"/>
-      <c r="P67" s="454"/>
+        <v>611648.16799999995</v>
+      </c>
+      <c r="O67" s="166"/>
+      <c r="P67" s="162"/>
       <c r="Q67" s="166"/>
       <c r="R67" s="129"/>
       <c r="S67" s="182"/>
@@ -6389,52 +6565,34 @@
       <c r="U67" s="53"/>
       <c r="V67" s="54"/>
     </row>
-    <row r="68" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="179" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" s="180" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="185" t="s">
-        <v>57</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B68" s="180"/>
+      <c r="C68" s="185"/>
       <c r="D68" s="173"/>
       <c r="E68" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F68" s="151">
-        <v>300</v>
-      </c>
-      <c r="G68" s="152">
-        <v>44579</v>
-      </c>
-      <c r="H68" s="153" t="s">
-        <v>58</v>
-      </c>
-      <c r="I68" s="151">
-        <v>300</v>
-      </c>
+      <c r="F68" s="151"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="390"/>
+      <c r="I68" s="151"/>
       <c r="J68" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K68" s="46">
-        <v>65</v>
-      </c>
-      <c r="L68" s="65"/>
+      <c r="K68" s="168"/>
+      <c r="L68" s="99"/>
       <c r="M68" s="99"/>
       <c r="N68" s="48">
         <f t="shared" si="1"/>
-        <v>19500</v>
-      </c>
-      <c r="O68" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="P68" s="183">
-        <v>44579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O68" s="436"/>
+      <c r="P68" s="454"/>
       <c r="Q68" s="166"/>
       <c r="R68" s="129"/>
       <c r="S68" s="182"/>
@@ -6443,11 +6601,11 @@
       <c r="V68" s="54"/>
     </row>
     <row r="69" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="184" t="s">
+      <c r="A69" s="179" t="s">
         <v>56</v>
       </c>
       <c r="B69" s="180"/>
-      <c r="C69" s="173"/>
+      <c r="C69" s="185"/>
       <c r="D69" s="173"/>
       <c r="E69" s="60">
         <f t="shared" si="2"/>
@@ -6455,21 +6613,21 @@
       </c>
       <c r="F69" s="151"/>
       <c r="G69" s="152"/>
-      <c r="H69" s="153"/>
+      <c r="H69" s="390"/>
       <c r="I69" s="151"/>
       <c r="J69" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K69" s="46"/>
-      <c r="L69" s="65"/>
+      <c r="K69" s="168"/>
+      <c r="L69" s="99"/>
       <c r="M69" s="99"/>
       <c r="N69" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="166"/>
-      <c r="P69" s="183"/>
+      <c r="O69" s="437"/>
+      <c r="P69" s="455"/>
       <c r="Q69" s="166"/>
       <c r="R69" s="129"/>
       <c r="S69" s="182"/>
@@ -6477,7 +6635,7 @@
       <c r="U69" s="53"/>
       <c r="V69" s="54"/>
     </row>
-    <row r="70" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="179" t="s">
         <v>43</v>
       </c>
@@ -6485,7 +6643,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="185" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D70" s="173"/>
       <c r="E70" s="60">
@@ -6493,16 +6651,16 @@
         <v>0</v>
       </c>
       <c r="F70" s="151">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="G70" s="152">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="H70" s="153" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I70" s="151">
-        <v>430</v>
+        <v>300</v>
       </c>
       <c r="J70" s="45">
         <f t="shared" si="0"/>
@@ -6515,13 +6673,13 @@
       <c r="M70" s="99"/>
       <c r="N70" s="48">
         <f t="shared" si="1"/>
-        <v>27950</v>
+        <v>19500</v>
       </c>
       <c r="O70" s="166" t="s">
         <v>59</v>
       </c>
       <c r="P70" s="183">
-        <v>44585</v>
+        <v>44579</v>
       </c>
       <c r="Q70" s="166"/>
       <c r="R70" s="129"/>
@@ -6530,52 +6688,34 @@
       <c r="U70" s="53"/>
       <c r="V70" s="54"/>
     </row>
-    <row r="71" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="179" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="186" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="185" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="185"/>
+    <row r="71" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="184" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="180"/>
+      <c r="C71" s="173"/>
+      <c r="D71" s="173"/>
       <c r="E71" s="60">
-        <f t="shared" ref="E71:E140" si="3">D71*F71</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="151">
-        <v>238</v>
-      </c>
-      <c r="G71" s="152">
-        <v>44585</v>
-      </c>
-      <c r="H71" s="153">
-        <v>36619</v>
-      </c>
-      <c r="I71" s="151">
-        <v>238</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="151"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="151"/>
       <c r="J71" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K71" s="46">
-        <v>57</v>
-      </c>
+      <c r="K71" s="46"/>
       <c r="L71" s="65"/>
       <c r="M71" s="99"/>
       <c r="N71" s="48">
         <f t="shared" si="1"/>
-        <v>13566</v>
-      </c>
-      <c r="O71" s="425" t="s">
-        <v>59</v>
-      </c>
-      <c r="P71" s="426">
-        <v>44595</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O71" s="166"/>
+      <c r="P71" s="183"/>
       <c r="Q71" s="166"/>
       <c r="R71" s="129"/>
       <c r="S71" s="182"/>
@@ -6583,32 +6723,52 @@
       <c r="U71" s="53"/>
       <c r="V71" s="54"/>
     </row>
-    <row r="72" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="179"/>
-      <c r="B72" s="187"/>
-      <c r="C72" s="185"/>
+    <row r="72" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="179" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="180" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="185" t="s">
+        <v>77</v>
+      </c>
       <c r="D72" s="173"/>
       <c r="E72" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="H72" s="153"/>
-      <c r="I72" s="151"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="151">
+        <v>430</v>
+      </c>
+      <c r="G72" s="152">
+        <v>44582</v>
+      </c>
+      <c r="H72" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="I72" s="151">
+        <v>430</v>
+      </c>
       <c r="J72" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K72" s="46"/>
+      <c r="K72" s="46">
+        <v>65</v>
+      </c>
       <c r="L72" s="65"/>
       <c r="M72" s="99"/>
       <c r="N72" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="166"/>
-      <c r="P72" s="183"/>
+        <v>27950</v>
+      </c>
+      <c r="O72" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" s="183">
+        <v>44585</v>
+      </c>
       <c r="Q72" s="166"/>
       <c r="R72" s="129"/>
       <c r="S72" s="182"/>
@@ -6616,32 +6776,52 @@
       <c r="U72" s="53"/>
       <c r="V72" s="54"/>
     </row>
-    <row r="73" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="179"/>
-      <c r="B73" s="180"/>
-      <c r="C73" s="185"/>
+    <row r="73" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="179" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" s="186" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="185" t="s">
+        <v>113</v>
+      </c>
       <c r="D73" s="185"/>
       <c r="E73" s="60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="151"/>
-      <c r="G73" s="152"/>
-      <c r="H73" s="153"/>
-      <c r="I73" s="151"/>
+        <f t="shared" ref="E73:E142" si="3">D73*F73</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="151">
+        <v>238</v>
+      </c>
+      <c r="G73" s="152">
+        <v>44585</v>
+      </c>
+      <c r="H73" s="153">
+        <v>36619</v>
+      </c>
+      <c r="I73" s="151">
+        <v>238</v>
+      </c>
       <c r="J73" s="45">
-        <f>I73-F73</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="46"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="46">
+        <v>57</v>
+      </c>
       <c r="L73" s="65"/>
       <c r="M73" s="99"/>
       <c r="N73" s="48">
-        <f>K73*I73</f>
-        <v>0</v>
-      </c>
-      <c r="O73" s="189"/>
-      <c r="P73" s="190"/>
+        <f t="shared" si="1"/>
+        <v>13566</v>
+      </c>
+      <c r="O73" s="419" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" s="420">
+        <v>44595</v>
+      </c>
       <c r="Q73" s="166"/>
       <c r="R73" s="129"/>
       <c r="S73" s="182"/>
@@ -6649,42 +6829,42 @@
       <c r="U73" s="53"/>
       <c r="V73" s="54"/>
     </row>
-    <row r="74" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="179"/>
-      <c r="B74" s="186"/>
+      <c r="B74" s="187"/>
       <c r="C74" s="185"/>
-      <c r="D74" s="185"/>
+      <c r="D74" s="173"/>
       <c r="E74" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F74" s="151"/>
-      <c r="G74" s="391"/>
-      <c r="H74" s="392"/>
+      <c r="G74" s="152"/>
+      <c r="H74" s="153"/>
       <c r="I74" s="151"/>
       <c r="J74" s="45">
-        <f>I74-F74</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K74" s="46"/>
       <c r="L74" s="65"/>
       <c r="M74" s="99"/>
       <c r="N74" s="48">
-        <f>K74*I74</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O74" s="166"/>
-      <c r="P74" s="405"/>
-      <c r="Q74" s="169"/>
+      <c r="P74" s="183"/>
+      <c r="Q74" s="166"/>
       <c r="R74" s="129"/>
       <c r="S74" s="182"/>
       <c r="T74" s="52"/>
       <c r="U74" s="53"/>
       <c r="V74" s="54"/>
     </row>
-    <row r="75" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="179"/>
-      <c r="B75" s="186"/>
+      <c r="B75" s="180"/>
       <c r="C75" s="185"/>
       <c r="D75" s="185"/>
       <c r="E75" s="60">
@@ -6692,8 +6872,8 @@
         <v>0</v>
       </c>
       <c r="F75" s="151"/>
-      <c r="G75" s="391"/>
-      <c r="H75" s="392"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="153"/>
       <c r="I75" s="151"/>
       <c r="J75" s="45">
         <f>I75-F75</f>
@@ -6706,9 +6886,9 @@
         <f>K75*I75</f>
         <v>0</v>
       </c>
-      <c r="O75" s="166"/>
-      <c r="P75" s="405"/>
-      <c r="Q75" s="169"/>
+      <c r="O75" s="189"/>
+      <c r="P75" s="190"/>
+      <c r="Q75" s="166"/>
       <c r="R75" s="129"/>
       <c r="S75" s="182"/>
       <c r="T75" s="52"/>
@@ -6781,32 +6961,32 @@
       <c r="U77" s="53"/>
       <c r="V77" s="54"/>
     </row>
-    <row r="78" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="179"/>
-      <c r="B78" s="180"/>
+      <c r="B78" s="186"/>
       <c r="C78" s="185"/>
-      <c r="D78" s="173"/>
+      <c r="D78" s="185"/>
       <c r="E78" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="151"/>
-      <c r="G78" s="152"/>
-      <c r="H78" s="153"/>
+      <c r="G78" s="391"/>
+      <c r="H78" s="392"/>
       <c r="I78" s="151"/>
       <c r="J78" s="45">
-        <f t="shared" si="0"/>
+        <f>I78-F78</f>
         <v>0</v>
       </c>
       <c r="K78" s="46"/>
       <c r="L78" s="65"/>
       <c r="M78" s="99"/>
       <c r="N78" s="48">
-        <f t="shared" si="1"/>
+        <f>K78*I78</f>
         <v>0</v>
       </c>
       <c r="O78" s="166"/>
-      <c r="P78" s="183"/>
+      <c r="P78" s="405"/>
       <c r="Q78" s="169"/>
       <c r="R78" s="129"/>
       <c r="S78" s="182"/>
@@ -6814,66 +6994,66 @@
       <c r="U78" s="53"/>
       <c r="V78" s="54"/>
     </row>
-    <row r="79" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="179"/>
-      <c r="B79" s="180"/>
+      <c r="B79" s="186"/>
       <c r="C79" s="185"/>
-      <c r="D79" s="191"/>
+      <c r="D79" s="185"/>
       <c r="E79" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="151"/>
-      <c r="G79" s="152"/>
-      <c r="H79" s="153"/>
+      <c r="G79" s="391"/>
+      <c r="H79" s="392"/>
       <c r="I79" s="151"/>
       <c r="J79" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="100"/>
-      <c r="L79" s="99"/>
+        <f>I79-F79</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="46"/>
+      <c r="L79" s="65"/>
       <c r="M79" s="99"/>
       <c r="N79" s="48">
-        <f t="shared" si="1"/>
+        <f>K79*I79</f>
         <v>0</v>
       </c>
       <c r="O79" s="166"/>
-      <c r="P79" s="183"/>
-      <c r="Q79" s="166"/>
+      <c r="P79" s="405"/>
+      <c r="Q79" s="169"/>
       <c r="R79" s="129"/>
       <c r="S79" s="182"/>
       <c r="T79" s="52"/>
       <c r="U79" s="53"/>
       <c r="V79" s="54"/>
     </row>
-    <row r="80" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="179"/>
       <c r="B80" s="180"/>
       <c r="C80" s="185"/>
-      <c r="D80" s="191"/>
+      <c r="D80" s="173"/>
       <c r="E80" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F80" s="151"/>
       <c r="G80" s="152"/>
-      <c r="H80" s="392"/>
+      <c r="H80" s="153"/>
       <c r="I80" s="151"/>
       <c r="J80" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K80" s="100"/>
-      <c r="L80" s="99"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="65"/>
       <c r="M80" s="99"/>
       <c r="N80" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="441"/>
-      <c r="P80" s="447"/>
-      <c r="Q80" s="166"/>
+      <c r="O80" s="166"/>
+      <c r="P80" s="183"/>
+      <c r="Q80" s="169"/>
       <c r="R80" s="129"/>
       <c r="S80" s="182"/>
       <c r="T80" s="52"/>
@@ -6891,7 +7071,7 @@
       </c>
       <c r="F81" s="151"/>
       <c r="G81" s="152"/>
-      <c r="H81" s="392"/>
+      <c r="H81" s="153"/>
       <c r="I81" s="151"/>
       <c r="J81" s="45">
         <f t="shared" si="0"/>
@@ -6904,8 +7084,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="442"/>
-      <c r="P81" s="448"/>
+      <c r="O81" s="166"/>
+      <c r="P81" s="183"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="129"/>
       <c r="S81" s="182"/>
@@ -6913,11 +7093,11 @@
       <c r="U81" s="53"/>
       <c r="V81" s="54"/>
     </row>
-    <row r="82" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="179"/>
       <c r="B82" s="180"/>
       <c r="C82" s="185"/>
-      <c r="D82" s="192"/>
+      <c r="D82" s="191"/>
       <c r="E82" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6930,27 +7110,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K82" s="76"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
+      <c r="K82" s="100"/>
+      <c r="L82" s="99"/>
+      <c r="M82" s="99"/>
       <c r="N82" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="441"/>
-      <c r="P82" s="447"/>
+      <c r="O82" s="436"/>
+      <c r="P82" s="450"/>
       <c r="Q82" s="166"/>
-      <c r="R82" s="158"/>
+      <c r="R82" s="129"/>
       <c r="S82" s="182"/>
       <c r="T82" s="52"/>
-      <c r="U82" s="159"/>
-      <c r="V82" s="160"/>
-    </row>
-    <row r="83" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U82" s="53"/>
+      <c r="V82" s="54"/>
+    </row>
+    <row r="83" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="179"/>
       <c r="B83" s="180"/>
       <c r="C83" s="185"/>
-      <c r="D83" s="192"/>
+      <c r="D83" s="191"/>
       <c r="E83" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -6963,34 +7143,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K83" s="76"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="99"/>
+      <c r="M83" s="99"/>
       <c r="N83" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="442"/>
-      <c r="P83" s="448"/>
+      <c r="O83" s="437"/>
+      <c r="P83" s="451"/>
       <c r="Q83" s="166"/>
-      <c r="R83" s="158"/>
+      <c r="R83" s="129"/>
       <c r="S83" s="182"/>
       <c r="T83" s="52"/>
-      <c r="U83" s="159"/>
-      <c r="V83" s="160"/>
+      <c r="U83" s="53"/>
+      <c r="V83" s="54"/>
     </row>
     <row r="84" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="71"/>
+      <c r="A84" s="179"/>
       <c r="B84" s="180"/>
-      <c r="C84" s="193"/>
-      <c r="D84" s="194"/>
+      <c r="C84" s="185"/>
+      <c r="D84" s="192"/>
       <c r="E84" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F84" s="151"/>
       <c r="G84" s="152"/>
-      <c r="H84" s="153"/>
+      <c r="H84" s="392"/>
       <c r="I84" s="151"/>
       <c r="J84" s="45">
         <f t="shared" si="0"/>
@@ -7003,8 +7183,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="166"/>
-      <c r="P84" s="183"/>
+      <c r="O84" s="436"/>
+      <c r="P84" s="450"/>
       <c r="Q84" s="166"/>
       <c r="R84" s="158"/>
       <c r="S84" s="182"/>
@@ -7013,17 +7193,17 @@
       <c r="V84" s="160"/>
     </row>
     <row r="85" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="71"/>
+      <c r="A85" s="179"/>
       <c r="B85" s="180"/>
-      <c r="C85" s="195"/>
-      <c r="D85" s="194"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="192"/>
       <c r="E85" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F85" s="151"/>
       <c r="G85" s="152"/>
-      <c r="H85" s="153"/>
+      <c r="H85" s="392"/>
       <c r="I85" s="151"/>
       <c r="J85" s="45">
         <f t="shared" si="0"/>
@@ -7036,8 +7216,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="166"/>
-      <c r="P85" s="196"/>
+      <c r="O85" s="437"/>
+      <c r="P85" s="451"/>
       <c r="Q85" s="166"/>
       <c r="R85" s="158"/>
       <c r="S85" s="182"/>
@@ -7048,8 +7228,8 @@
     <row r="86" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="71"/>
       <c r="B86" s="180"/>
-      <c r="C86" s="194"/>
-      <c r="D86" s="197"/>
+      <c r="C86" s="193"/>
+      <c r="D86" s="194"/>
       <c r="E86" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7070,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="166"/>
-      <c r="P86" s="196"/>
+      <c r="P86" s="183"/>
       <c r="Q86" s="166"/>
       <c r="R86" s="158"/>
       <c r="S86" s="182"/>
@@ -7078,24 +7258,24 @@
       <c r="U86" s="159"/>
       <c r="V86" s="160"/>
     </row>
-    <row r="87" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="198"/>
-      <c r="B87" s="127"/>
-      <c r="C87" s="191"/>
-      <c r="D87" s="199"/>
+    <row r="87" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="71"/>
+      <c r="B87" s="180"/>
+      <c r="C87" s="195"/>
+      <c r="D87" s="194"/>
       <c r="E87" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="117"/>
-      <c r="H87" s="200"/>
-      <c r="I87" s="64"/>
+      <c r="F87" s="151"/>
+      <c r="G87" s="152"/>
+      <c r="H87" s="153"/>
+      <c r="I87" s="151"/>
       <c r="J87" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K87" s="100"/>
+      <c r="K87" s="76"/>
       <c r="L87" s="65"/>
       <c r="M87" s="65"/>
       <c r="N87" s="48">
@@ -7105,49 +7285,49 @@
       <c r="O87" s="166"/>
       <c r="P87" s="196"/>
       <c r="Q87" s="166"/>
-      <c r="R87" s="129"/>
+      <c r="R87" s="158"/>
       <c r="S87" s="182"/>
       <c r="T87" s="52"/>
-      <c r="U87" s="53"/>
-      <c r="V87" s="54"/>
-    </row>
-    <row r="88" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="198"/>
-      <c r="B88" s="127"/>
-      <c r="C88" s="201"/>
-      <c r="D88" s="199"/>
+      <c r="U87" s="159"/>
+      <c r="V87" s="160"/>
+    </row>
+    <row r="88" spans="1:22" s="161" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="71"/>
+      <c r="B88" s="180"/>
+      <c r="C88" s="194"/>
+      <c r="D88" s="197"/>
       <c r="E88" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F88" s="64"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="200"/>
-      <c r="I88" s="64"/>
+      <c r="F88" s="151"/>
+      <c r="G88" s="152"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="151"/>
       <c r="J88" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K88" s="100"/>
-      <c r="L88" s="439"/>
-      <c r="M88" s="440"/>
-      <c r="N88" s="77">
+      <c r="K88" s="76"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O88" s="166"/>
       <c r="P88" s="196"/>
       <c r="Q88" s="166"/>
-      <c r="R88" s="129"/>
+      <c r="R88" s="158"/>
       <c r="S88" s="182"/>
       <c r="T88" s="52"/>
-      <c r="U88" s="53"/>
-      <c r="V88" s="54"/>
-    </row>
-    <row r="89" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="U88" s="159"/>
+      <c r="V88" s="160"/>
+    </row>
+    <row r="89" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="198"/>
       <c r="B89" s="127"/>
-      <c r="C89" s="202"/>
+      <c r="C89" s="191"/>
       <c r="D89" s="199"/>
       <c r="E89" s="60">
         <f t="shared" si="3"/>
@@ -7162,9 +7342,9 @@
         <v>0</v>
       </c>
       <c r="K89" s="100"/>
-      <c r="L89" s="439"/>
-      <c r="M89" s="440"/>
-      <c r="N89" s="77">
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7177,10 +7357,10 @@
       <c r="U89" s="53"/>
       <c r="V89" s="54"/>
     </row>
-    <row r="90" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="203"/>
+    <row r="90" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="198"/>
       <c r="B90" s="127"/>
-      <c r="C90" s="204"/>
+      <c r="C90" s="201"/>
       <c r="D90" s="199"/>
       <c r="E90" s="60">
         <f t="shared" si="3"/>
@@ -7195,8 +7375,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="205"/>
-      <c r="M90" s="205"/>
+      <c r="L90" s="452"/>
+      <c r="M90" s="453"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7210,10 +7390,10 @@
       <c r="U90" s="53"/>
       <c r="V90" s="54"/>
     </row>
-    <row r="91" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="206"/>
+    <row r="91" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="198"/>
       <c r="B91" s="127"/>
-      <c r="C91" s="207"/>
+      <c r="C91" s="202"/>
       <c r="D91" s="199"/>
       <c r="E91" s="60">
         <f t="shared" si="3"/>
@@ -7228,8 +7408,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="205"/>
-      <c r="M91" s="205"/>
+      <c r="L91" s="452"/>
+      <c r="M91" s="453"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7243,10 +7423,10 @@
       <c r="U91" s="53"/>
       <c r="V91" s="54"/>
     </row>
-    <row r="92" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="208"/>
+    <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="203"/>
       <c r="B92" s="127"/>
-      <c r="C92" s="199"/>
+      <c r="C92" s="204"/>
       <c r="D92" s="199"/>
       <c r="E92" s="60">
         <f t="shared" si="3"/>
@@ -7261,8 +7441,8 @@
         <v>0</v>
       </c>
       <c r="K92" s="100"/>
-      <c r="L92" s="65"/>
-      <c r="M92" s="65"/>
+      <c r="L92" s="205"/>
+      <c r="M92" s="205"/>
       <c r="N92" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7276,10 +7456,10 @@
       <c r="U92" s="53"/>
       <c r="V92" s="54"/>
     </row>
-    <row r="93" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="208"/>
+    <row r="93" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="206"/>
       <c r="B93" s="127"/>
-      <c r="C93" s="199"/>
+      <c r="C93" s="207"/>
       <c r="D93" s="199"/>
       <c r="E93" s="60">
         <f t="shared" si="3"/>
@@ -7294,8 +7474,8 @@
         <v>0</v>
       </c>
       <c r="K93" s="100"/>
-      <c r="L93" s="65"/>
-      <c r="M93" s="65"/>
+      <c r="L93" s="205"/>
+      <c r="M93" s="205"/>
       <c r="N93" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7327,8 +7507,8 @@
         <v>0</v>
       </c>
       <c r="K94" s="100"/>
-      <c r="L94" s="99"/>
-      <c r="M94" s="99"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
       <c r="N94" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7343,9 +7523,9 @@
       <c r="V94" s="54"/>
     </row>
     <row r="95" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="198"/>
+      <c r="A95" s="208"/>
       <c r="B95" s="127"/>
-      <c r="C95" s="191"/>
+      <c r="C95" s="199"/>
       <c r="D95" s="199"/>
       <c r="E95" s="60">
         <f t="shared" si="3"/>
@@ -7360,14 +7540,14 @@
         <v>0</v>
       </c>
       <c r="K95" s="100"/>
-      <c r="L95" s="99"/>
-      <c r="M95" s="99"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
       <c r="N95" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="441"/>
-      <c r="P95" s="443"/>
+      <c r="O95" s="166"/>
+      <c r="P95" s="196"/>
       <c r="Q95" s="166"/>
       <c r="R95" s="129"/>
       <c r="S95" s="182"/>
@@ -7376,9 +7556,9 @@
       <c r="V95" s="54"/>
     </row>
     <row r="96" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="198"/>
+      <c r="A96" s="208"/>
       <c r="B96" s="127"/>
-      <c r="C96" s="191"/>
+      <c r="C96" s="199"/>
       <c r="D96" s="199"/>
       <c r="E96" s="60">
         <f t="shared" si="3"/>
@@ -7399,8 +7579,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O96" s="442"/>
-      <c r="P96" s="444"/>
+      <c r="O96" s="166"/>
+      <c r="P96" s="196"/>
       <c r="Q96" s="166"/>
       <c r="R96" s="129"/>
       <c r="S96" s="182"/>
@@ -7409,9 +7589,9 @@
       <c r="V96" s="54"/>
     </row>
     <row r="97" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="127"/>
+      <c r="A97" s="198"/>
       <c r="B97" s="127"/>
-      <c r="C97" s="199"/>
+      <c r="C97" s="191"/>
       <c r="D97" s="199"/>
       <c r="E97" s="60">
         <f t="shared" si="3"/>
@@ -7432,8 +7612,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="166"/>
-      <c r="P97" s="196"/>
+      <c r="O97" s="436"/>
+      <c r="P97" s="446"/>
       <c r="Q97" s="166"/>
       <c r="R97" s="129"/>
       <c r="S97" s="182"/>
@@ -7442,9 +7622,9 @@
       <c r="V97" s="54"/>
     </row>
     <row r="98" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="127"/>
+      <c r="A98" s="198"/>
       <c r="B98" s="127"/>
-      <c r="C98" s="199"/>
+      <c r="C98" s="191"/>
       <c r="D98" s="199"/>
       <c r="E98" s="60">
         <f t="shared" si="3"/>
@@ -7465,8 +7645,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="166"/>
-      <c r="P98" s="196"/>
+      <c r="O98" s="437"/>
+      <c r="P98" s="447"/>
       <c r="Q98" s="166"/>
       <c r="R98" s="129"/>
       <c r="S98" s="182"/>
@@ -7475,17 +7655,17 @@
       <c r="V98" s="54"/>
     </row>
     <row r="99" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="113"/>
+      <c r="A99" s="127"/>
       <c r="B99" s="127"/>
-      <c r="C99" s="209"/>
-      <c r="D99" s="209"/>
+      <c r="C99" s="199"/>
+      <c r="D99" s="199"/>
       <c r="E99" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F99" s="64"/>
       <c r="G99" s="117"/>
-      <c r="H99" s="63"/>
+      <c r="H99" s="200"/>
       <c r="I99" s="64"/>
       <c r="J99" s="45">
         <f t="shared" si="0"/>
@@ -7507,18 +7687,18 @@
       <c r="U99" s="53"/>
       <c r="V99" s="54"/>
     </row>
-    <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A100" s="179"/>
-      <c r="B100" s="198"/>
-      <c r="C100" s="204"/>
-      <c r="D100" s="204"/>
+    <row r="100" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="127"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="199"/>
+      <c r="D100" s="199"/>
       <c r="E100" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F100" s="64"/>
       <c r="G100" s="117"/>
-      <c r="H100" s="63"/>
+      <c r="H100" s="200"/>
       <c r="I100" s="64"/>
       <c r="J100" s="45">
         <f t="shared" si="0"/>
@@ -7540,9 +7720,9 @@
       <c r="U100" s="53"/>
       <c r="V100" s="54"/>
     </row>
-    <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="179"/>
-      <c r="B101" s="198"/>
+    <row r="101" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A101" s="113"/>
+      <c r="B101" s="127"/>
       <c r="C101" s="209"/>
       <c r="D101" s="209"/>
       <c r="E101" s="60">
@@ -7576,8 +7756,8 @@
     <row r="102" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A102" s="179"/>
       <c r="B102" s="198"/>
-      <c r="C102" s="209"/>
-      <c r="D102" s="209"/>
+      <c r="C102" s="204"/>
+      <c r="D102" s="204"/>
       <c r="E102" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7606,9 +7786,9 @@
       <c r="U102" s="53"/>
       <c r="V102" s="54"/>
     </row>
-    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="118"/>
-      <c r="B103" s="127"/>
+    <row r="103" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="179"/>
+      <c r="B103" s="198"/>
       <c r="C103" s="209"/>
       <c r="D103" s="209"/>
       <c r="E103" s="60">
@@ -7635,13 +7815,13 @@
       <c r="Q103" s="166"/>
       <c r="R103" s="129"/>
       <c r="S103" s="182"/>
-      <c r="T103" s="182"/>
+      <c r="T103" s="52"/>
       <c r="U103" s="53"/>
       <c r="V103" s="54"/>
     </row>
-    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="118"/>
-      <c r="B104" s="127"/>
+    <row r="104" spans="1:22" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="179"/>
+      <c r="B104" s="198"/>
       <c r="C104" s="209"/>
       <c r="D104" s="209"/>
       <c r="E104" s="60">
@@ -7668,7 +7848,7 @@
       <c r="Q104" s="166"/>
       <c r="R104" s="129"/>
       <c r="S104" s="182"/>
-      <c r="T104" s="182"/>
+      <c r="T104" s="52"/>
       <c r="U104" s="53"/>
       <c r="V104" s="54"/>
     </row>
@@ -7705,9 +7885,9 @@
       <c r="U105" s="53"/>
       <c r="V105" s="54"/>
     </row>
-    <row r="106" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="127"/>
-      <c r="B106" s="210"/>
+    <row r="106" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="118"/>
+      <c r="B106" s="127"/>
       <c r="C106" s="209"/>
       <c r="D106" s="209"/>
       <c r="E106" s="60">
@@ -7734,12 +7914,12 @@
       <c r="Q106" s="166"/>
       <c r="R106" s="129"/>
       <c r="S106" s="182"/>
-      <c r="T106" s="52"/>
+      <c r="T106" s="182"/>
       <c r="U106" s="53"/>
       <c r="V106" s="54"/>
     </row>
     <row r="107" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="127"/>
+      <c r="A107" s="118"/>
       <c r="B107" s="127"/>
       <c r="C107" s="209"/>
       <c r="D107" s="209"/>
@@ -7767,13 +7947,13 @@
       <c r="Q107" s="166"/>
       <c r="R107" s="129"/>
       <c r="S107" s="182"/>
-      <c r="T107" s="52"/>
+      <c r="T107" s="182"/>
       <c r="U107" s="53"/>
       <c r="V107" s="54"/>
     </row>
-    <row r="108" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="127"/>
-      <c r="B108" s="127"/>
+      <c r="B108" s="210"/>
       <c r="C108" s="209"/>
       <c r="D108" s="209"/>
       <c r="E108" s="60">
@@ -7805,7 +7985,7 @@
       <c r="V108" s="54"/>
     </row>
     <row r="109" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="179"/>
+      <c r="A109" s="127"/>
       <c r="B109" s="127"/>
       <c r="C109" s="209"/>
       <c r="D109" s="209"/>
@@ -7837,18 +8017,18 @@
       <c r="U109" s="53"/>
       <c r="V109" s="54"/>
     </row>
-    <row r="110" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="171"/>
-      <c r="B110" s="171"/>
-      <c r="C110" s="386"/>
-      <c r="D110" s="386"/>
-      <c r="E110" s="387">
+    <row r="110" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="127"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="209"/>
+      <c r="D110" s="209"/>
+      <c r="E110" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F110" s="44"/>
-      <c r="G110" s="388"/>
-      <c r="H110" s="389"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="117"/>
+      <c r="H110" s="63"/>
       <c r="I110" s="64"/>
       <c r="J110" s="45">
         <f t="shared" si="0"/>
@@ -7870,12 +8050,12 @@
       <c r="U110" s="53"/>
       <c r="V110" s="54"/>
     </row>
-    <row r="111" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="127"/>
+    <row r="111" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="179"/>
       <c r="B111" s="127"/>
       <c r="C111" s="209"/>
       <c r="D111" s="209"/>
-      <c r="E111" s="40">
+      <c r="E111" s="60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7903,18 +8083,18 @@
       <c r="U111" s="53"/>
       <c r="V111" s="54"/>
     </row>
-    <row r="112" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="198"/>
-      <c r="B112" s="127"/>
-      <c r="C112" s="209"/>
-      <c r="D112" s="209"/>
-      <c r="E112" s="40">
+    <row r="112" spans="1:22" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="171"/>
+      <c r="B112" s="171"/>
+      <c r="C112" s="386"/>
+      <c r="D112" s="386"/>
+      <c r="E112" s="387">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F112" s="64"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="63"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="388"/>
+      <c r="H112" s="389"/>
       <c r="I112" s="64"/>
       <c r="J112" s="45">
         <f t="shared" si="0"/>
@@ -7937,7 +8117,7 @@
       <c r="V112" s="54"/>
     </row>
     <row r="113" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="198"/>
+      <c r="A113" s="127"/>
       <c r="B113" s="127"/>
       <c r="C113" s="209"/>
       <c r="D113" s="209"/>
@@ -8003,7 +8183,7 @@
       <c r="V114" s="54"/>
     </row>
     <row r="115" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="127"/>
+      <c r="A115" s="198"/>
       <c r="B115" s="127"/>
       <c r="C115" s="209"/>
       <c r="D115" s="209"/>
@@ -8036,7 +8216,7 @@
       <c r="V115" s="54"/>
     </row>
     <row r="116" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="184"/>
+      <c r="A116" s="198"/>
       <c r="B116" s="127"/>
       <c r="C116" s="209"/>
       <c r="D116" s="209"/>
@@ -8069,7 +8249,7 @@
       <c r="V116" s="54"/>
     </row>
     <row r="117" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="118"/>
+      <c r="A117" s="127"/>
       <c r="B117" s="127"/>
       <c r="C117" s="209"/>
       <c r="D117" s="209"/>
@@ -8102,7 +8282,7 @@
       <c r="V117" s="54"/>
     </row>
     <row r="118" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="118"/>
+      <c r="A118" s="184"/>
       <c r="B118" s="127"/>
       <c r="C118" s="209"/>
       <c r="D118" s="209"/>
@@ -8135,7 +8315,7 @@
       <c r="V118" s="54"/>
     </row>
     <row r="119" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="211"/>
+      <c r="A119" s="118"/>
       <c r="B119" s="127"/>
       <c r="C119" s="209"/>
       <c r="D119" s="209"/>
@@ -8168,7 +8348,7 @@
       <c r="V119" s="54"/>
     </row>
     <row r="120" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="212"/>
+      <c r="A120" s="118"/>
       <c r="B120" s="127"/>
       <c r="C120" s="209"/>
       <c r="D120" s="209"/>
@@ -8201,7 +8381,7 @@
       <c r="V120" s="54"/>
     </row>
     <row r="121" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="213"/>
+      <c r="A121" s="211"/>
       <c r="B121" s="127"/>
       <c r="C121" s="209"/>
       <c r="D121" s="209"/>
@@ -8234,10 +8414,10 @@
       <c r="V121" s="54"/>
     </row>
     <row r="122" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="213"/>
+      <c r="A122" s="212"/>
       <c r="B122" s="127"/>
-      <c r="C122" s="207"/>
-      <c r="D122" s="207"/>
+      <c r="C122" s="209"/>
+      <c r="D122" s="209"/>
       <c r="E122" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8267,7 +8447,7 @@
       <c r="V122" s="54"/>
     </row>
     <row r="123" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="212"/>
+      <c r="A123" s="213"/>
       <c r="B123" s="127"/>
       <c r="C123" s="209"/>
       <c r="D123" s="209"/>
@@ -8277,7 +8457,7 @@
       </c>
       <c r="F123" s="64"/>
       <c r="G123" s="117"/>
-      <c r="H123" s="214"/>
+      <c r="H123" s="63"/>
       <c r="I123" s="64"/>
       <c r="J123" s="45">
         <f t="shared" si="0"/>
@@ -8300,7 +8480,7 @@
       <c r="V123" s="54"/>
     </row>
     <row r="124" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="212"/>
+      <c r="A124" s="213"/>
       <c r="B124" s="127"/>
       <c r="C124" s="207"/>
       <c r="D124" s="207"/>
@@ -8310,7 +8490,7 @@
       </c>
       <c r="F124" s="64"/>
       <c r="G124" s="117"/>
-      <c r="H124" s="214"/>
+      <c r="H124" s="63"/>
       <c r="I124" s="64"/>
       <c r="J124" s="45">
         <f t="shared" si="0"/>
@@ -8368,8 +8548,8 @@
     <row r="126" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="212"/>
       <c r="B126" s="127"/>
-      <c r="C126" s="204"/>
-      <c r="D126" s="204"/>
+      <c r="C126" s="207"/>
+      <c r="D126" s="207"/>
       <c r="E126" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8390,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="O126" s="166"/>
-      <c r="P126" s="183"/>
+      <c r="P126" s="196"/>
       <c r="Q126" s="166"/>
       <c r="R126" s="129"/>
       <c r="S126" s="182"/>
@@ -8398,8 +8578,8 @@
       <c r="U126" s="53"/>
       <c r="V126" s="54"/>
     </row>
-    <row r="127" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="127"/>
+    <row r="127" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="212"/>
       <c r="B127" s="127"/>
       <c r="C127" s="209"/>
       <c r="D127" s="209"/>
@@ -8409,7 +8589,7 @@
       </c>
       <c r="F127" s="64"/>
       <c r="G127" s="117"/>
-      <c r="H127" s="215"/>
+      <c r="H127" s="214"/>
       <c r="I127" s="64"/>
       <c r="J127" s="45">
         <f t="shared" si="0"/>
@@ -8423,26 +8603,26 @@
         <v>0</v>
       </c>
       <c r="O127" s="166"/>
-      <c r="P127" s="216"/>
+      <c r="P127" s="196"/>
       <c r="Q127" s="166"/>
-      <c r="R127" s="217"/>
+      <c r="R127" s="129"/>
       <c r="S127" s="182"/>
       <c r="T127" s="52"/>
       <c r="U127" s="53"/>
       <c r="V127" s="54"/>
     </row>
-    <row r="128" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="127"/>
+    <row r="128" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="212"/>
       <c r="B128" s="127"/>
-      <c r="C128" s="209"/>
-      <c r="D128" s="209"/>
+      <c r="C128" s="204"/>
+      <c r="D128" s="204"/>
       <c r="E128" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F128" s="64"/>
       <c r="G128" s="117"/>
-      <c r="H128" s="215"/>
+      <c r="H128" s="214"/>
       <c r="I128" s="64"/>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -8456,9 +8636,9 @@
         <v>0</v>
       </c>
       <c r="O128" s="166"/>
-      <c r="P128" s="216"/>
+      <c r="P128" s="183"/>
       <c r="Q128" s="166"/>
-      <c r="R128" s="217"/>
+      <c r="R128" s="129"/>
       <c r="S128" s="182"/>
       <c r="T128" s="52"/>
       <c r="U128" s="53"/>
@@ -8530,8 +8710,8 @@
       <c r="U130" s="53"/>
       <c r="V130" s="54"/>
     </row>
-    <row r="131" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="113"/>
+    <row r="131" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="127"/>
       <c r="B131" s="127"/>
       <c r="C131" s="209"/>
       <c r="D131" s="209"/>
@@ -8541,7 +8721,7 @@
       </c>
       <c r="F131" s="64"/>
       <c r="G131" s="117"/>
-      <c r="H131" s="218"/>
+      <c r="H131" s="215"/>
       <c r="I131" s="64"/>
       <c r="J131" s="45">
         <f t="shared" si="0"/>
@@ -8554,16 +8734,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O131" s="98"/>
-      <c r="P131" s="219"/>
-      <c r="Q131" s="220"/>
+      <c r="O131" s="166"/>
+      <c r="P131" s="216"/>
+      <c r="Q131" s="166"/>
       <c r="R131" s="217"/>
       <c r="S131" s="182"/>
       <c r="T131" s="52"/>
       <c r="U131" s="53"/>
       <c r="V131" s="54"/>
     </row>
-    <row r="132" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="127"/>
       <c r="B132" s="127"/>
       <c r="C132" s="209"/>
@@ -8574,7 +8754,7 @@
       </c>
       <c r="F132" s="64"/>
       <c r="G132" s="117"/>
-      <c r="H132" s="218"/>
+      <c r="H132" s="215"/>
       <c r="I132" s="64"/>
       <c r="J132" s="45">
         <f t="shared" si="0"/>
@@ -8587,9 +8767,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O132" s="98"/>
-      <c r="P132" s="219"/>
-      <c r="Q132" s="220"/>
+      <c r="O132" s="166"/>
+      <c r="P132" s="216"/>
+      <c r="Q132" s="166"/>
       <c r="R132" s="217"/>
       <c r="S132" s="182"/>
       <c r="T132" s="52"/>
@@ -8597,10 +8777,10 @@
       <c r="V132" s="54"/>
     </row>
     <row r="133" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="118"/>
+      <c r="A133" s="113"/>
       <c r="B133" s="127"/>
-      <c r="C133" s="221"/>
-      <c r="D133" s="221"/>
+      <c r="C133" s="209"/>
+      <c r="D133" s="209"/>
       <c r="E133" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8630,10 +8810,10 @@
       <c r="V133" s="54"/>
     </row>
     <row r="134" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="118"/>
+      <c r="A134" s="127"/>
       <c r="B134" s="127"/>
-      <c r="C134" s="221"/>
-      <c r="D134" s="221"/>
+      <c r="C134" s="209"/>
+      <c r="D134" s="209"/>
       <c r="E134" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8762,10 +8942,10 @@
       <c r="V137" s="54"/>
     </row>
     <row r="138" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="212"/>
+      <c r="A138" s="118"/>
       <c r="B138" s="127"/>
-      <c r="C138" s="209"/>
-      <c r="D138" s="209"/>
+      <c r="C138" s="221"/>
+      <c r="D138" s="221"/>
       <c r="E138" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8795,17 +8975,17 @@
       <c r="V138" s="54"/>
     </row>
     <row r="139" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="222"/>
+      <c r="A139" s="118"/>
       <c r="B139" s="127"/>
-      <c r="C139" s="202"/>
-      <c r="D139" s="202"/>
+      <c r="C139" s="221"/>
+      <c r="D139" s="221"/>
       <c r="E139" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F139" s="64"/>
       <c r="G139" s="117"/>
-      <c r="H139" s="214"/>
+      <c r="H139" s="218"/>
       <c r="I139" s="64"/>
       <c r="J139" s="45">
         <f t="shared" si="0"/>
@@ -8828,17 +9008,17 @@
       <c r="V139" s="54"/>
     </row>
     <row r="140" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="222"/>
+      <c r="A140" s="212"/>
       <c r="B140" s="127"/>
-      <c r="C140" s="202"/>
-      <c r="D140" s="202"/>
+      <c r="C140" s="209"/>
+      <c r="D140" s="209"/>
       <c r="E140" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F140" s="64"/>
       <c r="G140" s="117"/>
-      <c r="H140" s="214"/>
+      <c r="H140" s="218"/>
       <c r="I140" s="64"/>
       <c r="J140" s="45">
         <f t="shared" si="0"/>
@@ -8853,7 +9033,7 @@
       </c>
       <c r="O140" s="98"/>
       <c r="P140" s="219"/>
-      <c r="Q140" s="223"/>
+      <c r="Q140" s="220"/>
       <c r="R140" s="217"/>
       <c r="S140" s="182"/>
       <c r="T140" s="52"/>
@@ -8866,7 +9046,7 @@
       <c r="C141" s="202"/>
       <c r="D141" s="202"/>
       <c r="E141" s="40">
-        <f t="shared" ref="E141:E204" si="4">D141*F141</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F141" s="64"/>
@@ -8894,12 +9074,12 @@
       <c r="V141" s="54"/>
     </row>
     <row r="142" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="212"/>
+      <c r="A142" s="222"/>
       <c r="B142" s="127"/>
-      <c r="C142" s="209"/>
-      <c r="D142" s="209"/>
+      <c r="C142" s="202"/>
+      <c r="D142" s="202"/>
       <c r="E142" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F142" s="64"/>
@@ -8918,26 +9098,26 @@
         <v>0</v>
       </c>
       <c r="O142" s="98"/>
-      <c r="P142" s="224"/>
-      <c r="Q142" s="220"/>
+      <c r="P142" s="219"/>
+      <c r="Q142" s="223"/>
       <c r="R142" s="217"/>
       <c r="S142" s="182"/>
       <c r="T142" s="52"/>
       <c r="U142" s="53"/>
       <c r="V142" s="54"/>
     </row>
-    <row r="143" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="212"/>
+    <row r="143" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="222"/>
       <c r="B143" s="127"/>
-      <c r="C143" s="209"/>
-      <c r="D143" s="209"/>
+      <c r="C143" s="202"/>
+      <c r="D143" s="202"/>
       <c r="E143" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E143:E206" si="4">D143*F143</f>
         <v>0</v>
       </c>
       <c r="F143" s="64"/>
       <c r="G143" s="117"/>
-      <c r="H143" s="225"/>
+      <c r="H143" s="214"/>
       <c r="I143" s="64"/>
       <c r="J143" s="45">
         <f t="shared" si="0"/>
@@ -8951,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="O143" s="98"/>
-      <c r="P143" s="224"/>
+      <c r="P143" s="219"/>
       <c r="Q143" s="220"/>
       <c r="R143" s="217"/>
       <c r="S143" s="182"/>
@@ -8970,7 +9150,7 @@
       </c>
       <c r="F144" s="64"/>
       <c r="G144" s="117"/>
-      <c r="H144" s="226"/>
+      <c r="H144" s="214"/>
       <c r="I144" s="64"/>
       <c r="J144" s="45">
         <f t="shared" si="0"/>
@@ -8992,7 +9172,7 @@
       <c r="U144" s="53"/>
       <c r="V144" s="54"/>
     </row>
-    <row r="145" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="212"/>
       <c r="B145" s="127"/>
       <c r="C145" s="209"/>
@@ -9003,7 +9183,7 @@
       </c>
       <c r="F145" s="64"/>
       <c r="G145" s="117"/>
-      <c r="H145" s="214"/>
+      <c r="H145" s="225"/>
       <c r="I145" s="64"/>
       <c r="J145" s="45">
         <f t="shared" si="0"/>
@@ -9026,7 +9206,7 @@
       <c r="V145" s="54"/>
     </row>
     <row r="146" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="227"/>
+      <c r="A146" s="212"/>
       <c r="B146" s="127"/>
       <c r="C146" s="209"/>
       <c r="D146" s="209"/>
@@ -9036,7 +9216,7 @@
       </c>
       <c r="F146" s="64"/>
       <c r="G146" s="117"/>
-      <c r="H146" s="228"/>
+      <c r="H146" s="226"/>
       <c r="I146" s="64"/>
       <c r="J146" s="45">
         <f t="shared" si="0"/>
@@ -9049,17 +9229,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O146" s="229"/>
-      <c r="P146" s="230"/>
-      <c r="Q146" s="231"/>
-      <c r="R146" s="232"/>
+      <c r="O146" s="98"/>
+      <c r="P146" s="224"/>
+      <c r="Q146" s="220"/>
+      <c r="R146" s="217"/>
       <c r="S146" s="182"/>
       <c r="T146" s="52"/>
       <c r="U146" s="53"/>
       <c r="V146" s="54"/>
     </row>
     <row r="147" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="233"/>
+      <c r="A147" s="212"/>
       <c r="B147" s="127"/>
       <c r="C147" s="209"/>
       <c r="D147" s="209"/>
@@ -9068,8 +9248,8 @@
         <v>0</v>
       </c>
       <c r="F147" s="64"/>
-      <c r="G147" s="234"/>
-      <c r="H147" s="235"/>
+      <c r="G147" s="117"/>
+      <c r="H147" s="214"/>
       <c r="I147" s="64"/>
       <c r="J147" s="45">
         <f t="shared" si="0"/>
@@ -9082,8 +9262,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O147" s="236"/>
-      <c r="P147" s="237"/>
+      <c r="O147" s="98"/>
+      <c r="P147" s="224"/>
       <c r="Q147" s="220"/>
       <c r="R147" s="217"/>
       <c r="S147" s="182"/>
@@ -9092,7 +9272,7 @@
       <c r="V147" s="54"/>
     </row>
     <row r="148" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="213"/>
+      <c r="A148" s="227"/>
       <c r="B148" s="127"/>
       <c r="C148" s="209"/>
       <c r="D148" s="209"/>
@@ -9101,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="F148" s="64"/>
-      <c r="G148" s="237"/>
+      <c r="G148" s="117"/>
       <c r="H148" s="228"/>
       <c r="I148" s="64"/>
       <c r="J148" s="45">
@@ -9115,17 +9295,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O148" s="236"/>
-      <c r="P148" s="237"/>
-      <c r="Q148" s="220"/>
-      <c r="R148" s="217"/>
+      <c r="O148" s="229"/>
+      <c r="P148" s="230"/>
+      <c r="Q148" s="231"/>
+      <c r="R148" s="232"/>
       <c r="S148" s="182"/>
       <c r="T148" s="52"/>
       <c r="U148" s="53"/>
       <c r="V148" s="54"/>
     </row>
     <row r="149" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="213"/>
+      <c r="A149" s="233"/>
       <c r="B149" s="127"/>
       <c r="C149" s="209"/>
       <c r="D149" s="209"/>
@@ -9134,33 +9314,31 @@
         <v>0</v>
       </c>
       <c r="F149" s="64"/>
-      <c r="G149" s="237"/>
+      <c r="G149" s="234"/>
       <c r="H149" s="235"/>
       <c r="I149" s="64"/>
       <c r="J149" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K149" s="238"/>
+      <c r="K149" s="100"/>
       <c r="L149" s="99"/>
-      <c r="M149" s="99" t="s">
-        <v>25</v>
-      </c>
+      <c r="M149" s="99"/>
       <c r="N149" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O149" s="229"/>
-      <c r="P149" s="230"/>
-      <c r="Q149" s="231"/>
-      <c r="R149" s="232"/>
+      <c r="O149" s="236"/>
+      <c r="P149" s="237"/>
+      <c r="Q149" s="220"/>
+      <c r="R149" s="217"/>
       <c r="S149" s="182"/>
       <c r="T149" s="52"/>
       <c r="U149" s="53"/>
       <c r="V149" s="54"/>
     </row>
     <row r="150" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="212"/>
+      <c r="A150" s="213"/>
       <c r="B150" s="127"/>
       <c r="C150" s="209"/>
       <c r="D150" s="209"/>
@@ -9170,13 +9348,13 @@
       </c>
       <c r="F150" s="64"/>
       <c r="G150" s="237"/>
-      <c r="H150" s="235"/>
+      <c r="H150" s="228"/>
       <c r="I150" s="64"/>
       <c r="J150" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K150" s="238"/>
+      <c r="K150" s="100"/>
       <c r="L150" s="99"/>
       <c r="M150" s="99"/>
       <c r="N150" s="77">
@@ -9193,40 +9371,42 @@
       <c r="V150" s="54"/>
     </row>
     <row r="151" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="222"/>
+      <c r="A151" s="213"/>
       <c r="B151" s="127"/>
-      <c r="C151" s="239"/>
-      <c r="D151" s="239"/>
+      <c r="C151" s="209"/>
+      <c r="D151" s="209"/>
       <c r="E151" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F151" s="64"/>
       <c r="G151" s="237"/>
-      <c r="H151" s="240"/>
+      <c r="H151" s="235"/>
       <c r="I151" s="64"/>
       <c r="J151" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K151" s="100"/>
+      <c r="K151" s="238"/>
       <c r="L151" s="99"/>
-      <c r="M151" s="99"/>
+      <c r="M151" s="99" t="s">
+        <v>25</v>
+      </c>
       <c r="N151" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O151" s="241"/>
-      <c r="P151" s="242"/>
-      <c r="Q151" s="128"/>
-      <c r="R151" s="129"/>
+      <c r="O151" s="229"/>
+      <c r="P151" s="230"/>
+      <c r="Q151" s="231"/>
+      <c r="R151" s="232"/>
       <c r="S151" s="182"/>
       <c r="T151" s="52"/>
       <c r="U151" s="53"/>
       <c r="V151" s="54"/>
     </row>
     <row r="152" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="243"/>
+      <c r="A152" s="212"/>
       <c r="B152" s="127"/>
       <c r="C152" s="209"/>
       <c r="D152" s="209"/>
@@ -9236,63 +9416,63 @@
       </c>
       <c r="F152" s="64"/>
       <c r="G152" s="237"/>
-      <c r="H152" s="214"/>
+      <c r="H152" s="235"/>
       <c r="I152" s="64"/>
       <c r="J152" s="45">
-        <f t="shared" ref="J152:J215" si="5">I152-F152</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K152" s="238"/>
-      <c r="L152" s="244"/>
-      <c r="M152" s="244"/>
+      <c r="L152" s="99"/>
+      <c r="M152" s="99"/>
       <c r="N152" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O152" s="241"/>
-      <c r="P152" s="242"/>
-      <c r="Q152" s="231"/>
-      <c r="R152" s="232"/>
+      <c r="O152" s="236"/>
+      <c r="P152" s="237"/>
+      <c r="Q152" s="220"/>
+      <c r="R152" s="217"/>
       <c r="S152" s="182"/>
       <c r="T152" s="52"/>
       <c r="U152" s="53"/>
       <c r="V152" s="54"/>
     </row>
     <row r="153" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="212"/>
+      <c r="A153" s="222"/>
       <c r="B153" s="127"/>
-      <c r="C153" s="209"/>
-      <c r="D153" s="209"/>
+      <c r="C153" s="239"/>
+      <c r="D153" s="239"/>
       <c r="E153" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F153" s="64"/>
       <c r="G153" s="237"/>
-      <c r="H153" s="214"/>
+      <c r="H153" s="240"/>
       <c r="I153" s="64"/>
       <c r="J153" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K153" s="238"/>
-      <c r="L153" s="244"/>
-      <c r="M153" s="244"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="100"/>
+      <c r="L153" s="99"/>
+      <c r="M153" s="99"/>
       <c r="N153" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O153" s="98"/>
-      <c r="P153" s="219"/>
-      <c r="Q153" s="231"/>
-      <c r="R153" s="232"/>
+      <c r="O153" s="241"/>
+      <c r="P153" s="242"/>
+      <c r="Q153" s="128"/>
+      <c r="R153" s="129"/>
       <c r="S153" s="182"/>
       <c r="T153" s="52"/>
       <c r="U153" s="53"/>
       <c r="V153" s="54"/>
     </row>
     <row r="154" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="213"/>
+      <c r="A154" s="243"/>
       <c r="B154" s="127"/>
       <c r="C154" s="209"/>
       <c r="D154" s="209"/>
@@ -9302,21 +9482,21 @@
       </c>
       <c r="F154" s="64"/>
       <c r="G154" s="237"/>
-      <c r="H154" s="245"/>
+      <c r="H154" s="214"/>
       <c r="I154" s="64"/>
       <c r="J154" s="45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K154" s="246"/>
+        <f t="shared" ref="J154:J217" si="5">I154-F154</f>
+        <v>0</v>
+      </c>
+      <c r="K154" s="238"/>
       <c r="L154" s="244"/>
       <c r="M154" s="244"/>
-      <c r="N154" s="247">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O154" s="236"/>
-      <c r="P154" s="237"/>
+      <c r="N154" s="77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O154" s="241"/>
+      <c r="P154" s="242"/>
       <c r="Q154" s="231"/>
       <c r="R154" s="232"/>
       <c r="S154" s="182"/>
@@ -9324,8 +9504,8 @@
       <c r="U154" s="53"/>
       <c r="V154" s="54"/>
     </row>
-    <row r="155" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="213"/>
+    <row r="155" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="212"/>
       <c r="B155" s="127"/>
       <c r="C155" s="209"/>
       <c r="D155" s="209"/>
@@ -9341,15 +9521,15 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K155" s="248"/>
-      <c r="L155" s="249"/>
-      <c r="M155" s="249"/>
-      <c r="N155" s="247">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O155" s="229"/>
-      <c r="P155" s="230"/>
+      <c r="K155" s="238"/>
+      <c r="L155" s="244"/>
+      <c r="M155" s="244"/>
+      <c r="N155" s="77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O155" s="98"/>
+      <c r="P155" s="219"/>
       <c r="Q155" s="231"/>
       <c r="R155" s="232"/>
       <c r="S155" s="182"/>
@@ -9358,7 +9538,7 @@
       <c r="V155" s="54"/>
     </row>
     <row r="156" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="250"/>
+      <c r="A156" s="213"/>
       <c r="B156" s="127"/>
       <c r="C156" s="209"/>
       <c r="D156" s="209"/>
@@ -9366,19 +9546,19 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F156" s="251"/>
+      <c r="F156" s="64"/>
       <c r="G156" s="237"/>
-      <c r="H156" s="226"/>
+      <c r="H156" s="245"/>
       <c r="I156" s="64"/>
       <c r="J156" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K156" s="248"/>
-      <c r="L156" s="252"/>
-      <c r="M156" s="252"/>
+      <c r="K156" s="246"/>
+      <c r="L156" s="244"/>
+      <c r="M156" s="244"/>
       <c r="N156" s="247">
-        <f>K156*I156</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O156" s="236"/>
@@ -9390,8 +9570,8 @@
       <c r="U156" s="53"/>
       <c r="V156" s="54"/>
     </row>
-    <row r="157" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="227"/>
+    <row r="157" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="213"/>
       <c r="B157" s="127"/>
       <c r="C157" s="209"/>
       <c r="D157" s="209"/>
@@ -9408,10 +9588,10 @@
         <v>0</v>
       </c>
       <c r="K157" s="248"/>
-      <c r="L157" s="244"/>
-      <c r="M157" s="244"/>
+      <c r="L157" s="249"/>
+      <c r="M157" s="249"/>
       <c r="N157" s="247">
-        <f t="shared" ref="N157:N241" si="6">K157*I157</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O157" s="229"/>
@@ -9423,8 +9603,8 @@
       <c r="U157" s="53"/>
       <c r="V157" s="54"/>
     </row>
-    <row r="158" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="213"/>
+    <row r="158" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="250"/>
       <c r="B158" s="127"/>
       <c r="C158" s="209"/>
       <c r="D158" s="209"/>
@@ -9432,23 +9612,23 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F158" s="64"/>
+      <c r="F158" s="251"/>
       <c r="G158" s="237"/>
-      <c r="H158" s="253"/>
+      <c r="H158" s="226"/>
       <c r="I158" s="64"/>
       <c r="J158" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K158" s="100"/>
-      <c r="L158" s="244"/>
-      <c r="M158" s="244"/>
-      <c r="N158" s="77">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O158" s="229"/>
-      <c r="P158" s="230"/>
+      <c r="K158" s="248"/>
+      <c r="L158" s="252"/>
+      <c r="M158" s="252"/>
+      <c r="N158" s="247">
+        <f>K158*I158</f>
+        <v>0</v>
+      </c>
+      <c r="O158" s="236"/>
+      <c r="P158" s="237"/>
       <c r="Q158" s="231"/>
       <c r="R158" s="232"/>
       <c r="S158" s="182"/>
@@ -9457,7 +9637,7 @@
       <c r="V158" s="54"/>
     </row>
     <row r="159" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="213"/>
+      <c r="A159" s="227"/>
       <c r="B159" s="127"/>
       <c r="C159" s="209"/>
       <c r="D159" s="209"/>
@@ -9467,7 +9647,7 @@
       </c>
       <c r="F159" s="64"/>
       <c r="G159" s="237"/>
-      <c r="H159" s="228"/>
+      <c r="H159" s="214"/>
       <c r="I159" s="64"/>
       <c r="J159" s="45">
         <f t="shared" si="5"/>
@@ -9477,7 +9657,7 @@
       <c r="L159" s="244"/>
       <c r="M159" s="244"/>
       <c r="N159" s="247">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N159:N243" si="6">K159*I159</f>
         <v>0</v>
       </c>
       <c r="O159" s="229"/>
@@ -9489,7 +9669,7 @@
       <c r="U159" s="53"/>
       <c r="V159" s="54"/>
     </row>
-    <row r="160" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="213"/>
       <c r="B160" s="127"/>
       <c r="C160" s="209"/>
@@ -9500,16 +9680,16 @@
       </c>
       <c r="F160" s="64"/>
       <c r="G160" s="237"/>
-      <c r="H160" s="254"/>
+      <c r="H160" s="253"/>
       <c r="I160" s="64"/>
       <c r="J160" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K160" s="248"/>
+      <c r="K160" s="100"/>
       <c r="L160" s="244"/>
       <c r="M160" s="244"/>
-      <c r="N160" s="247">
+      <c r="N160" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9533,15 +9713,15 @@
       </c>
       <c r="F161" s="64"/>
       <c r="G161" s="237"/>
-      <c r="H161" s="255"/>
+      <c r="H161" s="228"/>
       <c r="I161" s="64"/>
       <c r="J161" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K161" s="248"/>
-      <c r="L161" s="256"/>
-      <c r="M161" s="256"/>
+      <c r="L161" s="244"/>
+      <c r="M161" s="244"/>
       <c r="N161" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9573,8 +9753,8 @@
         <v>0</v>
       </c>
       <c r="K162" s="248"/>
-      <c r="L162" s="256"/>
-      <c r="M162" s="256"/>
+      <c r="L162" s="244"/>
+      <c r="M162" s="244"/>
       <c r="N162" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -9599,7 +9779,7 @@
       </c>
       <c r="F163" s="64"/>
       <c r="G163" s="237"/>
-      <c r="H163" s="254"/>
+      <c r="H163" s="255"/>
       <c r="I163" s="64"/>
       <c r="J163" s="45">
         <f t="shared" si="5"/>
@@ -9638,10 +9818,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K164" s="100"/>
-      <c r="L164" s="99"/>
-      <c r="M164" s="99"/>
-      <c r="N164" s="77">
+      <c r="K164" s="248"/>
+      <c r="L164" s="256"/>
+      <c r="M164" s="256"/>
+      <c r="N164" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -9657,8 +9837,8 @@
     <row r="165" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="213"/>
       <c r="B165" s="127"/>
-      <c r="C165" s="257"/>
-      <c r="D165" s="257"/>
+      <c r="C165" s="209"/>
+      <c r="D165" s="209"/>
       <c r="E165" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9671,17 +9851,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K165" s="100"/>
-      <c r="L165" s="99"/>
-      <c r="M165" s="99"/>
-      <c r="N165" s="77">
+      <c r="K165" s="248"/>
+      <c r="L165" s="256"/>
+      <c r="M165" s="256"/>
+      <c r="N165" s="247">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O165" s="236"/>
-      <c r="P165" s="258"/>
-      <c r="Q165" s="128"/>
-      <c r="R165" s="129"/>
+      <c r="O165" s="229"/>
+      <c r="P165" s="230"/>
+      <c r="Q165" s="231"/>
+      <c r="R165" s="232"/>
       <c r="S165" s="182"/>
       <c r="T165" s="52"/>
       <c r="U165" s="53"/>
@@ -9690,8 +9870,8 @@
     <row r="166" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="213"/>
       <c r="B166" s="127"/>
-      <c r="C166" s="257"/>
-      <c r="D166" s="257"/>
+      <c r="C166" s="209"/>
+      <c r="D166" s="209"/>
       <c r="E166" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9711,27 +9891,27 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O166" s="236"/>
-      <c r="P166" s="258"/>
-      <c r="Q166" s="128"/>
-      <c r="R166" s="129"/>
+      <c r="O166" s="229"/>
+      <c r="P166" s="230"/>
+      <c r="Q166" s="231"/>
+      <c r="R166" s="232"/>
       <c r="S166" s="182"/>
       <c r="T166" s="52"/>
       <c r="U166" s="53"/>
       <c r="V166" s="54"/>
     </row>
     <row r="167" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="118"/>
+      <c r="A167" s="213"/>
       <c r="B167" s="127"/>
-      <c r="C167" s="239"/>
-      <c r="D167" s="239"/>
+      <c r="C167" s="257"/>
+      <c r="D167" s="257"/>
       <c r="E167" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F167" s="64"/>
       <c r="G167" s="237"/>
-      <c r="H167" s="240"/>
+      <c r="H167" s="254"/>
       <c r="I167" s="64"/>
       <c r="J167" s="45">
         <f t="shared" si="5"/>
@@ -9744,8 +9924,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O167" s="98"/>
-      <c r="P167" s="219"/>
+      <c r="O167" s="236"/>
+      <c r="P167" s="258"/>
       <c r="Q167" s="128"/>
       <c r="R167" s="129"/>
       <c r="S167" s="182"/>
@@ -9756,15 +9936,15 @@
     <row r="168" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="213"/>
       <c r="B168" s="127"/>
-      <c r="C168" s="259"/>
-      <c r="D168" s="259"/>
+      <c r="C168" s="257"/>
+      <c r="D168" s="257"/>
       <c r="E168" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F168" s="64"/>
       <c r="G168" s="237"/>
-      <c r="H168" s="63"/>
+      <c r="H168" s="254"/>
       <c r="I168" s="64"/>
       <c r="J168" s="45">
         <f t="shared" si="5"/>
@@ -9777,8 +9957,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O168" s="98"/>
-      <c r="P168" s="219"/>
+      <c r="O168" s="236"/>
+      <c r="P168" s="258"/>
       <c r="Q168" s="128"/>
       <c r="R168" s="129"/>
       <c r="S168" s="182"/>
@@ -9787,7 +9967,7 @@
       <c r="V168" s="54"/>
     </row>
     <row r="169" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="222"/>
+      <c r="A169" s="118"/>
       <c r="B169" s="127"/>
       <c r="C169" s="239"/>
       <c r="D169" s="239"/>
@@ -9819,18 +9999,18 @@
       <c r="U169" s="53"/>
       <c r="V169" s="54"/>
     </row>
-    <row r="170" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="260"/>
-      <c r="B170" s="261"/>
-      <c r="C170" s="221"/>
-      <c r="D170" s="221"/>
+    <row r="170" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="213"/>
+      <c r="B170" s="127"/>
+      <c r="C170" s="259"/>
+      <c r="D170" s="259"/>
       <c r="E170" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F170" s="64"/>
       <c r="G170" s="237"/>
-      <c r="H170" s="240"/>
+      <c r="H170" s="63"/>
       <c r="I170" s="64"/>
       <c r="J170" s="45">
         <f t="shared" si="5"/>
@@ -9843,8 +10023,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O170" s="241"/>
-      <c r="P170" s="242"/>
+      <c r="O170" s="98"/>
+      <c r="P170" s="219"/>
       <c r="Q170" s="128"/>
       <c r="R170" s="129"/>
       <c r="S170" s="182"/>
@@ -9855,8 +10035,8 @@
     <row r="171" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="222"/>
       <c r="B171" s="127"/>
-      <c r="C171" s="262"/>
-      <c r="D171" s="262"/>
+      <c r="C171" s="239"/>
+      <c r="D171" s="239"/>
       <c r="E171" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9885,11 +10065,11 @@
       <c r="U171" s="53"/>
       <c r="V171" s="54"/>
     </row>
-    <row r="172" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="222"/>
-      <c r="B172" s="127"/>
-      <c r="C172" s="262"/>
-      <c r="D172" s="262"/>
+    <row r="172" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="260"/>
+      <c r="B172" s="261"/>
+      <c r="C172" s="221"/>
+      <c r="D172" s="221"/>
       <c r="E172" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9909,8 +10089,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O172" s="98"/>
-      <c r="P172" s="219"/>
+      <c r="O172" s="241"/>
+      <c r="P172" s="242"/>
       <c r="Q172" s="128"/>
       <c r="R172" s="129"/>
       <c r="S172" s="182"/>
@@ -9919,10 +10099,10 @@
       <c r="V172" s="54"/>
     </row>
     <row r="173" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="263"/>
+      <c r="A173" s="222"/>
       <c r="B173" s="127"/>
-      <c r="C173" s="264"/>
-      <c r="D173" s="264"/>
+      <c r="C173" s="262"/>
+      <c r="D173" s="262"/>
       <c r="E173" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -9954,14 +10134,14 @@
     <row r="174" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="222"/>
       <c r="B174" s="127"/>
-      <c r="C174" s="265"/>
-      <c r="D174" s="265"/>
+      <c r="C174" s="262"/>
+      <c r="D174" s="262"/>
       <c r="E174" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F174" s="64"/>
-      <c r="G174" s="266"/>
+      <c r="G174" s="237"/>
       <c r="H174" s="240"/>
       <c r="I174" s="64"/>
       <c r="J174" s="45">
@@ -9975,8 +10155,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O174" s="267"/>
-      <c r="P174" s="268"/>
+      <c r="O174" s="98"/>
+      <c r="P174" s="219"/>
       <c r="Q174" s="128"/>
       <c r="R174" s="129"/>
       <c r="S174" s="182"/>
@@ -9985,16 +10165,16 @@
       <c r="V174" s="54"/>
     </row>
     <row r="175" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="222"/>
+      <c r="A175" s="263"/>
       <c r="B175" s="127"/>
-      <c r="C175" s="265"/>
-      <c r="D175" s="265"/>
+      <c r="C175" s="264"/>
+      <c r="D175" s="264"/>
       <c r="E175" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F175" s="64"/>
-      <c r="G175" s="117"/>
+      <c r="G175" s="237"/>
       <c r="H175" s="240"/>
       <c r="I175" s="64"/>
       <c r="J175" s="45">
@@ -10008,8 +10188,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O175" s="267"/>
-      <c r="P175" s="268"/>
+      <c r="O175" s="98"/>
+      <c r="P175" s="219"/>
       <c r="Q175" s="128"/>
       <c r="R175" s="129"/>
       <c r="S175" s="182"/>
@@ -10017,98 +10197,101 @@
       <c r="U175" s="53"/>
       <c r="V175" s="54"/>
     </row>
-    <row r="176" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="222"/>
-      <c r="B176" s="212"/>
-      <c r="C176" s="269"/>
-      <c r="D176" s="269"/>
+      <c r="B176" s="127"/>
+      <c r="C176" s="265"/>
+      <c r="D176" s="265"/>
       <c r="E176" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F176" s="270"/>
-      <c r="G176" s="237"/>
-      <c r="H176" s="271"/>
-      <c r="I176" s="270"/>
+      <c r="F176" s="64"/>
+      <c r="G176" s="266"/>
+      <c r="H176" s="240"/>
+      <c r="I176" s="64"/>
       <c r="J176" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="K176" s="100"/>
+      <c r="L176" s="99"/>
+      <c r="M176" s="99"/>
       <c r="N176" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O176" s="272"/>
-      <c r="P176" s="258"/>
-      <c r="Q176" s="273"/>
-      <c r="R176" s="274"/>
-      <c r="S176" s="275"/>
-      <c r="T176" s="276"/>
-      <c r="U176" s="277"/>
-      <c r="V176" s="278"/>
+      <c r="O176" s="267"/>
+      <c r="P176" s="268"/>
+      <c r="Q176" s="128"/>
+      <c r="R176" s="129"/>
+      <c r="S176" s="182"/>
+      <c r="T176" s="52"/>
+      <c r="U176" s="53"/>
+      <c r="V176" s="54"/>
     </row>
     <row r="177" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="222"/>
       <c r="B177" s="127"/>
-      <c r="C177" s="264"/>
-      <c r="D177" s="264"/>
+      <c r="C177" s="265"/>
+      <c r="D177" s="265"/>
       <c r="E177" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F177" s="270"/>
-      <c r="G177" s="237"/>
-      <c r="H177" s="271"/>
-      <c r="I177" s="270"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="117"/>
+      <c r="H177" s="240"/>
+      <c r="I177" s="64"/>
       <c r="J177" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+      <c r="K177" s="100"/>
+      <c r="L177" s="99"/>
+      <c r="M177" s="99"/>
       <c r="N177" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O177" s="272"/>
-      <c r="P177" s="258"/>
-      <c r="Q177" s="273"/>
-      <c r="R177" s="274"/>
-      <c r="S177" s="275"/>
-      <c r="T177" s="276"/>
-      <c r="U177" s="277"/>
-      <c r="V177" s="278"/>
-    </row>
-    <row r="178" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O177" s="267"/>
+      <c r="P177" s="268"/>
+      <c r="Q177" s="128"/>
+      <c r="R177" s="129"/>
+      <c r="S177" s="182"/>
+      <c r="T177" s="52"/>
+      <c r="U177" s="53"/>
+      <c r="V177" s="54"/>
+    </row>
+    <row r="178" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="222"/>
-      <c r="B178" s="127"/>
-      <c r="C178" s="264"/>
-      <c r="D178" s="264"/>
+      <c r="B178" s="212"/>
+      <c r="C178" s="269"/>
+      <c r="D178" s="269"/>
       <c r="E178" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F178" s="64"/>
+      <c r="F178" s="270"/>
       <c r="G178" s="237"/>
-      <c r="H178" s="240"/>
-      <c r="I178" s="64"/>
+      <c r="H178" s="271"/>
+      <c r="I178" s="270"/>
       <c r="J178" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K178" s="100"/>
-      <c r="L178" s="99"/>
-      <c r="M178" s="99"/>
       <c r="N178" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O178" s="98"/>
-      <c r="P178" s="219"/>
-      <c r="Q178" s="128"/>
-      <c r="R178" s="129"/>
-      <c r="S178" s="182"/>
-      <c r="T178" s="52"/>
-      <c r="U178" s="53"/>
-      <c r="V178" s="54"/>
+      <c r="O178" s="272"/>
+      <c r="P178" s="258"/>
+      <c r="Q178" s="273"/>
+      <c r="R178" s="274"/>
+      <c r="S178" s="275"/>
+      <c r="T178" s="276"/>
+      <c r="U178" s="277"/>
+      <c r="V178" s="278"/>
     </row>
     <row r="179" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="222"/>
@@ -10119,41 +10302,38 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F179" s="64"/>
+      <c r="F179" s="270"/>
       <c r="G179" s="237"/>
-      <c r="H179" s="240"/>
-      <c r="I179" s="64"/>
+      <c r="H179" s="271"/>
+      <c r="I179" s="270"/>
       <c r="J179" s="45">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K179" s="100"/>
-      <c r="L179" s="99"/>
-      <c r="M179" s="99"/>
       <c r="N179" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O179" s="98"/>
-      <c r="P179" s="219"/>
-      <c r="Q179" s="128"/>
-      <c r="R179" s="129"/>
-      <c r="S179" s="182"/>
-      <c r="T179" s="52"/>
-      <c r="U179" s="53"/>
-      <c r="V179" s="54"/>
+      <c r="O179" s="272"/>
+      <c r="P179" s="258"/>
+      <c r="Q179" s="273"/>
+      <c r="R179" s="274"/>
+      <c r="S179" s="275"/>
+      <c r="T179" s="276"/>
+      <c r="U179" s="277"/>
+      <c r="V179" s="278"/>
     </row>
     <row r="180" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="222"/>
       <c r="B180" s="127"/>
-      <c r="C180" s="279"/>
-      <c r="D180" s="279"/>
+      <c r="C180" s="264"/>
+      <c r="D180" s="264"/>
       <c r="E180" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F180" s="64"/>
-      <c r="G180" s="266"/>
+      <c r="G180" s="237"/>
       <c r="H180" s="240"/>
       <c r="I180" s="64"/>
       <c r="J180" s="45">
@@ -10179,14 +10359,14 @@
     <row r="181" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="222"/>
       <c r="B181" s="127"/>
-      <c r="C181" s="279"/>
-      <c r="D181" s="279"/>
+      <c r="C181" s="264"/>
+      <c r="D181" s="264"/>
       <c r="E181" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F181" s="64"/>
-      <c r="G181" s="266"/>
+      <c r="G181" s="237"/>
       <c r="H181" s="240"/>
       <c r="I181" s="64"/>
       <c r="J181" s="45">
@@ -10242,11 +10422,11 @@
       <c r="U182" s="53"/>
       <c r="V182" s="54"/>
     </row>
-    <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="222"/>
-      <c r="B183" s="212"/>
-      <c r="C183" s="280"/>
-      <c r="D183" s="280"/>
+      <c r="B183" s="127"/>
+      <c r="C183" s="279"/>
+      <c r="D183" s="279"/>
       <c r="E183" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10308,17 +10488,17 @@
       <c r="U184" s="53"/>
       <c r="V184" s="54"/>
     </row>
-    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="222"/>
-      <c r="B185" s="127"/>
-      <c r="C185" s="259"/>
-      <c r="D185" s="259"/>
+      <c r="B185" s="212"/>
+      <c r="C185" s="280"/>
+      <c r="D185" s="280"/>
       <c r="E185" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F185" s="64"/>
-      <c r="G185" s="237"/>
+      <c r="G185" s="266"/>
       <c r="H185" s="240"/>
       <c r="I185" s="64"/>
       <c r="J185" s="45">
@@ -10344,14 +10524,14 @@
     <row r="186" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="222"/>
       <c r="B186" s="127"/>
-      <c r="C186" s="259"/>
-      <c r="D186" s="259"/>
+      <c r="C186" s="279"/>
+      <c r="D186" s="279"/>
       <c r="E186" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F186" s="64"/>
-      <c r="G186" s="237"/>
+      <c r="G186" s="266"/>
       <c r="H186" s="240"/>
       <c r="I186" s="64"/>
       <c r="J186" s="45">
@@ -10440,11 +10620,11 @@
       <c r="U188" s="53"/>
       <c r="V188" s="54"/>
     </row>
-    <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="263"/>
-      <c r="B189" s="212"/>
-      <c r="C189" s="264"/>
-      <c r="D189" s="264"/>
+    <row r="189" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="222"/>
+      <c r="B189" s="127"/>
+      <c r="C189" s="259"/>
+      <c r="D189" s="259"/>
       <c r="E189" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10474,16 +10654,16 @@
       <c r="V189" s="54"/>
     </row>
     <row r="190" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="281"/>
+      <c r="A190" s="222"/>
       <c r="B190" s="127"/>
-      <c r="C190" s="265"/>
-      <c r="D190" s="265"/>
+      <c r="C190" s="259"/>
+      <c r="D190" s="259"/>
       <c r="E190" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F190" s="64"/>
-      <c r="G190" s="117"/>
+      <c r="G190" s="237"/>
       <c r="H190" s="240"/>
       <c r="I190" s="64"/>
       <c r="J190" s="45">
@@ -10494,11 +10674,11 @@
       <c r="L190" s="99"/>
       <c r="M190" s="99"/>
       <c r="N190" s="77">
-        <f>K190*I190</f>
-        <v>0</v>
-      </c>
-      <c r="O190" s="267"/>
-      <c r="P190" s="268"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O190" s="98"/>
+      <c r="P190" s="219"/>
       <c r="Q190" s="128"/>
       <c r="R190" s="129"/>
       <c r="S190" s="182"/>
@@ -10507,10 +10687,10 @@
       <c r="V190" s="54"/>
     </row>
     <row r="191" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="222"/>
+      <c r="A191" s="263"/>
       <c r="B191" s="212"/>
-      <c r="C191" s="282"/>
-      <c r="D191" s="282"/>
+      <c r="C191" s="264"/>
+      <c r="D191" s="264"/>
       <c r="E191" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10539,17 +10719,17 @@
       <c r="U191" s="53"/>
       <c r="V191" s="54"/>
     </row>
-    <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="222"/>
-      <c r="B192" s="212"/>
-      <c r="C192" s="282"/>
-      <c r="D192" s="282"/>
+    <row r="192" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="281"/>
+      <c r="B192" s="127"/>
+      <c r="C192" s="265"/>
+      <c r="D192" s="265"/>
       <c r="E192" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F192" s="64"/>
-      <c r="G192" s="237"/>
+      <c r="G192" s="117"/>
       <c r="H192" s="240"/>
       <c r="I192" s="64"/>
       <c r="J192" s="45">
@@ -10560,11 +10740,11 @@
       <c r="L192" s="99"/>
       <c r="M192" s="99"/>
       <c r="N192" s="77">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O192" s="98"/>
-      <c r="P192" s="219"/>
+        <f>K192*I192</f>
+        <v>0</v>
+      </c>
+      <c r="O192" s="267"/>
+      <c r="P192" s="268"/>
       <c r="Q192" s="128"/>
       <c r="R192" s="129"/>
       <c r="S192" s="182"/>
@@ -10614,8 +10794,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F194" s="283"/>
-      <c r="G194" s="266"/>
+      <c r="F194" s="64"/>
+      <c r="G194" s="237"/>
       <c r="H194" s="240"/>
       <c r="I194" s="64"/>
       <c r="J194" s="45">
@@ -10647,8 +10827,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F195" s="283"/>
-      <c r="G195" s="266"/>
+      <c r="F195" s="64"/>
+      <c r="G195" s="237"/>
       <c r="H195" s="240"/>
       <c r="I195" s="64"/>
       <c r="J195" s="45">
@@ -10845,7 +11025,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F201" s="64"/>
+      <c r="F201" s="283"/>
       <c r="G201" s="266"/>
       <c r="H201" s="240"/>
       <c r="I201" s="64"/>
@@ -10872,14 +11052,14 @@
     <row r="202" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="222"/>
       <c r="B202" s="212"/>
-      <c r="C202" s="259"/>
-      <c r="D202" s="259"/>
+      <c r="C202" s="282"/>
+      <c r="D202" s="282"/>
       <c r="E202" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F202" s="64"/>
-      <c r="G202" s="237"/>
+      <c r="F202" s="283"/>
+      <c r="G202" s="266"/>
       <c r="H202" s="240"/>
       <c r="I202" s="64"/>
       <c r="J202" s="45">
@@ -10905,14 +11085,14 @@
     <row r="203" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="222"/>
       <c r="B203" s="212"/>
-      <c r="C203" s="259"/>
-      <c r="D203" s="259"/>
+      <c r="C203" s="282"/>
+      <c r="D203" s="282"/>
       <c r="E203" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F203" s="64"/>
-      <c r="G203" s="237"/>
+      <c r="G203" s="266"/>
       <c r="H203" s="240"/>
       <c r="I203" s="64"/>
       <c r="J203" s="45">
@@ -10974,7 +11154,7 @@
       <c r="C205" s="259"/>
       <c r="D205" s="259"/>
       <c r="E205" s="40">
-        <f t="shared" ref="E205:E263" si="7">D205*F205</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F205" s="64"/>
@@ -11007,7 +11187,7 @@
       <c r="C206" s="259"/>
       <c r="D206" s="259"/>
       <c r="E206" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F206" s="64"/>
@@ -11040,7 +11220,7 @@
       <c r="C207" s="259"/>
       <c r="D207" s="259"/>
       <c r="E207" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E207:E265" si="7">D207*F207</f>
         <v>0</v>
       </c>
       <c r="F207" s="64"/>
@@ -11133,9 +11313,9 @@
       <c r="U209" s="53"/>
       <c r="V209" s="54"/>
     </row>
-    <row r="210" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="212"/>
-      <c r="B210" s="269"/>
+    <row r="210" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="222"/>
+      <c r="B210" s="212"/>
       <c r="C210" s="259"/>
       <c r="D210" s="259"/>
       <c r="E210" s="40">
@@ -11143,8 +11323,8 @@
         <v>0</v>
       </c>
       <c r="F210" s="64"/>
-      <c r="G210" s="117"/>
-      <c r="H210" s="63"/>
+      <c r="G210" s="237"/>
+      <c r="H210" s="240"/>
       <c r="I210" s="64"/>
       <c r="J210" s="45">
         <f t="shared" si="5"/>
@@ -11167,7 +11347,7 @@
       <c r="V210" s="54"/>
     </row>
     <row r="211" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="281"/>
+      <c r="A211" s="222"/>
       <c r="B211" s="212"/>
       <c r="C211" s="259"/>
       <c r="D211" s="259"/>
@@ -11199,9 +11379,9 @@
       <c r="U211" s="53"/>
       <c r="V211" s="54"/>
     </row>
-    <row r="212" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="281"/>
-      <c r="B212" s="212"/>
+    <row r="212" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="212"/>
+      <c r="B212" s="269"/>
       <c r="C212" s="259"/>
       <c r="D212" s="259"/>
       <c r="E212" s="40">
@@ -11209,8 +11389,8 @@
         <v>0</v>
       </c>
       <c r="F212" s="64"/>
-      <c r="G212" s="237"/>
-      <c r="H212" s="240"/>
+      <c r="G212" s="117"/>
+      <c r="H212" s="63"/>
       <c r="I212" s="64"/>
       <c r="J212" s="45">
         <f t="shared" si="5"/>
@@ -11299,7 +11479,7 @@
       <c r="V214" s="54"/>
     </row>
     <row r="215" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="284"/>
+      <c r="A215" s="281"/>
       <c r="B215" s="212"/>
       <c r="C215" s="259"/>
       <c r="D215" s="259"/>
@@ -11332,7 +11512,7 @@
       <c r="V215" s="54"/>
     </row>
     <row r="216" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="222"/>
+      <c r="A216" s="281"/>
       <c r="B216" s="212"/>
       <c r="C216" s="259"/>
       <c r="D216" s="259"/>
@@ -11345,7 +11525,7 @@
       <c r="H216" s="240"/>
       <c r="I216" s="64"/>
       <c r="J216" s="45">
-        <f t="shared" ref="J216:J259" si="8">I216-F216</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K216" s="100"/>
@@ -11365,7 +11545,7 @@
       <c r="V216" s="54"/>
     </row>
     <row r="217" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="222"/>
+      <c r="A217" s="284"/>
       <c r="B217" s="212"/>
       <c r="C217" s="259"/>
       <c r="D217" s="259"/>
@@ -11378,7 +11558,7 @@
       <c r="H217" s="240"/>
       <c r="I217" s="64"/>
       <c r="J217" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K217" s="100"/>
@@ -11411,7 +11591,7 @@
       <c r="H218" s="240"/>
       <c r="I218" s="64"/>
       <c r="J218" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J218:J261" si="8">I218-F218</f>
         <v>0</v>
       </c>
       <c r="K218" s="100"/>
@@ -11631,8 +11811,8 @@
     <row r="225" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="222"/>
       <c r="B225" s="212"/>
-      <c r="C225" s="285"/>
-      <c r="D225" s="285"/>
+      <c r="C225" s="259"/>
+      <c r="D225" s="259"/>
       <c r="E225" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11697,8 +11877,8 @@
     <row r="227" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="222"/>
       <c r="B227" s="212"/>
-      <c r="C227" s="279"/>
-      <c r="D227" s="279"/>
+      <c r="C227" s="285"/>
+      <c r="D227" s="285"/>
       <c r="E227" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11730,8 +11910,8 @@
     <row r="228" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="222"/>
       <c r="B228" s="212"/>
-      <c r="C228" s="280"/>
-      <c r="D228" s="280"/>
+      <c r="C228" s="259"/>
+      <c r="D228" s="259"/>
       <c r="E228" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11763,8 +11943,8 @@
     <row r="229" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="222"/>
       <c r="B229" s="212"/>
-      <c r="C229" s="280"/>
-      <c r="D229" s="280"/>
+      <c r="C229" s="279"/>
+      <c r="D229" s="279"/>
       <c r="E229" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11796,8 +11976,8 @@
     <row r="230" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="222"/>
       <c r="B230" s="212"/>
-      <c r="C230" s="279"/>
-      <c r="D230" s="279"/>
+      <c r="C230" s="280"/>
+      <c r="D230" s="280"/>
       <c r="E230" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11829,8 +12009,8 @@
     <row r="231" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="222"/>
       <c r="B231" s="212"/>
-      <c r="C231" s="264"/>
-      <c r="D231" s="264"/>
+      <c r="C231" s="280"/>
+      <c r="D231" s="280"/>
       <c r="E231" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11862,8 +12042,8 @@
     <row r="232" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="222"/>
       <c r="B232" s="212"/>
-      <c r="C232" s="209"/>
-      <c r="D232" s="209"/>
+      <c r="C232" s="279"/>
+      <c r="D232" s="279"/>
       <c r="E232" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11893,10 +12073,10 @@
       <c r="V232" s="54"/>
     </row>
     <row r="233" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="213"/>
+      <c r="A233" s="222"/>
       <c r="B233" s="212"/>
-      <c r="C233" s="239"/>
-      <c r="D233" s="239"/>
+      <c r="C233" s="264"/>
+      <c r="D233" s="264"/>
       <c r="E233" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11928,8 +12108,8 @@
     <row r="234" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="222"/>
       <c r="B234" s="212"/>
-      <c r="C234" s="239"/>
-      <c r="D234" s="239"/>
+      <c r="C234" s="209"/>
+      <c r="D234" s="209"/>
       <c r="E234" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -11959,7 +12139,7 @@
       <c r="V234" s="54"/>
     </row>
     <row r="235" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="222"/>
+      <c r="A235" s="213"/>
       <c r="B235" s="212"/>
       <c r="C235" s="239"/>
       <c r="D235" s="239"/>
@@ -11992,8 +12172,8 @@
       <c r="V235" s="54"/>
     </row>
     <row r="236" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="286"/>
-      <c r="B236" s="287"/>
+      <c r="A236" s="222"/>
+      <c r="B236" s="212"/>
       <c r="C236" s="239"/>
       <c r="D236" s="239"/>
       <c r="E236" s="40">
@@ -12024,9 +12204,9 @@
       <c r="U236" s="53"/>
       <c r="V236" s="54"/>
     </row>
-    <row r="237" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="213"/>
-      <c r="B237" s="287"/>
+    <row r="237" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="222"/>
+      <c r="B237" s="212"/>
       <c r="C237" s="239"/>
       <c r="D237" s="239"/>
       <c r="E237" s="40">
@@ -12035,7 +12215,7 @@
       </c>
       <c r="F237" s="64"/>
       <c r="G237" s="237"/>
-      <c r="H237" s="63"/>
+      <c r="H237" s="240"/>
       <c r="I237" s="64"/>
       <c r="J237" s="45">
         <f t="shared" si="8"/>
@@ -12058,7 +12238,7 @@
       <c r="V237" s="54"/>
     </row>
     <row r="238" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="213"/>
+      <c r="A238" s="286"/>
       <c r="B238" s="287"/>
       <c r="C238" s="239"/>
       <c r="D238" s="239"/>
@@ -12090,18 +12270,18 @@
       <c r="U238" s="53"/>
       <c r="V238" s="54"/>
     </row>
-    <row r="239" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="222"/>
+    <row r="239" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="213"/>
       <c r="B239" s="287"/>
-      <c r="C239" s="221"/>
-      <c r="D239" s="221"/>
+      <c r="C239" s="239"/>
+      <c r="D239" s="239"/>
       <c r="E239" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F239" s="64"/>
       <c r="G239" s="237"/>
-      <c r="H239" s="240"/>
+      <c r="H239" s="63"/>
       <c r="I239" s="64"/>
       <c r="J239" s="45">
         <f t="shared" si="8"/>
@@ -12124,10 +12304,10 @@
       <c r="V239" s="54"/>
     </row>
     <row r="240" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="222"/>
+      <c r="A240" s="213"/>
       <c r="B240" s="287"/>
-      <c r="C240" s="221"/>
-      <c r="D240" s="221"/>
+      <c r="C240" s="239"/>
+      <c r="D240" s="239"/>
       <c r="E240" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -12156,18 +12336,18 @@
       <c r="U240" s="53"/>
       <c r="V240" s="54"/>
     </row>
-    <row r="241" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="213"/>
+    <row r="241" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="222"/>
       <c r="B241" s="287"/>
-      <c r="C241" s="257"/>
-      <c r="D241" s="257"/>
+      <c r="C241" s="221"/>
+      <c r="D241" s="221"/>
       <c r="E241" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F241" s="64"/>
       <c r="G241" s="237"/>
-      <c r="H241" s="254"/>
+      <c r="H241" s="240"/>
       <c r="I241" s="64"/>
       <c r="J241" s="45">
         <f t="shared" si="8"/>
@@ -12180,8 +12360,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O241" s="236"/>
-      <c r="P241" s="258"/>
+      <c r="O241" s="98"/>
+      <c r="P241" s="219"/>
       <c r="Q241" s="128"/>
       <c r="R241" s="129"/>
       <c r="S241" s="182"/>
@@ -12189,32 +12369,32 @@
       <c r="U241" s="53"/>
       <c r="V241" s="54"/>
     </row>
-    <row r="242" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="213"/>
+    <row r="242" spans="1:22" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="222"/>
       <c r="B242" s="287"/>
-      <c r="C242" s="191"/>
-      <c r="D242" s="191"/>
+      <c r="C242" s="221"/>
+      <c r="D242" s="221"/>
       <c r="E242" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F242" s="64"/>
       <c r="G242" s="237"/>
-      <c r="H242" s="254"/>
+      <c r="H242" s="240"/>
       <c r="I242" s="64"/>
       <c r="J242" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K242" s="100"/>
-      <c r="L242" s="288"/>
-      <c r="M242" s="289"/>
+      <c r="L242" s="99"/>
+      <c r="M242" s="99"/>
       <c r="N242" s="77">
-        <f t="shared" ref="N242:N251" si="9">K242*I242-M242</f>
-        <v>0</v>
-      </c>
-      <c r="O242" s="236"/>
-      <c r="P242" s="258"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O242" s="98"/>
+      <c r="P242" s="219"/>
       <c r="Q242" s="128"/>
       <c r="R242" s="129"/>
       <c r="S242" s="182"/>
@@ -12224,26 +12404,26 @@
     </row>
     <row r="243" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="213"/>
-      <c r="B243" s="290"/>
-      <c r="C243" s="202"/>
-      <c r="D243" s="202"/>
+      <c r="B243" s="287"/>
+      <c r="C243" s="257"/>
+      <c r="D243" s="257"/>
       <c r="E243" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F243" s="202"/>
-      <c r="G243" s="291"/>
-      <c r="H243" s="292"/>
-      <c r="I243" s="116"/>
+      <c r="F243" s="64"/>
+      <c r="G243" s="237"/>
+      <c r="H243" s="254"/>
+      <c r="I243" s="64"/>
       <c r="J243" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K243" s="100"/>
-      <c r="L243" s="288"/>
-      <c r="M243" s="289"/>
+      <c r="L243" s="99"/>
+      <c r="M243" s="99"/>
       <c r="N243" s="77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O243" s="236"/>
@@ -12257,17 +12437,17 @@
     </row>
     <row r="244" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="213"/>
-      <c r="B244" s="290"/>
-      <c r="C244" s="202"/>
-      <c r="D244" s="202"/>
+      <c r="B244" s="287"/>
+      <c r="C244" s="191"/>
+      <c r="D244" s="191"/>
       <c r="E244" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F244" s="202"/>
-      <c r="G244" s="291"/>
-      <c r="H244" s="292"/>
-      <c r="I244" s="116"/>
+      <c r="F244" s="64"/>
+      <c r="G244" s="237"/>
+      <c r="H244" s="254"/>
+      <c r="I244" s="64"/>
       <c r="J244" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -12276,7 +12456,7 @@
       <c r="L244" s="288"/>
       <c r="M244" s="289"/>
       <c r="N244" s="77">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N244:N253" si="9">K244*I244-M244</f>
         <v>0</v>
       </c>
       <c r="O244" s="236"/>
@@ -12290,7 +12470,7 @@
     </row>
     <row r="245" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="213"/>
-      <c r="B245" s="293"/>
+      <c r="B245" s="290"/>
       <c r="C245" s="202"/>
       <c r="D245" s="202"/>
       <c r="E245" s="40">
@@ -12312,8 +12492,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O245" s="98"/>
-      <c r="P245" s="224"/>
+      <c r="O245" s="236"/>
+      <c r="P245" s="258"/>
       <c r="Q245" s="128"/>
       <c r="R245" s="129"/>
       <c r="S245" s="182"/>
@@ -12323,7 +12503,7 @@
     </row>
     <row r="246" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="213"/>
-      <c r="B246" s="293"/>
+      <c r="B246" s="290"/>
       <c r="C246" s="202"/>
       <c r="D246" s="202"/>
       <c r="E246" s="40">
@@ -12345,8 +12525,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O246" s="98"/>
-      <c r="P246" s="224"/>
+      <c r="O246" s="236"/>
+      <c r="P246" s="258"/>
       <c r="Q246" s="128"/>
       <c r="R246" s="129"/>
       <c r="S246" s="182"/>
@@ -12387,32 +12567,32 @@
       <c r="U247" s="53"/>
       <c r="V247" s="54"/>
     </row>
-    <row r="248" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="213"/>
-      <c r="B248" s="212"/>
-      <c r="C248" s="294"/>
-      <c r="D248" s="295"/>
+      <c r="B248" s="293"/>
+      <c r="C248" s="202"/>
+      <c r="D248" s="202"/>
       <c r="E248" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F248" s="44"/>
-      <c r="G248" s="296"/>
-      <c r="H248" s="297"/>
-      <c r="I248" s="64"/>
+      <c r="F248" s="202"/>
+      <c r="G248" s="291"/>
+      <c r="H248" s="292"/>
+      <c r="I248" s="116"/>
       <c r="J248" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K248" s="100"/>
       <c r="L248" s="288"/>
-      <c r="M248" s="298"/>
+      <c r="M248" s="289"/>
       <c r="N248" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O248" s="236"/>
-      <c r="P248" s="258"/>
+      <c r="O248" s="98"/>
+      <c r="P248" s="224"/>
       <c r="Q248" s="128"/>
       <c r="R248" s="129"/>
       <c r="S248" s="182"/>
@@ -12420,32 +12600,32 @@
       <c r="U248" s="53"/>
       <c r="V248" s="54"/>
     </row>
-    <row r="249" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="213"/>
-      <c r="B249" s="212"/>
-      <c r="C249" s="294"/>
-      <c r="D249" s="294"/>
+      <c r="B249" s="293"/>
+      <c r="C249" s="202"/>
+      <c r="D249" s="202"/>
       <c r="E249" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F249" s="64"/>
-      <c r="G249" s="237"/>
-      <c r="H249" s="254"/>
-      <c r="I249" s="64"/>
+      <c r="F249" s="202"/>
+      <c r="G249" s="291"/>
+      <c r="H249" s="292"/>
+      <c r="I249" s="116"/>
       <c r="J249" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K249" s="100"/>
       <c r="L249" s="288"/>
-      <c r="M249" s="298"/>
+      <c r="M249" s="289"/>
       <c r="N249" s="77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O249" s="236"/>
-      <c r="P249" s="258"/>
+      <c r="O249" s="98"/>
+      <c r="P249" s="224"/>
       <c r="Q249" s="128"/>
       <c r="R249" s="129"/>
       <c r="S249" s="182"/>
@@ -12457,14 +12637,14 @@
       <c r="A250" s="213"/>
       <c r="B250" s="212"/>
       <c r="C250" s="294"/>
-      <c r="D250" s="294"/>
+      <c r="D250" s="295"/>
       <c r="E250" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F250" s="64"/>
-      <c r="G250" s="237"/>
-      <c r="H250" s="254"/>
+      <c r="F250" s="44"/>
+      <c r="G250" s="296"/>
+      <c r="H250" s="297"/>
       <c r="I250" s="64"/>
       <c r="J250" s="45">
         <f t="shared" si="8"/>
@@ -12489,8 +12669,8 @@
     <row r="251" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="213"/>
       <c r="B251" s="212"/>
-      <c r="C251" s="299"/>
-      <c r="D251" s="299"/>
+      <c r="C251" s="294"/>
+      <c r="D251" s="294"/>
       <c r="E251" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -12519,75 +12699,71 @@
       <c r="U251" s="53"/>
       <c r="V251" s="54"/>
     </row>
-    <row r="252" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="300"/>
+    <row r="252" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="213"/>
       <c r="B252" s="212"/>
-      <c r="C252" s="212"/>
-      <c r="D252" s="212"/>
+      <c r="C252" s="294"/>
+      <c r="D252" s="294"/>
       <c r="E252" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F252" s="270"/>
+      <c r="F252" s="64"/>
       <c r="G252" s="237"/>
-      <c r="H252" s="271"/>
-      <c r="I252" s="270">
-        <v>0</v>
-      </c>
+      <c r="H252" s="254"/>
+      <c r="I252" s="64"/>
       <c r="J252" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K252" s="301"/>
-      <c r="L252" s="301"/>
-      <c r="M252" s="301"/>
-      <c r="N252" s="302">
-        <f t="shared" ref="N252:N263" si="10">K252*I252</f>
-        <v>0</v>
-      </c>
-      <c r="O252" s="303"/>
+      <c r="K252" s="100"/>
+      <c r="L252" s="288"/>
+      <c r="M252" s="298"/>
+      <c r="N252" s="77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O252" s="236"/>
       <c r="P252" s="258"/>
       <c r="Q252" s="128"/>
-      <c r="R252" s="304"/>
-      <c r="S252" s="305"/>
-      <c r="T252" s="306"/>
-      <c r="U252" s="274"/>
-      <c r="V252" s="278"/>
-    </row>
-    <row r="253" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="300"/>
+      <c r="R252" s="129"/>
+      <c r="S252" s="182"/>
+      <c r="T252" s="52"/>
+      <c r="U252" s="53"/>
+      <c r="V252" s="54"/>
+    </row>
+    <row r="253" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="213"/>
       <c r="B253" s="212"/>
-      <c r="C253" s="212"/>
-      <c r="D253" s="212"/>
+      <c r="C253" s="299"/>
+      <c r="D253" s="299"/>
       <c r="E253" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F253" s="270"/>
+      <c r="F253" s="64"/>
       <c r="G253" s="237"/>
-      <c r="H253" s="271"/>
-      <c r="I253" s="270">
-        <v>0</v>
-      </c>
+      <c r="H253" s="254"/>
+      <c r="I253" s="64"/>
       <c r="J253" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K253" s="301"/>
-      <c r="L253" s="301"/>
-      <c r="M253" s="301"/>
-      <c r="N253" s="302">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O253" s="303"/>
+      <c r="K253" s="100"/>
+      <c r="L253" s="288"/>
+      <c r="M253" s="298"/>
+      <c r="N253" s="77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O253" s="236"/>
       <c r="P253" s="258"/>
       <c r="Q253" s="128"/>
-      <c r="R253" s="304"/>
-      <c r="S253" s="305"/>
-      <c r="T253" s="306"/>
-      <c r="U253" s="274"/>
-      <c r="V253" s="278"/>
+      <c r="R253" s="129"/>
+      <c r="S253" s="182"/>
+      <c r="T253" s="52"/>
+      <c r="U253" s="53"/>
+      <c r="V253" s="54"/>
     </row>
     <row r="254" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="300"/>
@@ -12612,7 +12788,7 @@
       <c r="L254" s="301"/>
       <c r="M254" s="301"/>
       <c r="N254" s="302">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N254:N265" si="10">K254*I254</f>
         <v>0</v>
       </c>
       <c r="O254" s="303"/>
@@ -12635,7 +12811,7 @@
       </c>
       <c r="F255" s="270"/>
       <c r="G255" s="237"/>
-      <c r="H255" s="307"/>
+      <c r="H255" s="271"/>
       <c r="I255" s="270">
         <v>0</v>
       </c>
@@ -12660,7 +12836,7 @@
       <c r="V255" s="278"/>
     </row>
     <row r="256" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="308"/>
+      <c r="A256" s="300"/>
       <c r="B256" s="212"/>
       <c r="C256" s="212"/>
       <c r="D256" s="212"/>
@@ -12670,7 +12846,7 @@
       </c>
       <c r="F256" s="270"/>
       <c r="G256" s="237"/>
-      <c r="H256" s="309"/>
+      <c r="H256" s="271"/>
       <c r="I256" s="270">
         <v>0</v>
       </c>
@@ -12691,64 +12867,73 @@
       <c r="R256" s="304"/>
       <c r="S256" s="305"/>
       <c r="T256" s="306"/>
-      <c r="U256" s="53"/>
-      <c r="V256" s="54"/>
+      <c r="U256" s="274"/>
+      <c r="V256" s="278"/>
     </row>
     <row r="257" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="310"/>
-      <c r="B257" s="311"/>
+      <c r="A257" s="300"/>
+      <c r="B257" s="212"/>
+      <c r="C257" s="212"/>
+      <c r="D257" s="212"/>
       <c r="E257" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H257" s="315"/>
-      <c r="I257" s="313">
+      <c r="F257" s="270"/>
+      <c r="G257" s="237"/>
+      <c r="H257" s="307"/>
+      <c r="I257" s="270">
         <v>0</v>
       </c>
       <c r="J257" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K257" s="316"/>
-      <c r="L257" s="316"/>
-      <c r="M257" s="316"/>
+      <c r="K257" s="301"/>
+      <c r="L257" s="301"/>
+      <c r="M257" s="301"/>
       <c r="N257" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O257" s="303"/>
       <c r="P257" s="258"/>
-      <c r="Q257" s="273"/>
+      <c r="Q257" s="128"/>
       <c r="R257" s="304"/>
       <c r="S257" s="305"/>
       <c r="T257" s="306"/>
-      <c r="U257" s="53"/>
-      <c r="V257" s="54"/>
+      <c r="U257" s="274"/>
+      <c r="V257" s="278"/>
     </row>
     <row r="258" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="310"/>
-      <c r="B258" s="311"/>
+      <c r="A258" s="308"/>
+      <c r="B258" s="212"/>
+      <c r="C258" s="212"/>
+      <c r="D258" s="212"/>
       <c r="E258" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I258" s="313">
+      <c r="F258" s="270"/>
+      <c r="G258" s="237"/>
+      <c r="H258" s="309"/>
+      <c r="I258" s="270">
         <v>0</v>
       </c>
       <c r="J258" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K258" s="316"/>
-      <c r="L258" s="316"/>
-      <c r="M258" s="316"/>
+      <c r="K258" s="301"/>
+      <c r="L258" s="301"/>
+      <c r="M258" s="301"/>
       <c r="N258" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O258" s="303"/>
       <c r="P258" s="258"/>
-      <c r="Q258" s="273"/>
+      <c r="Q258" s="128"/>
       <c r="R258" s="304"/>
       <c r="S258" s="305"/>
       <c r="T258" s="306"/>
@@ -12762,7 +12947,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I259" s="318">
+      <c r="H259" s="315"/>
+      <c r="I259" s="313">
         <v>0</v>
       </c>
       <c r="J259" s="45">
@@ -12785,25 +12971,22 @@
       <c r="U259" s="53"/>
       <c r="V259" s="54"/>
     </row>
-    <row r="260" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="310"/>
       <c r="B260" s="311"/>
-      <c r="E260" s="40" t="e">
+      <c r="E260" s="40">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F260" s="445" t="s">
-        <v>26</v>
-      </c>
-      <c r="G260" s="445"/>
-      <c r="H260" s="446"/>
-      <c r="I260" s="319">
-        <f>SUM(I4:I259)</f>
-        <v>423660.27</v>
-      </c>
-      <c r="J260" s="320"/>
+        <v>0</v>
+      </c>
+      <c r="I260" s="313">
+        <v>0</v>
+      </c>
+      <c r="J260" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="K260" s="316"/>
-      <c r="L260" s="321"/>
+      <c r="L260" s="316"/>
       <c r="M260" s="316"/>
       <c r="N260" s="302">
         <f t="shared" si="10"/>
@@ -12813,245 +12996,290 @@
       <c r="P260" s="258"/>
       <c r="Q260" s="273"/>
       <c r="R260" s="304"/>
-      <c r="S260" s="322"/>
-      <c r="T260" s="276"/>
-      <c r="U260" s="277"/>
+      <c r="S260" s="305"/>
+      <c r="T260" s="306"/>
+      <c r="U260" s="53"/>
       <c r="V260" s="54"/>
     </row>
-    <row r="261" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="323"/>
+    <row r="261" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="310"/>
       <c r="B261" s="311"/>
       <c r="E261" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I261" s="324"/>
-      <c r="J261" s="320"/>
+      <c r="I261" s="318">
+        <v>0</v>
+      </c>
+      <c r="J261" s="45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="K261" s="316"/>
-      <c r="L261" s="321"/>
+      <c r="L261" s="316"/>
       <c r="M261" s="316"/>
       <c r="N261" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O261" s="325"/>
-      <c r="Q261" s="10"/>
-      <c r="R261" s="326"/>
-      <c r="S261" s="327"/>
-      <c r="T261" s="328"/>
-      <c r="V261" s="15"/>
-    </row>
-    <row r="262" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O261" s="303"/>
+      <c r="P261" s="258"/>
+      <c r="Q261" s="273"/>
+      <c r="R261" s="304"/>
+      <c r="S261" s="305"/>
+      <c r="T261" s="306"/>
+      <c r="U261" s="53"/>
+      <c r="V261" s="54"/>
+    </row>
+    <row r="262" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="310"/>
       <c r="B262" s="311"/>
-      <c r="E262" s="40">
+      <c r="E262" s="40" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J262" s="313"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F262" s="448" t="s">
+        <v>26</v>
+      </c>
+      <c r="G262" s="448"/>
+      <c r="H262" s="449"/>
+      <c r="I262" s="319">
+        <f>SUM(I4:I261)</f>
+        <v>426245.47000000003</v>
+      </c>
+      <c r="J262" s="320"/>
       <c r="K262" s="316"/>
-      <c r="L262" s="316"/>
+      <c r="L262" s="321"/>
       <c r="M262" s="316"/>
       <c r="N262" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O262" s="325"/>
-      <c r="Q262" s="10"/>
-      <c r="R262" s="326"/>
-      <c r="S262" s="327"/>
-      <c r="T262" s="328"/>
-      <c r="V262" s="15"/>
-    </row>
-    <row r="263" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="310"/>
+      <c r="O262" s="303"/>
+      <c r="P262" s="258"/>
+      <c r="Q262" s="273"/>
+      <c r="R262" s="304"/>
+      <c r="S262" s="322"/>
+      <c r="T262" s="276"/>
+      <c r="U262" s="277"/>
+      <c r="V262" s="54"/>
+    </row>
+    <row r="263" spans="1:22" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="323"/>
       <c r="B263" s="311"/>
       <c r="E263" s="40">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J263" s="313"/>
-      <c r="K263" s="330"/>
+      <c r="I263" s="324"/>
+      <c r="J263" s="320"/>
+      <c r="K263" s="316"/>
+      <c r="L263" s="321"/>
+      <c r="M263" s="316"/>
       <c r="N263" s="302">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O263" s="331"/>
+      <c r="O263" s="325"/>
       <c r="Q263" s="10"/>
       <c r="R263" s="326"/>
       <c r="S263" s="327"/>
-      <c r="T263" s="332"/>
+      <c r="T263" s="328"/>
       <c r="V263" s="15"/>
     </row>
     <row r="264" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="310"/>
-      <c r="H264" s="334"/>
-      <c r="I264" s="335" t="s">
-        <v>27</v>
-      </c>
-      <c r="J264" s="336"/>
-      <c r="K264" s="336"/>
-      <c r="L264" s="337">
-        <f>SUM(L252:L263)</f>
-        <v>0</v>
-      </c>
-      <c r="M264" s="338"/>
-      <c r="N264" s="339">
-        <f>SUM(N4:N263)</f>
-        <v>15689321.603</v>
-      </c>
-      <c r="O264" s="340"/>
-      <c r="Q264" s="341">
-        <f>SUM(Q4:Q263)</f>
-        <v>361400</v>
-      </c>
-      <c r="R264" s="8"/>
-      <c r="S264" s="342">
-        <f>SUM(S17:S263)</f>
-        <v>0</v>
-      </c>
-      <c r="T264" s="343"/>
-      <c r="U264" s="344"/>
-      <c r="V264" s="345">
-        <f>SUM(V252:V263)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B264" s="311"/>
+      <c r="E264" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J264" s="313"/>
+      <c r="K264" s="316"/>
+      <c r="L264" s="316"/>
+      <c r="M264" s="316"/>
+      <c r="N264" s="302">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O264" s="325"/>
+      <c r="Q264" s="10"/>
+      <c r="R264" s="326"/>
+      <c r="S264" s="327"/>
+      <c r="T264" s="328"/>
+      <c r="V264" s="15"/>
+    </row>
+    <row r="265" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="310"/>
-      <c r="H265" s="334"/>
-      <c r="I265" s="346"/>
-      <c r="J265" s="347"/>
-      <c r="K265" s="348"/>
-      <c r="L265" s="348"/>
-      <c r="M265" s="348"/>
-      <c r="N265" s="302"/>
-      <c r="O265" s="340"/>
+      <c r="B265" s="311"/>
+      <c r="E265" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J265" s="313"/>
+      <c r="K265" s="330"/>
+      <c r="N265" s="302">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O265" s="331"/>
+      <c r="Q265" s="10"/>
       <c r="R265" s="326"/>
-      <c r="S265" s="349"/>
-      <c r="U265" s="351"/>
-      <c r="V265"/>
-    </row>
-    <row r="266" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S265" s="327"/>
+      <c r="T265" s="332"/>
+      <c r="V265" s="15"/>
+    </row>
+    <row r="266" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="310"/>
       <c r="H266" s="334"/>
-      <c r="I266" s="346"/>
-      <c r="J266" s="347"/>
-      <c r="K266" s="348"/>
-      <c r="L266" s="348"/>
-      <c r="M266" s="348"/>
-      <c r="N266" s="302"/>
+      <c r="I266" s="335" t="s">
+        <v>27</v>
+      </c>
+      <c r="J266" s="336"/>
+      <c r="K266" s="336"/>
+      <c r="L266" s="337">
+        <f>SUM(L254:L265)</f>
+        <v>0</v>
+      </c>
+      <c r="M266" s="338"/>
+      <c r="N266" s="339">
+        <f>SUM(N4:N265)</f>
+        <v>15930057.603</v>
+      </c>
       <c r="O266" s="340"/>
-      <c r="R266" s="326"/>
-      <c r="S266" s="349"/>
-      <c r="U266" s="351"/>
-      <c r="V266"/>
-    </row>
-    <row r="267" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q266" s="341">
+        <f>SUM(Q4:Q265)</f>
+        <v>361400</v>
+      </c>
+      <c r="R266" s="8"/>
+      <c r="S266" s="342">
+        <f>SUM(S17:S265)</f>
+        <v>0</v>
+      </c>
+      <c r="T266" s="343"/>
+      <c r="U266" s="344"/>
+      <c r="V266" s="345">
+        <f>SUM(V254:V265)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A267" s="310"/>
-      <c r="I267" s="352" t="s">
-        <v>28</v>
-      </c>
-      <c r="J267" s="353"/>
-      <c r="K267" s="353"/>
-      <c r="L267" s="354"/>
-      <c r="M267" s="354"/>
-      <c r="N267" s="355">
-        <f>V264+S264+Q264+N264+L264</f>
-        <v>16050721.603</v>
-      </c>
-      <c r="O267" s="356"/>
+      <c r="H267" s="334"/>
+      <c r="I267" s="346"/>
+      <c r="J267" s="347"/>
+      <c r="K267" s="348"/>
+      <c r="L267" s="348"/>
+      <c r="M267" s="348"/>
+      <c r="N267" s="302"/>
+      <c r="O267" s="340"/>
       <c r="R267" s="326"/>
       <c r="S267" s="349"/>
       <c r="U267" s="351"/>
       <c r="V267"/>
     </row>
-    <row r="268" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="357"/>
-      <c r="I268" s="358"/>
-      <c r="J268" s="359"/>
-      <c r="K268" s="359"/>
-      <c r="L268" s="360"/>
-      <c r="M268" s="360"/>
-      <c r="N268" s="361"/>
-      <c r="O268" s="362"/>
+    <row r="268" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="310"/>
+      <c r="H268" s="334"/>
+      <c r="I268" s="346"/>
+      <c r="J268" s="347"/>
+      <c r="K268" s="348"/>
+      <c r="L268" s="348"/>
+      <c r="M268" s="348"/>
+      <c r="N268" s="302"/>
+      <c r="O268" s="340"/>
       <c r="R268" s="326"/>
       <c r="S268" s="349"/>
       <c r="U268" s="351"/>
       <c r="V268"/>
     </row>
-    <row r="269" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="357"/>
-      <c r="I269" s="346"/>
-      <c r="J269" s="347"/>
-      <c r="K269" s="348"/>
-      <c r="L269" s="348"/>
-      <c r="M269" s="348"/>
-      <c r="N269" s="302"/>
-      <c r="O269" s="340"/>
+    <row r="269" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="310"/>
+      <c r="I269" s="352" t="s">
+        <v>28</v>
+      </c>
+      <c r="J269" s="353"/>
+      <c r="K269" s="353"/>
+      <c r="L269" s="354"/>
+      <c r="M269" s="354"/>
+      <c r="N269" s="355">
+        <f>V266+S266+Q266+N266+L266</f>
+        <v>16291457.603</v>
+      </c>
+      <c r="O269" s="356"/>
       <c r="R269" s="326"/>
       <c r="S269" s="349"/>
       <c r="U269" s="351"/>
       <c r="V269"/>
     </row>
-    <row r="270" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A270" s="310"/>
-      <c r="I270" s="346"/>
-      <c r="J270" s="347"/>
-      <c r="K270" s="348"/>
-      <c r="L270" s="348"/>
-      <c r="M270" s="348"/>
-      <c r="N270" s="302"/>
-      <c r="O270" s="340"/>
+    <row r="270" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="357"/>
+      <c r="I270" s="358"/>
+      <c r="J270" s="359"/>
+      <c r="K270" s="359"/>
+      <c r="L270" s="360"/>
+      <c r="M270" s="360"/>
+      <c r="N270" s="361"/>
+      <c r="O270" s="362"/>
       <c r="R270" s="326"/>
       <c r="S270" s="349"/>
       <c r="U270" s="351"/>
       <c r="V270"/>
     </row>
-    <row r="271" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A271" s="310"/>
+    <row r="271" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="357"/>
       <c r="I271" s="346"/>
-      <c r="J271" s="363"/>
+      <c r="J271" s="347"/>
       <c r="K271" s="348"/>
       <c r="L271" s="348"/>
       <c r="M271" s="348"/>
       <c r="N271" s="302"/>
-      <c r="O271" s="364"/>
+      <c r="O271" s="340"/>
       <c r="R271" s="326"/>
       <c r="S271" s="349"/>
       <c r="U271" s="351"/>
       <c r="V271"/>
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A272" s="357"/>
+      <c r="A272" s="310"/>
+      <c r="I272" s="346"/>
+      <c r="J272" s="347"/>
+      <c r="K272" s="348"/>
+      <c r="L272" s="348"/>
+      <c r="M272" s="348"/>
       <c r="N272" s="302"/>
-      <c r="O272" s="366"/>
+      <c r="O272" s="340"/>
       <c r="R272" s="326"/>
       <c r="S272" s="349"/>
       <c r="U272" s="351"/>
       <c r="V272"/>
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A273" s="357"/>
-      <c r="O273" s="366"/>
+      <c r="A273" s="310"/>
+      <c r="I273" s="346"/>
+      <c r="J273" s="363"/>
+      <c r="K273" s="348"/>
+      <c r="L273" s="348"/>
+      <c r="M273" s="348"/>
+      <c r="N273" s="302"/>
+      <c r="O273" s="364"/>
+      <c r="R273" s="326"/>
       <c r="S273" s="349"/>
       <c r="U273" s="351"/>
       <c r="V273"/>
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A274" s="310"/>
-      <c r="B274" s="311"/>
+      <c r="A274" s="357"/>
       <c r="N274" s="302"/>
-      <c r="O274" s="340"/>
+      <c r="O274" s="366"/>
+      <c r="R274" s="326"/>
       <c r="S274" s="349"/>
       <c r="U274" s="351"/>
       <c r="V274"/>
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A275" s="357"/>
-      <c r="B275" s="311"/>
-      <c r="N275" s="302"/>
-      <c r="O275" s="340"/>
+      <c r="O275" s="366"/>
       <c r="S275" s="349"/>
       <c r="U275" s="351"/>
       <c r="V275"/>
@@ -13059,11 +13287,6 @@
     <row r="276" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A276" s="310"/>
       <c r="B276" s="311"/>
-      <c r="I276" s="346"/>
-      <c r="J276" s="347"/>
-      <c r="K276" s="348"/>
-      <c r="L276" s="348"/>
-      <c r="M276" s="348"/>
       <c r="N276" s="302"/>
       <c r="O276" s="340"/>
       <c r="S276" s="349"/>
@@ -13073,11 +13296,6 @@
     <row r="277" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A277" s="357"/>
       <c r="B277" s="311"/>
-      <c r="I277" s="346"/>
-      <c r="J277" s="347"/>
-      <c r="K277" s="348"/>
-      <c r="L277" s="348"/>
-      <c r="M277" s="348"/>
       <c r="N277" s="302"/>
       <c r="O277" s="340"/>
       <c r="S277" s="349"/>
@@ -13087,9 +13305,11 @@
     <row r="278" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A278" s="310"/>
       <c r="B278" s="311"/>
-      <c r="I278" s="367"/>
-      <c r="J278" s="344"/>
-      <c r="K278" s="344"/>
+      <c r="I278" s="346"/>
+      <c r="J278" s="347"/>
+      <c r="K278" s="348"/>
+      <c r="L278" s="348"/>
+      <c r="M278" s="348"/>
       <c r="N278" s="302"/>
       <c r="O278" s="340"/>
       <c r="S278" s="349"/>
@@ -13098,58 +13318,44 @@
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A279" s="357"/>
+      <c r="B279" s="311"/>
+      <c r="I279" s="346"/>
+      <c r="J279" s="347"/>
+      <c r="K279" s="348"/>
+      <c r="L279" s="348"/>
+      <c r="M279" s="348"/>
+      <c r="N279" s="302"/>
+      <c r="O279" s="340"/>
       <c r="S279" s="349"/>
       <c r="U279" s="351"/>
       <c r="V279"/>
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A280" s="310"/>
+      <c r="B280" s="311"/>
+      <c r="I280" s="367"/>
+      <c r="J280" s="344"/>
+      <c r="K280" s="344"/>
+      <c r="N280" s="302"/>
+      <c r="O280" s="340"/>
       <c r="S280" s="349"/>
       <c r="U280" s="351"/>
       <c r="V280"/>
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A281" s="310"/>
-      <c r="B281" s="368"/>
-      <c r="C281" s="368"/>
-      <c r="D281" s="368"/>
-      <c r="E281" s="369"/>
-      <c r="F281" s="370"/>
-      <c r="G281" s="371"/>
-      <c r="H281" s="372"/>
-      <c r="I281" s="373"/>
-      <c r="J281"/>
-      <c r="K281"/>
-      <c r="L281"/>
-      <c r="M281"/>
-      <c r="P281" s="374"/>
-      <c r="Q281" s="349"/>
+      <c r="A281" s="357"/>
       <c r="S281" s="349"/>
       <c r="U281" s="351"/>
       <c r="V281"/>
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A282" s="357"/>
-      <c r="B282" s="368"/>
-      <c r="C282" s="368"/>
-      <c r="D282" s="368"/>
-      <c r="E282" s="369"/>
-      <c r="F282" s="370"/>
-      <c r="G282" s="371"/>
-      <c r="H282" s="372"/>
-      <c r="I282" s="373"/>
-      <c r="J282"/>
-      <c r="K282"/>
-      <c r="L282"/>
-      <c r="M282"/>
-      <c r="P282" s="374"/>
-      <c r="Q282" s="349"/>
+      <c r="A282" s="310"/>
       <c r="S282" s="349"/>
       <c r="U282" s="351"/>
       <c r="V282"/>
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A283" s="357"/>
+      <c r="A283" s="310"/>
       <c r="B283" s="368"/>
       <c r="C283" s="368"/>
       <c r="D283" s="368"/>
@@ -13189,7 +13395,7 @@
       <c r="V284"/>
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A285" s="375"/>
+      <c r="A285" s="357"/>
       <c r="B285" s="368"/>
       <c r="C285" s="368"/>
       <c r="D285" s="368"/>
@@ -13209,7 +13415,7 @@
       <c r="V285"/>
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A286" s="323"/>
+      <c r="A286" s="357"/>
       <c r="B286" s="368"/>
       <c r="C286" s="368"/>
       <c r="D286" s="368"/>
@@ -13229,7 +13435,7 @@
       <c r="V286"/>
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A287" s="310"/>
+      <c r="A287" s="375"/>
       <c r="B287" s="368"/>
       <c r="C287" s="368"/>
       <c r="D287" s="368"/>
@@ -13249,7 +13455,7 @@
       <c r="V287"/>
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A288" s="310"/>
+      <c r="A288" s="323"/>
       <c r="B288" s="368"/>
       <c r="C288" s="368"/>
       <c r="D288" s="368"/>
@@ -13368,33 +13574,77 @@
       <c r="U293" s="351"/>
       <c r="V293"/>
     </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A294" s="310"/>
+      <c r="B294" s="368"/>
+      <c r="C294" s="368"/>
+      <c r="D294" s="368"/>
+      <c r="E294" s="369"/>
+      <c r="F294" s="370"/>
+      <c r="G294" s="371"/>
+      <c r="H294" s="372"/>
+      <c r="I294" s="373"/>
+      <c r="J294"/>
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="P294" s="374"/>
+      <c r="Q294" s="349"/>
+      <c r="S294" s="349"/>
+      <c r="U294" s="351"/>
+      <c r="V294"/>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A295" s="310"/>
+      <c r="B295" s="368"/>
+      <c r="C295" s="368"/>
+      <c r="D295" s="368"/>
+      <c r="E295" s="369"/>
+      <c r="F295" s="370"/>
+      <c r="G295" s="371"/>
+      <c r="H295" s="372"/>
+      <c r="I295" s="373"/>
+      <c r="J295"/>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="P295" s="374"/>
+      <c r="Q295" s="349"/>
+      <c r="S295" s="349"/>
+      <c r="U295" s="351"/>
+      <c r="V295"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="P66:P67"/>
+  <mergeCells count="29">
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P95:P96"/>
-    <mergeCell ref="F260:H260"/>
-    <mergeCell ref="O80:O81"/>
-    <mergeCell ref="P80:P81"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="P60:P61"/>
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
-    <mergeCell ref="L88:M89"/>
-    <mergeCell ref="O95:O96"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13408,11 +13658,11 @@
   </sheetPr>
   <dimension ref="A1:X291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13441,18 +13691,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="455" t="s">
+      <c r="A1" s="456" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
-      <c r="H1" s="455"/>
-      <c r="I1" s="455"/>
-      <c r="J1" s="455"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
       <c r="K1" s="377"/>
       <c r="L1" s="377"/>
       <c r="M1" s="377"/>
@@ -13466,22 +13716,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="456" t="s">
+      <c r="W1" s="457" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="457"/>
+      <c r="X1" s="458"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="455"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="455"/>
-      <c r="E2" s="455"/>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
+      <c r="A2" s="456"/>
+      <c r="B2" s="456"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
       <c r="K2" s="379"/>
       <c r="L2" s="379"/>
       <c r="M2" s="379"/>
@@ -13535,10 +13785,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="458" t="s">
+      <c r="O3" s="459" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="459"/>
+      <c r="P3" s="460"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -13561,8 +13811,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>69</v>
+      <c r="A4" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>72</v>
@@ -13577,7 +13827,7 @@
         <v>44594</v>
       </c>
       <c r="H4" s="406" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I4" s="412">
         <v>22510</v>
@@ -13595,8 +13845,12 @@
         <f t="shared" ref="N4:N153" si="1">K4*I4</f>
         <v>776595</v>
       </c>
-      <c r="O4" s="407"/>
-      <c r="P4" s="396"/>
+      <c r="O4" s="407" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="396">
+        <v>44608</v>
+      </c>
       <c r="Q4" s="49">
         <v>25140</v>
       </c>
@@ -13627,7 +13881,7 @@
         <v>44594</v>
       </c>
       <c r="H5" s="413" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="I5" s="414">
         <v>5530</v>
@@ -13645,8 +13899,12 @@
         <f>K5*I5-2500</f>
         <v>188285</v>
       </c>
-      <c r="O5" s="397"/>
-      <c r="P5" s="398"/>
+      <c r="O5" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="398">
+        <v>44608</v>
+      </c>
       <c r="Q5" s="66">
         <v>0</v>
       </c>
@@ -13676,7 +13934,9 @@
       <c r="G6" s="62">
         <v>44595</v>
       </c>
-      <c r="H6" s="415"/>
+      <c r="H6" s="413">
+        <v>36790</v>
+      </c>
       <c r="I6" s="414">
         <v>8750</v>
       </c>
@@ -13693,8 +13953,12 @@
         <f t="shared" si="1"/>
         <v>415625</v>
       </c>
-      <c r="O6" s="397"/>
-      <c r="P6" s="398"/>
+      <c r="O6" s="397" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="398">
+        <v>44609</v>
+      </c>
       <c r="Q6" s="66">
         <v>0</v>
       </c>
@@ -13708,7 +13972,7 @@
       <c r="W6" s="53"/>
       <c r="X6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>69</v>
       </c>
@@ -13725,7 +13989,7 @@
         <v>44596</v>
       </c>
       <c r="H7" s="413" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I7" s="414">
         <v>22270</v>
@@ -13743,8 +14007,12 @@
         <f t="shared" si="1"/>
         <v>757180</v>
       </c>
-      <c r="O7" s="397"/>
-      <c r="P7" s="398"/>
+      <c r="O7" s="397" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="398">
+        <v>44610</v>
+      </c>
       <c r="Q7" s="66">
         <v>25210</v>
       </c>
@@ -13775,7 +14043,7 @@
         <v>44596</v>
       </c>
       <c r="H8" s="413" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="I8" s="414">
         <v>5345</v>
@@ -13793,8 +14061,12 @@
         <f t="shared" si="1"/>
         <v>181730</v>
       </c>
-      <c r="O8" s="89"/>
-      <c r="P8" s="90"/>
+      <c r="O8" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="90">
+        <v>44610</v>
+      </c>
       <c r="Q8" s="66">
         <v>0</v>
       </c>
@@ -13808,7 +14080,7 @@
       <c r="W8" s="53"/>
       <c r="X8" s="70"/>
     </row>
-    <row r="9" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
         <v>69</v>
       </c>
@@ -13824,7 +14096,9 @@
       <c r="G9" s="62">
         <v>44598</v>
       </c>
-      <c r="H9" s="413"/>
+      <c r="H9" s="413" t="s">
+        <v>142</v>
+      </c>
       <c r="I9" s="414">
         <v>20980</v>
       </c>
@@ -13841,8 +14115,12 @@
         <f t="shared" si="1"/>
         <v>713320</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
+      <c r="O9" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="90">
+        <v>44613</v>
+      </c>
       <c r="Q9" s="66">
         <v>25070</v>
       </c>
@@ -13872,7 +14150,9 @@
       <c r="G10" s="62">
         <v>44598</v>
       </c>
-      <c r="H10" s="413"/>
+      <c r="H10" s="413" t="s">
+        <v>135</v>
+      </c>
       <c r="I10" s="414">
         <v>5750</v>
       </c>
@@ -13889,8 +14169,12 @@
         <f t="shared" si="1"/>
         <v>195500</v>
       </c>
-      <c r="O10" s="399"/>
-      <c r="P10" s="400"/>
+      <c r="O10" s="399" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="400">
+        <v>44613</v>
+      </c>
       <c r="Q10" s="66">
         <v>0</v>
       </c>
@@ -13904,7 +14188,7 @@
       <c r="W10" s="53"/>
       <c r="X10" s="70"/>
     </row>
-    <row r="11" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
         <v>69</v>
       </c>
@@ -13920,7 +14204,9 @@
       <c r="G11" s="62">
         <v>44600</v>
       </c>
-      <c r="H11" s="413"/>
+      <c r="H11" s="413" t="s">
+        <v>140</v>
+      </c>
       <c r="I11" s="414">
         <v>21290</v>
       </c>
@@ -13937,8 +14223,12 @@
         <f t="shared" si="1"/>
         <v>723860</v>
       </c>
-      <c r="O11" s="399"/>
-      <c r="P11" s="400"/>
+      <c r="O11" s="399" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="400">
+        <v>44614</v>
+      </c>
       <c r="Q11" s="66">
         <v>25140</v>
       </c>
@@ -13959,7 +14249,7 @@
       <c r="B12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="416"/>
+      <c r="C12" s="415"/>
       <c r="D12" s="60"/>
       <c r="E12" s="40"/>
       <c r="F12" s="61">
@@ -13968,7 +14258,9 @@
       <c r="G12" s="62">
         <v>44600</v>
       </c>
-      <c r="H12" s="413"/>
+      <c r="H12" s="413" t="s">
+        <v>141</v>
+      </c>
       <c r="I12" s="414">
         <v>5805</v>
       </c>
@@ -13985,8 +14277,12 @@
         <f t="shared" si="1"/>
         <v>197370</v>
       </c>
-      <c r="O12" s="399"/>
-      <c r="P12" s="400"/>
+      <c r="O12" s="399" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="400">
+        <v>44614</v>
+      </c>
       <c r="Q12" s="66">
         <v>0</v>
       </c>
@@ -14007,7 +14303,7 @@
       <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="417"/>
+      <c r="C13" s="416"/>
       <c r="D13" s="60"/>
       <c r="E13" s="40"/>
       <c r="F13" s="61">
@@ -14016,7 +14312,9 @@
       <c r="G13" s="62">
         <v>44602</v>
       </c>
-      <c r="H13" s="413"/>
+      <c r="H13" s="413" t="s">
+        <v>133</v>
+      </c>
       <c r="I13" s="414">
         <v>22080</v>
       </c>
@@ -14064,7 +14362,9 @@
       <c r="G14" s="62">
         <v>44602</v>
       </c>
-      <c r="H14" s="413"/>
+      <c r="H14" s="413" t="s">
+        <v>133</v>
+      </c>
       <c r="I14" s="414">
         <v>5485</v>
       </c>
@@ -14112,7 +14412,9 @@
       <c r="G15" s="62">
         <v>44603</v>
       </c>
-      <c r="H15" s="413"/>
+      <c r="H15" s="413" t="s">
+        <v>134</v>
+      </c>
       <c r="I15" s="414">
         <v>20920</v>
       </c>
@@ -14160,7 +14462,9 @@
       <c r="G16" s="62">
         <v>44603</v>
       </c>
-      <c r="H16" s="413"/>
+      <c r="H16" s="413" t="s">
+        <v>134</v>
+      </c>
       <c r="I16" s="414">
         <v>5310</v>
       </c>
@@ -14194,7 +14498,7 @@
     </row>
     <row r="17" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>31</v>
@@ -14208,7 +14512,9 @@
       <c r="G17" s="62">
         <v>44605</v>
       </c>
-      <c r="H17" s="413"/>
+      <c r="H17" s="413" t="s">
+        <v>136</v>
+      </c>
       <c r="I17" s="414">
         <v>21340</v>
       </c>
@@ -14254,7 +14560,9 @@
       <c r="G18" s="62">
         <v>44607</v>
       </c>
-      <c r="H18" s="413"/>
+      <c r="H18" s="413" t="s">
+        <v>137</v>
+      </c>
       <c r="I18" s="414">
         <v>20110</v>
       </c>
@@ -14298,7 +14606,9 @@
       <c r="G19" s="62">
         <v>44607</v>
       </c>
-      <c r="H19" s="413"/>
+      <c r="H19" s="413" t="s">
+        <v>137</v>
+      </c>
       <c r="I19" s="414">
         <v>5175</v>
       </c>
@@ -14331,7 +14641,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
@@ -14342,7 +14652,9 @@
       <c r="G20" s="62">
         <v>44609</v>
       </c>
-      <c r="H20" s="413"/>
+      <c r="H20" s="413" t="s">
+        <v>138</v>
+      </c>
       <c r="I20" s="414">
         <v>21115</v>
       </c>
@@ -14386,7 +14698,9 @@
       <c r="G21" s="62">
         <v>44609</v>
       </c>
-      <c r="H21" s="413"/>
+      <c r="H21" s="413" t="s">
+        <v>138</v>
+      </c>
       <c r="I21" s="414">
         <v>5780</v>
       </c>
@@ -14416,7 +14730,7 @@
     </row>
     <row r="22" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="58" t="s">
         <v>72</v>
@@ -14430,7 +14744,9 @@
       <c r="G22" s="62">
         <v>44610</v>
       </c>
-      <c r="H22" s="413"/>
+      <c r="H22" s="413" t="s">
+        <v>139</v>
+      </c>
       <c r="I22" s="414">
         <v>22560</v>
       </c>
@@ -14474,7 +14790,9 @@
       <c r="G23" s="62">
         <v>44610</v>
       </c>
-      <c r="H23" s="413"/>
+      <c r="H23" s="413" t="s">
+        <v>139</v>
+      </c>
       <c r="I23" s="414">
         <v>5550</v>
       </c>
@@ -15594,16 +15912,16 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="469"/>
+      <c r="A57" s="471"/>
       <c r="B57" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="471"/>
+      <c r="C57" s="473"/>
       <c r="D57" s="167"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151"/>
       <c r="G57" s="152"/>
-      <c r="H57" s="437"/>
+      <c r="H57" s="469"/>
       <c r="I57" s="151"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -15616,8 +15934,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="441"/>
-      <c r="P57" s="453"/>
+      <c r="O57" s="436"/>
+      <c r="P57" s="454"/>
       <c r="Q57" s="166"/>
       <c r="R57" s="129"/>
       <c r="S57" s="92"/>
@@ -15626,16 +15944,16 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="470"/>
+      <c r="A58" s="472"/>
       <c r="B58" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="472"/>
+      <c r="C58" s="474"/>
       <c r="D58" s="167"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151"/>
       <c r="G58" s="152"/>
-      <c r="H58" s="438"/>
+      <c r="H58" s="470"/>
       <c r="I58" s="151"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -15648,8 +15966,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="473"/>
-      <c r="P58" s="474"/>
+      <c r="O58" s="475"/>
+      <c r="P58" s="476"/>
       <c r="Q58" s="166"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -15658,16 +15976,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="449"/>
+      <c r="A59" s="477"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="451"/>
+      <c r="C59" s="467"/>
       <c r="D59" s="165"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="437"/>
+      <c r="H59" s="469"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -15692,16 +16010,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="450"/>
+      <c r="A60" s="466"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="452"/>
+      <c r="C60" s="468"/>
       <c r="D60" s="170"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="438"/>
+      <c r="H60" s="470"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -15724,7 +16042,7 @@
       <c r="V60" s="54"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="418"/>
+      <c r="A61" s="417"/>
       <c r="B61" s="172"/>
       <c r="C61" s="173"/>
       <c r="D61" s="170"/>
@@ -15788,7 +16106,7 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="419"/>
+      <c r="A63" s="418"/>
       <c r="B63" s="384"/>
       <c r="C63" s="181"/>
       <c r="D63" s="382"/>
@@ -15838,8 +16156,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="441"/>
-      <c r="P64" s="453"/>
+      <c r="O64" s="436"/>
+      <c r="P64" s="454"/>
       <c r="Q64" s="166"/>
       <c r="R64" s="129"/>
       <c r="S64" s="182"/>
@@ -15868,8 +16186,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="442"/>
-      <c r="P65" s="454"/>
+      <c r="O65" s="437"/>
+      <c r="P65" s="455"/>
       <c r="Q65" s="166"/>
       <c r="R65" s="129"/>
       <c r="S65" s="182"/>
@@ -16266,8 +16584,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="441"/>
-      <c r="P78" s="447"/>
+      <c r="O78" s="436"/>
+      <c r="P78" s="450"/>
       <c r="Q78" s="166"/>
       <c r="R78" s="129"/>
       <c r="S78" s="182"/>
@@ -16296,8 +16614,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="442"/>
-      <c r="P79" s="448"/>
+      <c r="O79" s="437"/>
+      <c r="P79" s="451"/>
       <c r="Q79" s="166"/>
       <c r="R79" s="129"/>
       <c r="S79" s="182"/>
@@ -16326,8 +16644,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="441"/>
-      <c r="P80" s="447"/>
+      <c r="O80" s="436"/>
+      <c r="P80" s="450"/>
       <c r="Q80" s="166"/>
       <c r="R80" s="158"/>
       <c r="S80" s="182"/>
@@ -16359,8 +16677,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="442"/>
-      <c r="P81" s="448"/>
+      <c r="O81" s="437"/>
+      <c r="P81" s="451"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="158"/>
       <c r="S81" s="182"/>
@@ -16518,8 +16836,8 @@
         <v>0</v>
       </c>
       <c r="K86" s="100"/>
-      <c r="L86" s="439"/>
-      <c r="M86" s="440"/>
+      <c r="L86" s="452"/>
+      <c r="M86" s="453"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16551,8 +16869,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="439"/>
-      <c r="M87" s="440"/>
+      <c r="L87" s="452"/>
+      <c r="M87" s="453"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16755,8 +17073,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="441"/>
-      <c r="P93" s="443"/>
+      <c r="O93" s="436"/>
+      <c r="P93" s="446"/>
       <c r="Q93" s="166"/>
       <c r="R93" s="129"/>
       <c r="S93" s="182"/>
@@ -16788,8 +17106,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="442"/>
-      <c r="P94" s="444"/>
+      <c r="O94" s="437"/>
+      <c r="P94" s="447"/>
       <c r="Q94" s="166"/>
       <c r="R94" s="129"/>
       <c r="S94" s="182"/>
@@ -22181,11 +22499,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="445" t="s">
+      <c r="F258" s="448" t="s">
         <v>26</v>
       </c>
-      <c r="G258" s="445"/>
-      <c r="H258" s="446"/>
+      <c r="G258" s="448"/>
+      <c r="H258" s="449"/>
       <c r="I258" s="319">
         <f>SUM(I4:I257)</f>
         <v>273655</v>
@@ -22759,16 +23077,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="O80:O81"/>
     <mergeCell ref="P80:P81"/>
     <mergeCell ref="L86:M87"/>
     <mergeCell ref="O93:O94"/>
     <mergeCell ref="P93:P94"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O64:O65"/>
-    <mergeCell ref="O80:O81"/>
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="O78:O79"/>
     <mergeCell ref="P78:P79"/>
@@ -22780,6 +23094,10 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="P57:P58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O64:O65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="153">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -471,6 +471,21 @@
   <si>
     <t>D-3602</t>
   </si>
+  <si>
+    <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
+  </si>
+  <si>
+    <t>CP-42</t>
+  </si>
+  <si>
+    <t>CP-43</t>
+  </si>
+  <si>
+    <t>CP-44</t>
+  </si>
+  <si>
+    <t>CP-45</t>
+  </si>
 </sst>
 </file>
 
@@ -872,7 +887,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +969,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2927,116 +2948,122 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3353,7 +3380,7 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="U12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3386,18 +3413,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
       <c r="K1" s="377"/>
       <c r="L1" s="377"/>
       <c r="M1" s="377"/>
@@ -3411,22 +3438,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="457" t="s">
+      <c r="W1" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="458"/>
+      <c r="X1" s="460"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="456"/>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="A2" s="458"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
       <c r="K2" s="379"/>
       <c r="L2" s="379"/>
       <c r="M2" s="379"/>
@@ -3480,10 +3507,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="459" t="s">
+      <c r="O3" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="460"/>
+      <c r="P3" s="462"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4027,7 +4054,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="461" t="s">
+      <c r="C12" s="463" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="402"/>
@@ -4091,7 +4118,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="462"/>
+      <c r="C13" s="464"/>
       <c r="D13" s="402"/>
       <c r="E13" s="403"/>
       <c r="F13" s="404">
@@ -6037,13 +6064,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="438" t="s">
+      <c r="A56" s="442" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="440" t="s">
+      <c r="C56" s="444" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6054,7 +6081,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="442">
+      <c r="H56" s="446">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6083,11 +6110,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="439"/>
+      <c r="A57" s="443"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="441"/>
+      <c r="C57" s="445"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6096,7 +6123,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="443"/>
+      <c r="H57" s="447"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6123,13 +6150,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="438" t="s">
+      <c r="A58" s="442" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="440" t="s">
+      <c r="C58" s="444" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6140,7 +6167,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="442">
+      <c r="H58" s="446">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6159,10 +6186,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="444" t="s">
+      <c r="O58" s="448" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="434">
+      <c r="P58" s="469">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6173,11 +6200,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="439"/>
+      <c r="A59" s="443"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="441"/>
+      <c r="C59" s="445"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6186,7 +6213,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="443"/>
+      <c r="H59" s="447"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6203,8 +6230,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="445"/>
-      <c r="P59" s="435"/>
+      <c r="O59" s="449"/>
+      <c r="P59" s="470"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6213,13 +6240,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="465" t="s">
+      <c r="A60" s="467" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="463" t="s">
+      <c r="C60" s="465" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="165"/>
@@ -6233,7 +6260,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="442">
+      <c r="H60" s="446">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6252,10 +6279,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="444" t="s">
+      <c r="O60" s="448" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="434">
+      <c r="P60" s="469">
         <v>44594</v>
       </c>
       <c r="Q60" s="166"/>
@@ -6268,11 +6295,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="466"/>
+      <c r="A61" s="468"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="464"/>
+      <c r="C61" s="466"/>
       <c r="D61" s="167"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6284,7 +6311,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="443"/>
+      <c r="H61" s="447"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6301,8 +6328,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="445"/>
-      <c r="P61" s="435"/>
+      <c r="O61" s="449"/>
+      <c r="P61" s="470"/>
       <c r="Q61" s="166"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6368,7 +6395,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="467"/>
+      <c r="C63" s="436"/>
       <c r="D63" s="165"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6376,7 +6403,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="469"/>
+      <c r="H63" s="438"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6405,7 +6432,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="468"/>
+      <c r="C64" s="437"/>
       <c r="D64" s="170"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6413,7 +6440,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="470"/>
+      <c r="H64" s="439"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -6591,8 +6618,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="436"/>
-      <c r="P68" s="454"/>
+      <c r="O68" s="440"/>
+      <c r="P68" s="434"/>
       <c r="Q68" s="166"/>
       <c r="R68" s="129"/>
       <c r="S68" s="182"/>
@@ -6626,8 +6653,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="437"/>
-      <c r="P69" s="455"/>
+      <c r="O69" s="441"/>
+      <c r="P69" s="435"/>
       <c r="Q69" s="166"/>
       <c r="R69" s="129"/>
       <c r="S69" s="182"/>
@@ -7117,8 +7144,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="436"/>
-      <c r="P82" s="450"/>
+      <c r="O82" s="440"/>
+      <c r="P82" s="454"/>
       <c r="Q82" s="166"/>
       <c r="R82" s="129"/>
       <c r="S82" s="182"/>
@@ -7150,8 +7177,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="437"/>
-      <c r="P83" s="451"/>
+      <c r="O83" s="441"/>
+      <c r="P83" s="455"/>
       <c r="Q83" s="166"/>
       <c r="R83" s="129"/>
       <c r="S83" s="182"/>
@@ -7183,8 +7210,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="436"/>
-      <c r="P84" s="450"/>
+      <c r="O84" s="440"/>
+      <c r="P84" s="454"/>
       <c r="Q84" s="166"/>
       <c r="R84" s="158"/>
       <c r="S84" s="182"/>
@@ -7216,8 +7243,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="437"/>
-      <c r="P85" s="451"/>
+      <c r="O85" s="441"/>
+      <c r="P85" s="455"/>
       <c r="Q85" s="166"/>
       <c r="R85" s="158"/>
       <c r="S85" s="182"/>
@@ -7375,8 +7402,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="452"/>
-      <c r="M90" s="453"/>
+      <c r="L90" s="456"/>
+      <c r="M90" s="457"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7408,8 +7435,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="452"/>
-      <c r="M91" s="453"/>
+      <c r="L91" s="456"/>
+      <c r="M91" s="457"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7612,8 +7639,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="436"/>
-      <c r="P97" s="446"/>
+      <c r="O97" s="440"/>
+      <c r="P97" s="450"/>
       <c r="Q97" s="166"/>
       <c r="R97" s="129"/>
       <c r="S97" s="182"/>
@@ -7645,8 +7672,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="437"/>
-      <c r="P98" s="447"/>
+      <c r="O98" s="441"/>
+      <c r="P98" s="451"/>
       <c r="Q98" s="166"/>
       <c r="R98" s="129"/>
       <c r="S98" s="182"/>
@@ -13038,11 +13065,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="448" t="s">
+      <c r="F262" s="452" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="448"/>
-      <c r="H262" s="449"/>
+      <c r="G262" s="452"/>
+      <c r="H262" s="453"/>
       <c r="I262" s="319">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -13628,6 +13655,7 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
+    <mergeCell ref="P58:P59"/>
     <mergeCell ref="P97:P98"/>
     <mergeCell ref="F262:H262"/>
     <mergeCell ref="O82:O83"/>
@@ -13636,15 +13664,14 @@
     <mergeCell ref="P84:P85"/>
     <mergeCell ref="L90:M91"/>
     <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
     <mergeCell ref="O68:O69"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13658,11 +13685,11 @@
   </sheetPr>
   <dimension ref="A1:X291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13690,48 +13717,50 @@
     <col min="22" max="22" width="11.42578125" style="344"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="456" t="s">
+    <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="458" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
       <c r="K1" s="377"/>
       <c r="L1" s="377"/>
       <c r="M1" s="377"/>
       <c r="N1" s="377"/>
       <c r="O1" s="378"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="5"/>
+      <c r="S1" s="471" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="471"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="457" t="s">
+      <c r="W1" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="458"/>
+      <c r="X1" s="460"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="456"/>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="A2" s="458"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
       <c r="K2" s="379"/>
       <c r="L2" s="379"/>
       <c r="M2" s="379"/>
@@ -13739,8 +13768,8 @@
       <c r="O2" s="381"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="13"/>
+      <c r="S2" s="472"/>
+      <c r="T2" s="472"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -13785,10 +13814,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="459" t="s">
+      <c r="O3" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="460"/>
+      <c r="P3" s="462"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -14533,12 +14562,18 @@
       </c>
       <c r="O17" s="399"/>
       <c r="P17" s="400"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
+      <c r="Q17" s="66">
+        <v>20040</v>
+      </c>
+      <c r="R17" s="67">
+        <v>44613</v>
+      </c>
+      <c r="S17" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T17" s="52" t="s">
+        <v>149</v>
+      </c>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
       <c r="W17" s="53"/>
@@ -14581,10 +14616,18 @@
       </c>
       <c r="O18" s="399"/>
       <c r="P18" s="400"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
+      <c r="Q18" s="66">
+        <v>25140</v>
+      </c>
+      <c r="R18" s="67">
+        <v>44613</v>
+      </c>
+      <c r="S18" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T18" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
       <c r="W18" s="53"/>
@@ -14627,10 +14670,18 @@
       </c>
       <c r="O19" s="399"/>
       <c r="P19" s="400"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
+      <c r="Q19" s="79">
+        <v>0</v>
+      </c>
+      <c r="R19" s="67">
+        <v>44613</v>
+      </c>
+      <c r="S19" s="51">
+        <v>0</v>
+      </c>
+      <c r="T19" s="52" t="s">
+        <v>150</v>
+      </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
       <c r="W19" s="53"/>
@@ -14673,10 +14724,18 @@
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
+      <c r="Q20" s="79">
+        <v>25040</v>
+      </c>
+      <c r="R20" s="67">
+        <v>44613</v>
+      </c>
+      <c r="S20" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T20" s="52" t="s">
+        <v>151</v>
+      </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
       <c r="W20" s="53"/>
@@ -14719,10 +14778,18 @@
       </c>
       <c r="O21" s="89"/>
       <c r="P21" s="90"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="52"/>
+      <c r="Q21" s="79">
+        <v>0</v>
+      </c>
+      <c r="R21" s="67">
+        <v>44613</v>
+      </c>
+      <c r="S21" s="51">
+        <v>0</v>
+      </c>
+      <c r="T21" s="52" t="s">
+        <v>151</v>
+      </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
       <c r="W21" s="53"/>
@@ -14765,10 +14832,18 @@
       </c>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="52"/>
+      <c r="Q22" s="79">
+        <v>25040</v>
+      </c>
+      <c r="R22" s="67">
+        <v>44613</v>
+      </c>
+      <c r="S22" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T22" s="52" t="s">
+        <v>152</v>
+      </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
       <c r="W22" s="53"/>
@@ -14811,10 +14886,18 @@
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="52"/>
+      <c r="Q23" s="79">
+        <v>0</v>
+      </c>
+      <c r="R23" s="67">
+        <v>44613</v>
+      </c>
+      <c r="S23" s="51">
+        <v>0</v>
+      </c>
+      <c r="T23" s="52" t="s">
+        <v>152</v>
+      </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
       <c r="W23" s="53"/>
@@ -15912,16 +15995,16 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="471"/>
+      <c r="A57" s="473"/>
       <c r="B57" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="473"/>
+      <c r="C57" s="475"/>
       <c r="D57" s="167"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151"/>
       <c r="G57" s="152"/>
-      <c r="H57" s="469"/>
+      <c r="H57" s="438"/>
       <c r="I57" s="151"/>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
@@ -15934,8 +16017,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="436"/>
-      <c r="P57" s="454"/>
+      <c r="O57" s="440"/>
+      <c r="P57" s="434"/>
       <c r="Q57" s="166"/>
       <c r="R57" s="129"/>
       <c r="S57" s="92"/>
@@ -15944,16 +16027,16 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="472"/>
+      <c r="A58" s="474"/>
       <c r="B58" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="474"/>
+      <c r="C58" s="476"/>
       <c r="D58" s="167"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151"/>
       <c r="G58" s="152"/>
-      <c r="H58" s="470"/>
+      <c r="H58" s="439"/>
       <c r="I58" s="151"/>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
@@ -15966,8 +16049,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="475"/>
-      <c r="P58" s="476"/>
+      <c r="O58" s="477"/>
+      <c r="P58" s="478"/>
       <c r="Q58" s="166"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -15976,16 +16059,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="477"/>
+      <c r="A59" s="479"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="467"/>
+      <c r="C59" s="436"/>
       <c r="D59" s="165"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="469"/>
+      <c r="H59" s="438"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -16010,16 +16093,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="466"/>
+      <c r="A60" s="468"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="468"/>
+      <c r="C60" s="437"/>
       <c r="D60" s="170"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="470"/>
+      <c r="H60" s="439"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -16156,8 +16239,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="436"/>
-      <c r="P64" s="454"/>
+      <c r="O64" s="440"/>
+      <c r="P64" s="434"/>
       <c r="Q64" s="166"/>
       <c r="R64" s="129"/>
       <c r="S64" s="182"/>
@@ -16186,8 +16269,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="437"/>
-      <c r="P65" s="455"/>
+      <c r="O65" s="441"/>
+      <c r="P65" s="435"/>
       <c r="Q65" s="166"/>
       <c r="R65" s="129"/>
       <c r="S65" s="182"/>
@@ -16584,8 +16667,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O78" s="436"/>
-      <c r="P78" s="450"/>
+      <c r="O78" s="440"/>
+      <c r="P78" s="454"/>
       <c r="Q78" s="166"/>
       <c r="R78" s="129"/>
       <c r="S78" s="182"/>
@@ -16614,8 +16697,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="437"/>
-      <c r="P79" s="451"/>
+      <c r="O79" s="441"/>
+      <c r="P79" s="455"/>
       <c r="Q79" s="166"/>
       <c r="R79" s="129"/>
       <c r="S79" s="182"/>
@@ -16644,8 +16727,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="436"/>
-      <c r="P80" s="450"/>
+      <c r="O80" s="440"/>
+      <c r="P80" s="454"/>
       <c r="Q80" s="166"/>
       <c r="R80" s="158"/>
       <c r="S80" s="182"/>
@@ -16677,8 +16760,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="437"/>
-      <c r="P81" s="451"/>
+      <c r="O81" s="441"/>
+      <c r="P81" s="455"/>
       <c r="Q81" s="166"/>
       <c r="R81" s="158"/>
       <c r="S81" s="182"/>
@@ -16836,8 +16919,8 @@
         <v>0</v>
       </c>
       <c r="K86" s="100"/>
-      <c r="L86" s="452"/>
-      <c r="M86" s="453"/>
+      <c r="L86" s="456"/>
+      <c r="M86" s="457"/>
       <c r="N86" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -16869,8 +16952,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="452"/>
-      <c r="M87" s="453"/>
+      <c r="L87" s="456"/>
+      <c r="M87" s="457"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17073,8 +17156,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O93" s="436"/>
-      <c r="P93" s="446"/>
+      <c r="O93" s="440"/>
+      <c r="P93" s="450"/>
       <c r="Q93" s="166"/>
       <c r="R93" s="129"/>
       <c r="S93" s="182"/>
@@ -17106,8 +17189,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="437"/>
-      <c r="P94" s="447"/>
+      <c r="O94" s="441"/>
+      <c r="P94" s="451"/>
       <c r="Q94" s="166"/>
       <c r="R94" s="129"/>
       <c r="S94" s="182"/>
@@ -22499,11 +22582,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F258" s="448" t="s">
+      <c r="F258" s="452" t="s">
         <v>26</v>
       </c>
-      <c r="G258" s="448"/>
-      <c r="H258" s="449"/>
+      <c r="G258" s="452"/>
+      <c r="H258" s="453"/>
       <c r="I258" s="319">
         <f>SUM(I4:I257)</f>
         <v>273655</v>
@@ -22610,12 +22693,12 @@
       <c r="O262" s="340"/>
       <c r="Q262" s="341">
         <f>SUM(Q4:Q261)</f>
-        <v>150940</v>
+        <v>246200</v>
       </c>
       <c r="R262" s="8"/>
       <c r="S262" s="342">
         <f>SUM(S17:S261)</f>
-        <v>0</v>
+        <v>44800</v>
       </c>
       <c r="T262" s="343"/>
       <c r="U262" s="344"/>
@@ -22665,7 +22748,7 @@
       <c r="M265" s="354"/>
       <c r="N265" s="355">
         <f>V262+S262+Q262+N262+L262</f>
-        <v>9446925</v>
+        <v>9586985</v>
       </c>
       <c r="O265" s="356"/>
       <c r="R265" s="326"/>
@@ -23076,17 +23159,13 @@
       <c r="V291"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="F258:H258"/>
     <mergeCell ref="O80:O81"/>
     <mergeCell ref="P80:P81"/>
     <mergeCell ref="L86:M87"/>
     <mergeCell ref="O93:O94"/>
     <mergeCell ref="P93:P94"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="O78:O79"/>
-    <mergeCell ref="P78:P79"/>
-    <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A57:A58"/>
@@ -23094,6 +23173,11 @@
     <mergeCell ref="H57:H58"/>
     <mergeCell ref="O57:O58"/>
     <mergeCell ref="P57:P58"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="O78:O79"/>
+    <mergeCell ref="P78:P79"/>
+    <mergeCell ref="A1:J2"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="H59:H60"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="179">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -427,19 +427,7 @@
     <t>19934--10613</t>
   </si>
   <si>
-    <t>19967--</t>
-  </si>
-  <si>
-    <t>19972--</t>
-  </si>
-  <si>
     <t>19941--4957</t>
-  </si>
-  <si>
-    <t>19977--</t>
-  </si>
-  <si>
-    <t>19989--</t>
   </si>
   <si>
     <t>20012--</t>
@@ -527,6 +515,54 @@
   </si>
   <si>
     <t>A-817</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6940</t>
+  </si>
+  <si>
+    <t>A830</t>
+  </si>
+  <si>
+    <t>19967--10631</t>
+  </si>
+  <si>
+    <t>19967--4661</t>
+  </si>
+  <si>
+    <t>20016--</t>
+  </si>
+  <si>
+    <t>20033--</t>
+  </si>
+  <si>
+    <t>20048--</t>
+  </si>
+  <si>
+    <t>19972--10635</t>
+  </si>
+  <si>
+    <t>19972--3186</t>
+  </si>
+  <si>
+    <t>19977--10640</t>
+  </si>
+  <si>
+    <t>19989--10643</t>
+  </si>
+  <si>
+    <t>19989--4668</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>T-4</t>
+  </si>
+  <si>
+    <t>P-498</t>
+  </si>
+  <si>
+    <t>D-3659</t>
   </si>
 </sst>
 </file>
@@ -929,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,6 +1053,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,7 +1874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="480">
+  <cellXfs count="482">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2997,6 +3039,99 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3015,132 +3150,43 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3151,6 +3197,7 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FFFF7C80"/>
       <color rgb="FFFF5050"/>
@@ -3435,11 +3482,11 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="U12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3468,18 +3515,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="432" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3493,22 +3540,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="457" t="s">
+      <c r="W1" s="433" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="458"/>
+      <c r="X1" s="434"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="456"/>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="A2" s="432"/>
+      <c r="B2" s="432"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="432"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3562,10 +3609,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="459" t="s">
+      <c r="O3" s="435" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="460"/>
+      <c r="P3" s="436"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -3639,7 +3686,7 @@
       <c r="S4" s="51"/>
       <c r="T4" s="52"/>
       <c r="U4" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V4" s="54">
         <v>5104</v>
@@ -3703,7 +3750,7 @@
       <c r="S5" s="51"/>
       <c r="T5" s="52"/>
       <c r="U5" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V5" s="54">
         <v>0</v>
@@ -3768,7 +3815,7 @@
       <c r="S6" s="51"/>
       <c r="T6" s="52"/>
       <c r="U6" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V6" s="54">
         <v>5104</v>
@@ -3832,7 +3879,7 @@
       <c r="S7" s="51"/>
       <c r="T7" s="52"/>
       <c r="U7" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V7" s="54">
         <v>0</v>
@@ -3897,7 +3944,7 @@
       <c r="S8" s="51"/>
       <c r="T8" s="52"/>
       <c r="U8" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V8" s="54">
         <v>5104</v>
@@ -3961,7 +4008,7 @@
       <c r="S9" s="51"/>
       <c r="T9" s="52"/>
       <c r="U9" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V9" s="54">
         <v>0</v>
@@ -4026,7 +4073,7 @@
       <c r="S10" s="51"/>
       <c r="T10" s="52"/>
       <c r="U10" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V10" s="54">
         <v>5104</v>
@@ -4090,7 +4137,7 @@
       <c r="S11" s="51"/>
       <c r="T11" s="52"/>
       <c r="U11" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V11" s="54">
         <v>0</v>
@@ -4109,7 +4156,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="461" t="s">
+      <c r="C12" s="437" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4154,7 +4201,7 @@
       <c r="S12" s="51"/>
       <c r="T12" s="52"/>
       <c r="U12" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V12" s="54">
         <v>5104</v>
@@ -4173,7 +4220,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="462"/>
+      <c r="C13" s="438"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -4216,7 +4263,7 @@
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
       <c r="U13" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V13" s="54">
         <v>0</v>
@@ -4280,7 +4327,7 @@
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
       <c r="U14" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V14" s="54">
         <v>5104</v>
@@ -4344,7 +4391,7 @@
       <c r="S15" s="51"/>
       <c r="T15" s="52"/>
       <c r="U15" s="53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V15" s="54">
         <v>0</v>
@@ -4407,9 +4454,11 @@
       </c>
       <c r="S16" s="51"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="54">
-        <v>0</v>
+      <c r="U16" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V16" s="481">
+        <v>5104</v>
       </c>
       <c r="W16" s="53" t="s">
         <v>108</v>
@@ -4469,8 +4518,10 @@
       </c>
       <c r="S17" s="51"/>
       <c r="T17" s="52"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="54">
+      <c r="U17" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V17" s="481">
         <v>0</v>
       </c>
       <c r="W17" s="53" t="s">
@@ -4531,8 +4582,12 @@
       </c>
       <c r="S18" s="51"/>
       <c r="T18" s="52"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="54"/>
+      <c r="U18" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V18" s="481">
+        <v>5104</v>
+      </c>
       <c r="W18" s="53" t="s">
         <v>108</v>
       </c>
@@ -4591,8 +4646,12 @@
       </c>
       <c r="S19" s="51"/>
       <c r="T19" s="52"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="54"/>
+      <c r="U19" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V19" s="481">
+        <v>5104</v>
+      </c>
       <c r="W19" s="53" t="s">
         <v>108</v>
       </c>
@@ -4651,8 +4710,12 @@
       </c>
       <c r="S20" s="51"/>
       <c r="T20" s="52"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="54"/>
+      <c r="U20" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V20" s="481">
+        <v>0</v>
+      </c>
       <c r="W20" s="53" t="s">
         <v>108</v>
       </c>
@@ -4711,8 +4774,12 @@
       </c>
       <c r="S21" s="51"/>
       <c r="T21" s="52"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="54"/>
+      <c r="U21" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V21" s="481">
+        <v>5104</v>
+      </c>
       <c r="W21" s="53" t="s">
         <v>108</v>
       </c>
@@ -4771,8 +4838,12 @@
       </c>
       <c r="S22" s="51"/>
       <c r="T22" s="52"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="54"/>
+      <c r="U22" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V22" s="481">
+        <v>0</v>
+      </c>
       <c r="W22" s="53" t="s">
         <v>108</v>
       </c>
@@ -4831,8 +4902,12 @@
       </c>
       <c r="S23" s="51"/>
       <c r="T23" s="52"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="54"/>
+      <c r="U23" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V23" s="481">
+        <v>5104</v>
+      </c>
       <c r="W23" s="53" t="s">
         <v>108</v>
       </c>
@@ -4891,8 +4966,12 @@
       </c>
       <c r="S24" s="85"/>
       <c r="T24" s="86"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="54"/>
+      <c r="U24" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V24" s="481">
+        <v>0</v>
+      </c>
       <c r="W24" s="53" t="s">
         <v>108</v>
       </c>
@@ -4952,8 +5031,12 @@
       </c>
       <c r="S25" s="51"/>
       <c r="T25" s="52"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="54"/>
+      <c r="U25" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V25" s="481">
+        <v>5104</v>
+      </c>
       <c r="W25" s="53" t="s">
         <v>108</v>
       </c>
@@ -5012,8 +5095,12 @@
       </c>
       <c r="S26" s="51"/>
       <c r="T26" s="52"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="54"/>
+      <c r="U26" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V26" s="481">
+        <v>5104</v>
+      </c>
       <c r="W26" s="53" t="s">
         <v>108</v>
       </c>
@@ -5072,8 +5159,12 @@
       </c>
       <c r="S27" s="91"/>
       <c r="T27" s="92"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="54"/>
+      <c r="U27" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V27" s="481">
+        <v>5104</v>
+      </c>
       <c r="W27" s="53" t="s">
         <v>108</v>
       </c>
@@ -5132,8 +5223,12 @@
       </c>
       <c r="S28" s="91"/>
       <c r="T28" s="92"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="54"/>
+      <c r="U28" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V28" s="481">
+        <v>0</v>
+      </c>
       <c r="W28" s="53" t="s">
         <v>108</v>
       </c>
@@ -5160,7 +5255,7 @@
         <v>44591</v>
       </c>
       <c r="H29" s="424" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I29" s="64">
         <v>21820</v>
@@ -5192,8 +5287,12 @@
       </c>
       <c r="S29" s="91"/>
       <c r="T29" s="92"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="54"/>
+      <c r="U29" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V29" s="481">
+        <v>5104</v>
+      </c>
       <c r="W29" s="53" t="s">
         <v>108</v>
       </c>
@@ -5220,7 +5319,7 @@
         <v>44591</v>
       </c>
       <c r="H30" s="424" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I30" s="64">
         <v>5435</v>
@@ -5252,8 +5351,12 @@
       </c>
       <c r="S30" s="91"/>
       <c r="T30" s="92"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="54"/>
+      <c r="U30" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="V30" s="481">
+        <v>0</v>
+      </c>
       <c r="W30" s="53" t="s">
         <v>108</v>
       </c>
@@ -6119,13 +6222,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="440" t="s">
+      <c r="A56" s="449" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="442" t="s">
+      <c r="C56" s="451" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6136,7 +6239,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="444">
+      <c r="H56" s="443">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6165,11 +6268,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="441"/>
+      <c r="A57" s="450"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="443"/>
+      <c r="C57" s="452"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6178,7 +6281,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="445"/>
+      <c r="H57" s="444"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6205,13 +6308,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="440" t="s">
+      <c r="A58" s="449" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="442" t="s">
+      <c r="C58" s="451" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6222,7 +6325,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="444">
+      <c r="H58" s="443">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6241,10 +6344,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="446" t="s">
+      <c r="O58" s="445" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="467">
+      <c r="P58" s="447">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6255,11 +6358,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="441"/>
+      <c r="A59" s="450"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="443"/>
+      <c r="C59" s="452"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6268,7 +6371,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="445"/>
+      <c r="H59" s="444"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6285,8 +6388,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="447"/>
-      <c r="P59" s="468"/>
+      <c r="O59" s="446"/>
+      <c r="P59" s="448"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6295,13 +6398,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="465" t="s">
+      <c r="A60" s="441" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="463" t="s">
+      <c r="C60" s="439" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6315,7 +6418,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="444">
+      <c r="H60" s="443">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6334,10 +6437,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="446" t="s">
+      <c r="O60" s="445" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="467">
+      <c r="P60" s="447">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6350,11 +6453,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="466"/>
+      <c r="A61" s="442"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="464"/>
+      <c r="C61" s="440"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6366,7 +6469,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="445"/>
+      <c r="H61" s="444"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6383,8 +6486,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="447"/>
-      <c r="P61" s="468"/>
+      <c r="O61" s="446"/>
+      <c r="P61" s="448"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6450,7 +6553,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="434"/>
+      <c r="C63" s="465"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6458,7 +6561,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="436"/>
+      <c r="H63" s="467"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6487,7 +6590,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="435"/>
+      <c r="C64" s="466"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6495,7 +6598,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="437"/>
+      <c r="H64" s="468"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -6673,8 +6776,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="438"/>
-      <c r="P68" s="432"/>
+      <c r="O68" s="457"/>
+      <c r="P68" s="463"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -6708,8 +6811,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="439"/>
-      <c r="P69" s="433"/>
+      <c r="O69" s="458"/>
+      <c r="P69" s="464"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7199,8 +7302,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="438"/>
-      <c r="P82" s="452"/>
+      <c r="O82" s="457"/>
+      <c r="P82" s="459"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7232,8 +7335,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="439"/>
-      <c r="P83" s="453"/>
+      <c r="O83" s="458"/>
+      <c r="P83" s="460"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7265,8 +7368,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="438"/>
-      <c r="P84" s="452"/>
+      <c r="O84" s="457"/>
+      <c r="P84" s="459"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7298,8 +7401,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="439"/>
-      <c r="P85" s="453"/>
+      <c r="O85" s="458"/>
+      <c r="P85" s="460"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7457,8 +7560,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="454"/>
-      <c r="M90" s="455"/>
+      <c r="L90" s="461"/>
+      <c r="M90" s="462"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7490,8 +7593,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="454"/>
-      <c r="M91" s="455"/>
+      <c r="L91" s="461"/>
+      <c r="M91" s="462"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7694,8 +7797,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="438"/>
-      <c r="P97" s="448"/>
+      <c r="O97" s="457"/>
+      <c r="P97" s="453"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -7727,8 +7830,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="439"/>
-      <c r="P98" s="449"/>
+      <c r="O98" s="458"/>
+      <c r="P98" s="454"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13120,11 +13223,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="450" t="s">
+      <c r="F262" s="455" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="450"/>
-      <c r="H262" s="451"/>
+      <c r="G262" s="455"/>
+      <c r="H262" s="456"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -13698,6 +13801,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -13711,22 +13830,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13740,11 +13843,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="V19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13773,49 +13876,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="432" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
+      <c r="I1" s="432"/>
+      <c r="J1" s="432"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="476" t="s">
-        <v>147</v>
-      </c>
-      <c r="T1" s="476"/>
+      <c r="S1" s="475" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="475"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="457" t="s">
+      <c r="W1" s="433" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="458"/>
+      <c r="X1" s="434"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="456"/>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="A2" s="432"/>
+      <c r="B2" s="432"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="432"/>
+      <c r="J2" s="432"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -13823,8 +13926,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="477"/>
-      <c r="T2" s="477"/>
+      <c r="S2" s="476"/>
+      <c r="T2" s="476"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -13869,10 +13972,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="459" t="s">
+      <c r="O3" s="435" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="460"/>
+      <c r="P3" s="436"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -13911,7 +14014,7 @@
         <v>44594</v>
       </c>
       <c r="H4" s="404" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I4" s="410">
         <v>22510</v>
@@ -13945,8 +14048,12 @@
       <c r="T4" s="52"/>
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="56"/>
+      <c r="W4" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="X4" s="56">
+        <v>4176</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
@@ -13965,7 +14072,7 @@
         <v>44594</v>
       </c>
       <c r="H5" s="411" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I5" s="412">
         <v>5530</v>
@@ -13999,8 +14106,12 @@
       <c r="T5" s="52"/>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="69"/>
+      <c r="W5" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="X5" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="184" t="s">
@@ -14053,8 +14164,12 @@
       <c r="T6" s="52"/>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="70"/>
+      <c r="W6" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
@@ -14107,8 +14222,12 @@
       <c r="T7" s="52"/>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="70"/>
+      <c r="W7" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X7" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
@@ -14161,8 +14280,12 @@
       <c r="T8" s="52"/>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="70"/>
+      <c r="W8" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X8" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
@@ -14181,7 +14304,7 @@
         <v>44598</v>
       </c>
       <c r="H9" s="411" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I9" s="412">
         <v>20980</v>
@@ -14215,8 +14338,12 @@
       <c r="T9" s="52"/>
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="70"/>
+      <c r="W9" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X9" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
@@ -14235,7 +14362,7 @@
         <v>44598</v>
       </c>
       <c r="H10" s="411" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I10" s="412">
         <v>5750</v>
@@ -14269,8 +14396,12 @@
       <c r="T10" s="52"/>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="70"/>
+      <c r="W10" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X10" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
@@ -14289,7 +14420,7 @@
         <v>44600</v>
       </c>
       <c r="H11" s="411" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I11" s="412">
         <v>21290</v>
@@ -14323,8 +14454,12 @@
       <c r="T11" s="52"/>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="70"/>
+      <c r="W11" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X11" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="71" t="s">
@@ -14343,7 +14478,7 @@
         <v>44600</v>
       </c>
       <c r="H12" s="411" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I12" s="412">
         <v>5805</v>
@@ -14377,10 +14512,14 @@
       <c r="T12" s="52"/>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="70"/>
-    </row>
-    <row r="13" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X12" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
         <v>69</v>
       </c>
@@ -14397,7 +14536,7 @@
         <v>44602</v>
       </c>
       <c r="H13" s="411" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="I13" s="412">
         <v>22080</v>
@@ -14415,8 +14554,12 @@
         <f t="shared" si="1"/>
         <v>739680</v>
       </c>
-      <c r="O13" s="397"/>
-      <c r="P13" s="398"/>
+      <c r="O13" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="398">
+        <v>44616</v>
+      </c>
       <c r="Q13" s="66">
         <v>25140</v>
       </c>
@@ -14427,8 +14570,12 @@
       <c r="T13" s="52"/>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="70"/>
+      <c r="W13" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X13" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
@@ -14447,7 +14594,7 @@
         <v>44602</v>
       </c>
       <c r="H14" s="411" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="I14" s="412">
         <v>5485</v>
@@ -14465,8 +14612,12 @@
         <f t="shared" si="1"/>
         <v>183747.5</v>
       </c>
-      <c r="O14" s="397"/>
-      <c r="P14" s="398"/>
+      <c r="O14" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="398">
+        <v>44616</v>
+      </c>
       <c r="Q14" s="66">
         <v>0</v>
       </c>
@@ -14477,10 +14628,14 @@
       <c r="T14" s="52"/>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="70"/>
-    </row>
-    <row r="15" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W14" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X14" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>69</v>
       </c>
@@ -14497,7 +14652,7 @@
         <v>44603</v>
       </c>
       <c r="H15" s="411" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="I15" s="412">
         <v>20920</v>
@@ -14515,8 +14670,12 @@
         <f t="shared" si="1"/>
         <v>700820</v>
       </c>
-      <c r="O15" s="397"/>
-      <c r="P15" s="398"/>
+      <c r="O15" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="398">
+        <v>44614</v>
+      </c>
       <c r="Q15" s="66">
         <v>25240</v>
       </c>
@@ -14524,11 +14683,15 @@
         <v>44603</v>
       </c>
       <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
+      <c r="T15" s="92"/>
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="70"/>
+      <c r="W15" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X15" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
@@ -14547,7 +14710,7 @@
         <v>44603</v>
       </c>
       <c r="H16" s="411" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="I16" s="412">
         <v>5310</v>
@@ -14565,8 +14728,12 @@
         <f t="shared" si="1"/>
         <v>177885</v>
       </c>
-      <c r="O16" s="397"/>
-      <c r="P16" s="398"/>
+      <c r="O16" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="398">
+        <v>44617</v>
+      </c>
       <c r="Q16" s="66">
         <v>0</v>
       </c>
@@ -14574,13 +14741,17 @@
         <v>44603</v>
       </c>
       <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
+      <c r="T16" s="92"/>
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="70"/>
-    </row>
-    <row r="17" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W16" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
         <v>126</v>
       </c>
@@ -14597,7 +14768,7 @@
         <v>44605</v>
       </c>
       <c r="H17" s="411" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="I17" s="412">
         <v>21340</v>
@@ -14615,8 +14786,12 @@
         <f t="shared" si="1"/>
         <v>714890</v>
       </c>
-      <c r="O17" s="397"/>
-      <c r="P17" s="398"/>
+      <c r="O17" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="398">
+        <v>44620</v>
+      </c>
       <c r="Q17" s="66">
         <v>20040</v>
       </c>
@@ -14626,15 +14801,19 @@
       <c r="S17" s="51">
         <v>11200</v>
       </c>
-      <c r="T17" s="52" t="s">
-        <v>148</v>
+      <c r="T17" s="92" t="s">
+        <v>144</v>
       </c>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="70"/>
-    </row>
-    <row r="18" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W17" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X17" s="70">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
         <v>20</v>
       </c>
@@ -14651,7 +14830,7 @@
         <v>44607</v>
       </c>
       <c r="H18" s="411" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="I18" s="412">
         <v>20110</v>
@@ -14669,8 +14848,12 @@
         <f t="shared" si="1"/>
         <v>658602.5</v>
       </c>
-      <c r="O18" s="397"/>
-      <c r="P18" s="398"/>
+      <c r="O18" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="398">
+        <v>44620</v>
+      </c>
       <c r="Q18" s="66">
         <v>25140</v>
       </c>
@@ -14680,13 +14863,17 @@
       <c r="S18" s="51">
         <v>11200</v>
       </c>
-      <c r="T18" s="52" t="s">
-        <v>149</v>
+      <c r="T18" s="92" t="s">
+        <v>145</v>
       </c>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="70"/>
+      <c r="W18" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="19" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
@@ -14705,7 +14892,7 @@
         <v>44607</v>
       </c>
       <c r="H19" s="411" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="I19" s="412">
         <v>5175</v>
@@ -14723,8 +14910,12 @@
         <f t="shared" si="1"/>
         <v>169481.25</v>
       </c>
-      <c r="O19" s="397"/>
-      <c r="P19" s="398"/>
+      <c r="O19" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="398">
+        <v>44620</v>
+      </c>
       <c r="Q19" s="79">
         <v>0</v>
       </c>
@@ -14734,13 +14925,17 @@
       <c r="S19" s="51">
         <v>0</v>
       </c>
-      <c r="T19" s="52" t="s">
-        <v>149</v>
+      <c r="T19" s="92" t="s">
+        <v>145</v>
       </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="70"/>
+      <c r="W19" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
@@ -14759,7 +14954,7 @@
         <v>44609</v>
       </c>
       <c r="H20" s="411" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I20" s="412">
         <v>21115</v>
@@ -14778,7 +14973,7 @@
         <v>691516.25</v>
       </c>
       <c r="O20" s="89" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P20" s="90"/>
       <c r="Q20" s="79">
@@ -14790,13 +14985,17 @@
       <c r="S20" s="51">
         <v>11200</v>
       </c>
-      <c r="T20" s="52" t="s">
-        <v>150</v>
+      <c r="T20" s="92" t="s">
+        <v>146</v>
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="70"/>
+      <c r="W20" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
@@ -14815,7 +15014,7 @@
         <v>44609</v>
       </c>
       <c r="H21" s="411" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I21" s="412">
         <v>5780</v>
@@ -14834,7 +15033,7 @@
         <v>189295</v>
       </c>
       <c r="O21" s="89" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P21" s="90"/>
       <c r="Q21" s="79">
@@ -14846,13 +15045,17 @@
       <c r="S21" s="51">
         <v>0</v>
       </c>
-      <c r="T21" s="52" t="s">
-        <v>150</v>
+      <c r="T21" s="92" t="s">
+        <v>146</v>
       </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="70"/>
+      <c r="W21" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
@@ -14871,7 +15074,7 @@
         <v>44610</v>
       </c>
       <c r="H22" s="411" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I22" s="412">
         <v>22560</v>
@@ -14900,13 +15103,17 @@
       <c r="S22" s="51">
         <v>11200</v>
       </c>
-      <c r="T22" s="52" t="s">
-        <v>151</v>
+      <c r="T22" s="92" t="s">
+        <v>147</v>
       </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="70"/>
+      <c r="W22" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X22" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="23" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
@@ -14925,7 +15132,7 @@
         <v>44610</v>
       </c>
       <c r="H23" s="411" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I23" s="412">
         <v>5550</v>
@@ -14954,17 +15161,21 @@
       <c r="S23" s="51">
         <v>0</v>
       </c>
-      <c r="T23" s="52" t="s">
-        <v>151</v>
+      <c r="T23" s="92" t="s">
+        <v>147</v>
       </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="70"/>
+      <c r="W23" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B24" s="58" t="s">
         <v>72</v>
@@ -14978,7 +15189,9 @@
       <c r="G24" s="62">
         <v>44612</v>
       </c>
-      <c r="H24" s="411"/>
+      <c r="H24" s="411" t="s">
+        <v>167</v>
+      </c>
       <c r="I24" s="412">
         <v>22250</v>
       </c>
@@ -14997,14 +15210,26 @@
       </c>
       <c r="O24" s="397"/>
       <c r="P24" s="90"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="86"/>
+      <c r="Q24" s="79">
+        <v>25140</v>
+      </c>
+      <c r="R24" s="67">
+        <v>44617</v>
+      </c>
+      <c r="S24" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T24" s="92" t="s">
+        <v>175</v>
+      </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="70"/>
+      <c r="W24" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X24" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
@@ -15022,7 +15247,9 @@
       <c r="G25" s="62">
         <v>44612</v>
       </c>
-      <c r="H25" s="411"/>
+      <c r="H25" s="411" t="s">
+        <v>167</v>
+      </c>
       <c r="I25" s="412">
         <v>5400</v>
       </c>
@@ -15041,14 +15268,26 @@
       </c>
       <c r="O25" s="89"/>
       <c r="P25" s="90"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="52"/>
+      <c r="Q25" s="79">
+        <v>0</v>
+      </c>
+      <c r="R25" s="67">
+        <v>44617</v>
+      </c>
+      <c r="S25" s="51">
+        <v>0</v>
+      </c>
+      <c r="T25" s="92" t="s">
+        <v>175</v>
+      </c>
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="70"/>
+      <c r="W25" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X25" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
@@ -15066,7 +15305,9 @@
       <c r="G26" s="62">
         <v>44615</v>
       </c>
-      <c r="H26" s="411"/>
+      <c r="H26" s="411" t="s">
+        <v>168</v>
+      </c>
       <c r="I26" s="412">
         <v>21065</v>
       </c>
@@ -15085,14 +15326,26 @@
       </c>
       <c r="O26" s="89"/>
       <c r="P26" s="90"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="52"/>
+      <c r="Q26" s="79">
+        <v>25040</v>
+      </c>
+      <c r="R26" s="67">
+        <v>44617</v>
+      </c>
+      <c r="S26" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T26" s="92" t="s">
+        <v>176</v>
+      </c>
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="70"/>
+      <c r="W26" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X26" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="27" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="82" t="s">
@@ -15110,7 +15363,9 @@
       <c r="G27" s="62">
         <v>44615</v>
       </c>
-      <c r="H27" s="411"/>
+      <c r="H27" s="411" t="s">
+        <v>168</v>
+      </c>
       <c r="I27" s="412">
         <v>5455</v>
       </c>
@@ -15129,18 +15384,30 @@
       </c>
       <c r="O27" s="89"/>
       <c r="P27" s="90"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="92"/>
+      <c r="Q27" s="79">
+        <v>0</v>
+      </c>
+      <c r="R27" s="67">
+        <v>44617</v>
+      </c>
+      <c r="S27" s="91">
+        <v>0</v>
+      </c>
+      <c r="T27" s="92" t="s">
+        <v>176</v>
+      </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="70"/>
+      <c r="W27" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X27" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B28" s="58" t="s">
         <v>72</v>
@@ -15154,7 +15421,9 @@
       <c r="G28" s="62">
         <v>44617</v>
       </c>
-      <c r="H28" s="411"/>
+      <c r="H28" s="411" t="s">
+        <v>169</v>
+      </c>
       <c r="I28" s="412">
         <v>21600</v>
       </c>
@@ -15173,18 +15442,26 @@
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="90"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
+      <c r="Q28" s="66">
+        <v>25140</v>
+      </c>
+      <c r="R28" s="67">
+        <v>44617</v>
+      </c>
       <c r="S28" s="91">
         <v>11200</v>
       </c>
       <c r="T28" s="92" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="70"/>
+      <c r="W28" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X28" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="29" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="57" t="s">
@@ -15202,7 +15479,9 @@
       <c r="G29" s="62">
         <v>44617</v>
       </c>
-      <c r="H29" s="411"/>
+      <c r="H29" s="411" t="s">
+        <v>169</v>
+      </c>
       <c r="I29" s="412">
         <v>5455</v>
       </c>
@@ -15221,14 +15500,22 @@
       </c>
       <c r="O29" s="89"/>
       <c r="P29" s="90"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
+      <c r="Q29" s="94">
+        <v>0</v>
+      </c>
+      <c r="R29" s="95">
+        <v>44617</v>
+      </c>
       <c r="S29" s="91"/>
       <c r="T29" s="92"/>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="70"/>
+      <c r="W29" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X29" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
@@ -15271,8 +15558,12 @@
       <c r="T30" s="92"/>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="70"/>
+      <c r="W30" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X30" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71" t="s">
@@ -15315,8 +15606,12 @@
       <c r="T31" s="92"/>
       <c r="U31" s="53"/>
       <c r="V31" s="54"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="70"/>
+      <c r="W31" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="X31" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71"/>
@@ -15348,7 +15643,9 @@
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="53"/>
-      <c r="X32" s="70"/>
+      <c r="X32" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="83"/>
@@ -16082,14 +16379,14 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="478" t="s">
+      <c r="A55" s="477" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="442" t="s">
-        <v>165</v>
+      <c r="C55" s="451" t="s">
+        <v>161</v>
       </c>
       <c r="D55" s="150"/>
       <c r="E55" s="40"/>
@@ -16099,8 +16396,8 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="436" t="s">
-        <v>166</v>
+      <c r="H55" s="467" t="s">
+        <v>162</v>
       </c>
       <c r="I55" s="151">
         <v>1331.6</v>
@@ -16128,11 +16425,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="479"/>
+      <c r="A56" s="478"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="443"/>
+      <c r="C56" s="452"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16141,7 +16438,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="437"/>
+      <c r="H56" s="468"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16170,30 +16467,48 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="470"/>
+      <c r="A57" s="469" t="s">
+        <v>41</v>
+      </c>
       <c r="B57" s="148" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="472"/>
+        <v>24</v>
+      </c>
+      <c r="C57" s="471" t="s">
+        <v>163</v>
+      </c>
       <c r="D57" s="165"/>
       <c r="E57" s="40"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="436"/>
-      <c r="I57" s="151"/>
+      <c r="F57" s="151">
+        <v>344</v>
+      </c>
+      <c r="G57" s="152">
+        <v>44606</v>
+      </c>
+      <c r="H57" s="467" t="s">
+        <v>164</v>
+      </c>
+      <c r="I57" s="151">
+        <v>344</v>
+      </c>
       <c r="J57" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K57" s="166"/>
+      <c r="K57" s="166">
+        <v>104</v>
+      </c>
       <c r="L57" s="99"/>
       <c r="M57" s="99"/>
       <c r="N57" s="154">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="438"/>
-      <c r="P57" s="432"/>
+        <v>35776</v>
+      </c>
+      <c r="O57" s="457" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" s="463">
+        <v>44620</v>
+      </c>
       <c r="Q57" s="164"/>
       <c r="R57" s="129"/>
       <c r="S57" s="92"/>
@@ -16202,30 +16517,38 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="471"/>
+      <c r="A58" s="470"/>
       <c r="B58" s="148" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="473"/>
+        <v>23</v>
+      </c>
+      <c r="C58" s="472"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="437"/>
-      <c r="I58" s="151"/>
+      <c r="F58" s="151">
+        <v>627.6</v>
+      </c>
+      <c r="G58" s="152">
+        <v>44606</v>
+      </c>
+      <c r="H58" s="468"/>
+      <c r="I58" s="151">
+        <v>627.60209999999995</v>
+      </c>
       <c r="J58" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="166"/>
+        <v>2.0999999999276042E-3</v>
+      </c>
+      <c r="K58" s="166">
+        <v>93</v>
+      </c>
       <c r="L58" s="99"/>
       <c r="M58" s="99"/>
       <c r="N58" s="154">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="474"/>
-      <c r="P58" s="475"/>
+        <v>58366.995299999995</v>
+      </c>
+      <c r="O58" s="473"/>
+      <c r="P58" s="474"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -16234,16 +16557,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="469"/>
+      <c r="A59" s="479"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="434"/>
+      <c r="C59" s="465"/>
       <c r="D59" s="163"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="436"/>
+      <c r="H59" s="467"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -16268,16 +16591,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="466"/>
+      <c r="A60" s="442"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="435"/>
+      <c r="C60" s="466"/>
       <c r="D60" s="168"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="437"/>
+      <c r="H60" s="468"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -16334,10 +16657,10 @@
         <v>106</v>
       </c>
       <c r="B62" s="391" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C62" s="380" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D62" s="176"/>
       <c r="E62" s="40"/>
@@ -16384,10 +16707,10 @@
         <v>106</v>
       </c>
       <c r="B63" s="391" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C63" s="380" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D63" s="176"/>
       <c r="E63" s="40"/>
@@ -16417,7 +16740,7 @@
         <v>16975.2</v>
       </c>
       <c r="O63" s="164" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P63" s="162">
         <v>44620</v>
@@ -16434,10 +16757,10 @@
         <v>106</v>
       </c>
       <c r="B64" s="382" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C64" s="179" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D64" s="380"/>
       <c r="E64" s="40"/>
@@ -16500,8 +16823,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="438"/>
-      <c r="P65" s="432"/>
+      <c r="O65" s="457"/>
+      <c r="P65" s="463"/>
       <c r="Q65" s="164"/>
       <c r="R65" s="129"/>
       <c r="S65" s="180"/>
@@ -16530,8 +16853,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="439"/>
-      <c r="P66" s="433"/>
+      <c r="O66" s="458"/>
+      <c r="P66" s="464"/>
       <c r="Q66" s="164"/>
       <c r="R66" s="129"/>
       <c r="S66" s="180"/>
@@ -16920,8 +17243,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="438"/>
-      <c r="P79" s="452"/>
+      <c r="O79" s="457"/>
+      <c r="P79" s="459"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -16950,8 +17273,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="439"/>
-      <c r="P80" s="453"/>
+      <c r="O80" s="458"/>
+      <c r="P80" s="460"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -16980,8 +17303,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="438"/>
-      <c r="P81" s="452"/>
+      <c r="O81" s="457"/>
+      <c r="P81" s="459"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17013,8 +17336,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="439"/>
-      <c r="P82" s="453"/>
+      <c r="O82" s="458"/>
+      <c r="P82" s="460"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -17172,8 +17495,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="454"/>
-      <c r="M87" s="455"/>
+      <c r="L87" s="461"/>
+      <c r="M87" s="462"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17205,8 +17528,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="454"/>
-      <c r="M88" s="455"/>
+      <c r="L88" s="461"/>
+      <c r="M88" s="462"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17409,8 +17732,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="438"/>
-      <c r="P94" s="448"/>
+      <c r="O94" s="457"/>
+      <c r="P94" s="453"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -17442,8 +17765,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="439"/>
-      <c r="P95" s="449"/>
+      <c r="O95" s="458"/>
+      <c r="P95" s="454"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -22835,14 +23158,14 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="450" t="s">
+      <c r="F259" s="455" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="450"/>
-      <c r="H259" s="451"/>
+      <c r="G259" s="455"/>
+      <c r="H259" s="456"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>384597.5</v>
+        <v>385569.10210000002</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -22941,17 +23264,17 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>13005327.699999999</v>
+        <v>13099470.6953</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>246200</v>
+        <v>321520</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>56000</v>
+        <v>78400</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -23001,7 +23324,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>13307527.699999999</v>
+        <v>13499390.6953</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -23413,12 +23736,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O65:O66"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A57:A58"/>
@@ -23430,14 +23755,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="185">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -563,6 +563,24 @@
   </si>
   <si>
     <t>D-3659</t>
+  </si>
+  <si>
+    <t>0114 Z</t>
+  </si>
+  <si>
+    <t>0124 Z</t>
+  </si>
+  <si>
+    <t>0127 Z</t>
+  </si>
+  <si>
+    <t>0137 Z</t>
+  </si>
+  <si>
+    <t>0145 Z</t>
+  </si>
+  <si>
+    <t>0164 Z</t>
   </si>
 </sst>
 </file>
@@ -2984,12 +3002,6 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3039,6 +3051,13 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3183,10 +3202,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3482,8 +3500,8 @@
   </sheetPr>
   <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="U12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
@@ -3515,18 +3533,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="433" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="432"/>
-      <c r="G1" s="432"/>
-      <c r="H1" s="432"/>
-      <c r="I1" s="432"/>
-      <c r="J1" s="432"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+      <c r="I1" s="433"/>
+      <c r="J1" s="433"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3540,22 +3558,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="433" t="s">
+      <c r="W1" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="434"/>
+      <c r="X1" s="435"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="432"/>
-      <c r="B2" s="432"/>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="432"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="432"/>
-      <c r="J2" s="432"/>
+      <c r="A2" s="433"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="433"/>
+      <c r="F2" s="433"/>
+      <c r="G2" s="433"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="433"/>
+      <c r="J2" s="433"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3609,10 +3627,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="435" t="s">
+      <c r="O3" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="436"/>
+      <c r="P3" s="437"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4156,7 +4174,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="437" t="s">
+      <c r="C12" s="438" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4220,7 +4238,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="438"/>
+      <c r="C13" s="439"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -4454,10 +4472,10 @@
       </c>
       <c r="S16" s="51"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="480" t="s">
+      <c r="U16" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V16" s="481">
+      <c r="V16" s="431">
         <v>5104</v>
       </c>
       <c r="W16" s="53" t="s">
@@ -4518,10 +4536,10 @@
       </c>
       <c r="S17" s="51"/>
       <c r="T17" s="52"/>
-      <c r="U17" s="480" t="s">
+      <c r="U17" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V17" s="481">
+      <c r="V17" s="431">
         <v>0</v>
       </c>
       <c r="W17" s="53" t="s">
@@ -4582,10 +4600,10 @@
       </c>
       <c r="S18" s="51"/>
       <c r="T18" s="52"/>
-      <c r="U18" s="480" t="s">
+      <c r="U18" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V18" s="481">
+      <c r="V18" s="431">
         <v>5104</v>
       </c>
       <c r="W18" s="53" t="s">
@@ -4632,10 +4650,10 @@
         <f t="shared" si="1"/>
         <v>790920</v>
       </c>
-      <c r="O19" s="419" t="s">
+      <c r="O19" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="421">
+      <c r="P19" s="419">
         <v>44595</v>
       </c>
       <c r="Q19" s="79">
@@ -4646,10 +4664,10 @@
       </c>
       <c r="S19" s="51"/>
       <c r="T19" s="52"/>
-      <c r="U19" s="480" t="s">
+      <c r="U19" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V19" s="481">
+      <c r="V19" s="431">
         <v>5104</v>
       </c>
       <c r="W19" s="53" t="s">
@@ -4696,10 +4714,10 @@
         <f t="shared" si="1"/>
         <v>206820</v>
       </c>
-      <c r="O20" s="419" t="s">
+      <c r="O20" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="421">
+      <c r="P20" s="419">
         <v>44595</v>
       </c>
       <c r="Q20" s="79">
@@ -4710,10 +4728,10 @@
       </c>
       <c r="S20" s="51"/>
       <c r="T20" s="52"/>
-      <c r="U20" s="480" t="s">
+      <c r="U20" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V20" s="481">
+      <c r="V20" s="431">
         <v>0</v>
       </c>
       <c r="W20" s="53" t="s">
@@ -4760,10 +4778,10 @@
         <f t="shared" si="1"/>
         <v>804600</v>
       </c>
-      <c r="O21" s="420" t="s">
+      <c r="O21" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="421">
+      <c r="P21" s="419">
         <v>44596</v>
       </c>
       <c r="Q21" s="79">
@@ -4774,10 +4792,10 @@
       </c>
       <c r="S21" s="51"/>
       <c r="T21" s="52"/>
-      <c r="U21" s="480" t="s">
+      <c r="U21" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V21" s="481">
+      <c r="V21" s="431">
         <v>5104</v>
       </c>
       <c r="W21" s="53" t="s">
@@ -4824,10 +4842,10 @@
         <f t="shared" si="1"/>
         <v>195120</v>
       </c>
-      <c r="O22" s="420" t="s">
+      <c r="O22" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="421">
+      <c r="P22" s="419">
         <v>44596</v>
       </c>
       <c r="Q22" s="79">
@@ -4838,10 +4856,10 @@
       </c>
       <c r="S22" s="51"/>
       <c r="T22" s="52"/>
-      <c r="U22" s="480" t="s">
+      <c r="U22" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V22" s="481">
+      <c r="V22" s="431">
         <v>0</v>
       </c>
       <c r="W22" s="53" t="s">
@@ -4888,10 +4906,10 @@
         <f t="shared" si="1"/>
         <v>822240</v>
       </c>
-      <c r="O23" s="420" t="s">
+      <c r="O23" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="421">
+      <c r="P23" s="419">
         <v>44600</v>
       </c>
       <c r="Q23" s="79">
@@ -4902,10 +4920,10 @@
       </c>
       <c r="S23" s="51"/>
       <c r="T23" s="52"/>
-      <c r="U23" s="480" t="s">
+      <c r="U23" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V23" s="481">
+      <c r="V23" s="431">
         <v>5104</v>
       </c>
       <c r="W23" s="53" t="s">
@@ -4952,10 +4970,10 @@
         <f t="shared" si="1"/>
         <v>195480</v>
       </c>
-      <c r="O24" s="419" t="s">
+      <c r="O24" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="421">
+      <c r="P24" s="419">
         <v>44600</v>
       </c>
       <c r="Q24" s="79">
@@ -4966,10 +4984,10 @@
       </c>
       <c r="S24" s="85"/>
       <c r="T24" s="86"/>
-      <c r="U24" s="480" t="s">
+      <c r="U24" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V24" s="481">
+      <c r="V24" s="431">
         <v>0</v>
       </c>
       <c r="W24" s="53" t="s">
@@ -5017,10 +5035,10 @@
         <f t="shared" si="1"/>
         <v>781711.55999999994</v>
       </c>
-      <c r="O25" s="420" t="s">
+      <c r="O25" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="421">
+      <c r="P25" s="419">
         <v>44600</v>
       </c>
       <c r="Q25" s="79">
@@ -5031,10 +5049,10 @@
       </c>
       <c r="S25" s="51"/>
       <c r="T25" s="52"/>
-      <c r="U25" s="480" t="s">
+      <c r="U25" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V25" s="481">
+      <c r="V25" s="431">
         <v>5104</v>
       </c>
       <c r="W25" s="53" t="s">
@@ -5081,10 +5099,10 @@
         <f t="shared" si="1"/>
         <v>806382.5</v>
       </c>
-      <c r="O26" s="420" t="s">
+      <c r="O26" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="421">
+      <c r="P26" s="419">
         <v>44602</v>
       </c>
       <c r="Q26" s="79">
@@ -5095,10 +5113,10 @@
       </c>
       <c r="S26" s="51"/>
       <c r="T26" s="52"/>
-      <c r="U26" s="480" t="s">
+      <c r="U26" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V26" s="481">
+      <c r="V26" s="431">
         <v>5104</v>
       </c>
       <c r="W26" s="53" t="s">
@@ -5145,10 +5163,10 @@
         <f t="shared" si="1"/>
         <v>813400</v>
       </c>
-      <c r="O27" s="420" t="s">
+      <c r="O27" s="418" t="s">
         <v>125</v>
       </c>
-      <c r="P27" s="421">
+      <c r="P27" s="419">
         <v>44603</v>
       </c>
       <c r="Q27" s="79">
@@ -5159,10 +5177,10 @@
       </c>
       <c r="S27" s="91"/>
       <c r="T27" s="92"/>
-      <c r="U27" s="480" t="s">
+      <c r="U27" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V27" s="481">
+      <c r="V27" s="431">
         <v>5104</v>
       </c>
       <c r="W27" s="53" t="s">
@@ -5209,10 +5227,10 @@
         <f t="shared" si="1"/>
         <v>194425</v>
       </c>
-      <c r="O28" s="420" t="s">
+      <c r="O28" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="421">
+      <c r="P28" s="419">
         <v>44603</v>
       </c>
       <c r="Q28" s="66">
@@ -5223,10 +5241,10 @@
       </c>
       <c r="S28" s="91"/>
       <c r="T28" s="92"/>
-      <c r="U28" s="480" t="s">
+      <c r="U28" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V28" s="481">
+      <c r="V28" s="431">
         <v>0</v>
       </c>
       <c r="W28" s="53" t="s">
@@ -5254,7 +5272,7 @@
       <c r="G29" s="62">
         <v>44591</v>
       </c>
-      <c r="H29" s="424" t="s">
+      <c r="H29" s="422" t="s">
         <v>140</v>
       </c>
       <c r="I29" s="64">
@@ -5273,24 +5291,24 @@
         <f t="shared" si="1"/>
         <v>763700</v>
       </c>
-      <c r="O29" s="420" t="s">
+      <c r="O29" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="421">
+      <c r="P29" s="419">
         <v>44606</v>
       </c>
-      <c r="Q29" s="422">
+      <c r="Q29" s="420">
         <v>25140</v>
       </c>
-      <c r="R29" s="423">
+      <c r="R29" s="421">
         <v>44596</v>
       </c>
       <c r="S29" s="91"/>
       <c r="T29" s="92"/>
-      <c r="U29" s="480" t="s">
+      <c r="U29" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V29" s="481">
+      <c r="V29" s="431">
         <v>5104</v>
       </c>
       <c r="W29" s="53" t="s">
@@ -5318,7 +5336,7 @@
       <c r="G30" s="62">
         <v>44591</v>
       </c>
-      <c r="H30" s="424" t="s">
+      <c r="H30" s="422" t="s">
         <v>141</v>
       </c>
       <c r="I30" s="64">
@@ -5337,24 +5355,24 @@
         <f t="shared" si="1"/>
         <v>190225</v>
       </c>
-      <c r="O30" s="420" t="s">
+      <c r="O30" s="418" t="s">
         <v>61</v>
       </c>
-      <c r="P30" s="421">
+      <c r="P30" s="419">
         <v>44606</v>
       </c>
-      <c r="Q30" s="422">
-        <v>0</v>
-      </c>
-      <c r="R30" s="423">
+      <c r="Q30" s="420">
+        <v>0</v>
+      </c>
+      <c r="R30" s="421">
         <v>44596</v>
       </c>
       <c r="S30" s="91"/>
       <c r="T30" s="92"/>
-      <c r="U30" s="480" t="s">
+      <c r="U30" s="430" t="s">
         <v>178</v>
       </c>
-      <c r="V30" s="481">
+      <c r="V30" s="431">
         <v>0</v>
       </c>
       <c r="W30" s="53" t="s">
@@ -6189,7 +6207,7 @@
       <c r="G55" s="152">
         <v>44564</v>
       </c>
-      <c r="H55" s="426">
+      <c r="H55" s="424">
         <v>767</v>
       </c>
       <c r="I55" s="151">
@@ -6222,13 +6240,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="449" t="s">
+      <c r="A56" s="450" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="451" t="s">
+      <c r="C56" s="452" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6239,7 +6257,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="443">
+      <c r="H56" s="444">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6268,11 +6286,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="450"/>
+      <c r="A57" s="451"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="452"/>
+      <c r="C57" s="453"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6281,7 +6299,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="444"/>
+      <c r="H57" s="445"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6308,13 +6326,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="449" t="s">
+      <c r="A58" s="450" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="451" t="s">
+      <c r="C58" s="452" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6325,7 +6343,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="443">
+      <c r="H58" s="444">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6344,10 +6362,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="445" t="s">
+      <c r="O58" s="446" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="447">
+      <c r="P58" s="448">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6358,11 +6376,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="450"/>
+      <c r="A59" s="451"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="452"/>
+      <c r="C59" s="453"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6371,7 +6389,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="444"/>
+      <c r="H59" s="445"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6388,8 +6406,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="446"/>
-      <c r="P59" s="448"/>
+      <c r="O59" s="447"/>
+      <c r="P59" s="449"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6398,13 +6416,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="441" t="s">
+      <c r="A60" s="442" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="439" t="s">
+      <c r="C60" s="440" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6418,7 +6436,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="443">
+      <c r="H60" s="444">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6437,10 +6455,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="445" t="s">
+      <c r="O60" s="446" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="447">
+      <c r="P60" s="448">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6453,11 +6471,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="442"/>
+      <c r="A61" s="443"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="440"/>
+      <c r="C61" s="441"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6469,7 +6487,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="444"/>
+      <c r="H61" s="445"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6486,8 +6504,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="446"/>
-      <c r="P61" s="448"/>
+      <c r="O61" s="447"/>
+      <c r="P61" s="449"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6496,13 +6514,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="427" t="s">
+      <c r="A62" s="425" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="425" t="s">
+      <c r="C62" s="423" t="s">
         <v>130</v>
       </c>
       <c r="D62" s="165"/>
@@ -6516,7 +6534,7 @@
       <c r="G62" s="152">
         <v>44592</v>
       </c>
-      <c r="H62" s="429">
+      <c r="H62" s="427">
         <v>808</v>
       </c>
       <c r="I62" s="151">
@@ -6535,10 +6553,10 @@
         <f t="shared" si="1"/>
         <v>142420.20000000001</v>
       </c>
-      <c r="O62" s="430" t="s">
+      <c r="O62" s="428" t="s">
         <v>59</v>
       </c>
-      <c r="P62" s="431">
+      <c r="P62" s="429">
         <v>44606</v>
       </c>
       <c r="Q62" s="164"/>
@@ -6549,11 +6567,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="428"/>
+      <c r="A63" s="426"/>
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="465"/>
+      <c r="C63" s="466"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6561,7 +6579,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="467"/>
+      <c r="H63" s="468"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6590,7 +6608,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="466"/>
+      <c r="C64" s="467"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6598,7 +6616,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="468"/>
+      <c r="H64" s="469"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -6776,8 +6794,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="457"/>
-      <c r="P68" s="463"/>
+      <c r="O68" s="458"/>
+      <c r="P68" s="464"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -6811,8 +6829,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="458"/>
-      <c r="P69" s="464"/>
+      <c r="O69" s="459"/>
+      <c r="P69" s="465"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7001,10 +7019,10 @@
         <f t="shared" si="1"/>
         <v>13566</v>
       </c>
-      <c r="O73" s="417" t="s">
+      <c r="O73" s="415" t="s">
         <v>59</v>
       </c>
-      <c r="P73" s="418">
+      <c r="P73" s="416">
         <v>44595</v>
       </c>
       <c r="Q73" s="164"/>
@@ -7302,8 +7320,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="457"/>
-      <c r="P82" s="459"/>
+      <c r="O82" s="458"/>
+      <c r="P82" s="460"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7335,8 +7353,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="458"/>
-      <c r="P83" s="460"/>
+      <c r="O83" s="459"/>
+      <c r="P83" s="461"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7368,8 +7386,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="457"/>
-      <c r="P84" s="459"/>
+      <c r="O84" s="458"/>
+      <c r="P84" s="460"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7401,8 +7419,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="458"/>
-      <c r="P85" s="460"/>
+      <c r="O85" s="459"/>
+      <c r="P85" s="461"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7560,8 +7578,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="461"/>
-      <c r="M90" s="462"/>
+      <c r="L90" s="462"/>
+      <c r="M90" s="463"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7593,8 +7611,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="461"/>
-      <c r="M91" s="462"/>
+      <c r="L91" s="462"/>
+      <c r="M91" s="463"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7797,8 +7815,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="457"/>
-      <c r="P97" s="453"/>
+      <c r="O97" s="458"/>
+      <c r="P97" s="454"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -7830,8 +7848,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="458"/>
-      <c r="P98" s="454"/>
+      <c r="O98" s="459"/>
+      <c r="P98" s="455"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13223,11 +13241,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="455" t="s">
+      <c r="F262" s="456" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="455"/>
-      <c r="H262" s="456"/>
+      <c r="G262" s="456"/>
+      <c r="H262" s="457"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -13843,11 +13861,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X34" sqref="X34"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13876,49 +13894,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="433" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="432"/>
-      <c r="G1" s="432"/>
-      <c r="H1" s="432"/>
-      <c r="I1" s="432"/>
-      <c r="J1" s="432"/>
+      <c r="B1" s="433"/>
+      <c r="C1" s="433"/>
+      <c r="D1" s="433"/>
+      <c r="E1" s="433"/>
+      <c r="F1" s="433"/>
+      <c r="G1" s="433"/>
+      <c r="H1" s="433"/>
+      <c r="I1" s="433"/>
+      <c r="J1" s="433"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="475" t="s">
+      <c r="S1" s="476" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="475"/>
+      <c r="T1" s="476"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="433" t="s">
+      <c r="W1" s="434" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="434"/>
+      <c r="X1" s="435"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="432"/>
-      <c r="B2" s="432"/>
-      <c r="C2" s="432"/>
-      <c r="D2" s="432"/>
-      <c r="E2" s="432"/>
-      <c r="F2" s="432"/>
-      <c r="G2" s="432"/>
-      <c r="H2" s="432"/>
-      <c r="I2" s="432"/>
-      <c r="J2" s="432"/>
+      <c r="A2" s="433"/>
+      <c r="B2" s="433"/>
+      <c r="C2" s="433"/>
+      <c r="D2" s="433"/>
+      <c r="E2" s="433"/>
+      <c r="F2" s="433"/>
+      <c r="G2" s="433"/>
+      <c r="H2" s="433"/>
+      <c r="I2" s="433"/>
+      <c r="J2" s="433"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -13926,8 +13944,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="476"/>
-      <c r="T2" s="476"/>
+      <c r="S2" s="477"/>
+      <c r="T2" s="477"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -13972,10 +13990,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="435" t="s">
+      <c r="O3" s="436" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="436"/>
+      <c r="P3" s="437"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -13999,12 +14017,14 @@
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="38" t="s">
+        <v>179</v>
+      </c>
       <c r="D4" s="39"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41">
@@ -14062,7 +14082,9 @@
       <c r="B5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="59" t="s">
+        <v>179</v>
+      </c>
       <c r="D5" s="60"/>
       <c r="E5" s="40"/>
       <c r="F5" s="61">
@@ -14120,7 +14142,9 @@
       <c r="B6" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="59" t="s">
+        <v>180</v>
+      </c>
       <c r="D6" s="60"/>
       <c r="E6" s="40"/>
       <c r="F6" s="61">
@@ -14178,7 +14202,9 @@
       <c r="B7" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="59" t="s">
+        <v>181</v>
+      </c>
       <c r="D7" s="60"/>
       <c r="E7" s="40"/>
       <c r="F7" s="61">
@@ -14236,7 +14262,9 @@
       <c r="B8" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="59"/>
+      <c r="C8" s="59" t="s">
+        <v>181</v>
+      </c>
       <c r="D8" s="60"/>
       <c r="E8" s="40"/>
       <c r="F8" s="61">
@@ -14294,7 +14322,9 @@
       <c r="B9" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="59"/>
+      <c r="C9" s="59" t="s">
+        <v>182</v>
+      </c>
       <c r="D9" s="60"/>
       <c r="E9" s="40"/>
       <c r="F9" s="61">
@@ -14352,7 +14382,9 @@
       <c r="B10" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="59"/>
+      <c r="C10" s="59" t="s">
+        <v>182</v>
+      </c>
       <c r="D10" s="72"/>
       <c r="E10" s="40"/>
       <c r="F10" s="61">
@@ -14410,7 +14442,9 @@
       <c r="B11" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="59" t="s">
+        <v>183</v>
+      </c>
       <c r="D11" s="60"/>
       <c r="E11" s="40"/>
       <c r="F11" s="61">
@@ -14468,7 +14502,9 @@
       <c r="B12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="413"/>
+      <c r="C12" s="432" t="s">
+        <v>183</v>
+      </c>
       <c r="D12" s="60"/>
       <c r="E12" s="40"/>
       <c r="F12" s="61">
@@ -14526,7 +14562,9 @@
       <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="414"/>
+      <c r="C13" s="481" t="s">
+        <v>184</v>
+      </c>
       <c r="D13" s="60"/>
       <c r="E13" s="40"/>
       <c r="F13" s="61">
@@ -14584,7 +14622,9 @@
       <c r="B14" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="59" t="s">
+        <v>184</v>
+      </c>
       <c r="D14" s="60"/>
       <c r="E14" s="40"/>
       <c r="F14" s="61">
@@ -16379,13 +16419,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="477" t="s">
+      <c r="A55" s="478" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="451" t="s">
+      <c r="C55" s="452" t="s">
         <v>161</v>
       </c>
       <c r="D55" s="150"/>
@@ -16396,7 +16436,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="467" t="s">
+      <c r="H55" s="468" t="s">
         <v>162</v>
       </c>
       <c r="I55" s="151">
@@ -16425,11 +16465,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="478"/>
+      <c r="A56" s="479"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="452"/>
+      <c r="C56" s="453"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16438,7 +16478,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="468"/>
+      <c r="H56" s="469"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16467,13 +16507,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="469" t="s">
+      <c r="A57" s="470" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="471" t="s">
+      <c r="C57" s="472" t="s">
         <v>163</v>
       </c>
       <c r="D57" s="165"/>
@@ -16484,7 +16524,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="467" t="s">
+      <c r="H57" s="468" t="s">
         <v>164</v>
       </c>
       <c r="I57" s="151">
@@ -16503,10 +16543,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="457" t="s">
+      <c r="O57" s="458" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="463">
+      <c r="P57" s="464">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -16517,11 +16557,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="470"/>
+      <c r="A58" s="471"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="472"/>
+      <c r="C58" s="473"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -16530,7 +16570,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="468"/>
+      <c r="H58" s="469"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -16547,8 +16587,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="473"/>
-      <c r="P58" s="474"/>
+      <c r="O58" s="474"/>
+      <c r="P58" s="475"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -16557,16 +16597,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="479"/>
+      <c r="A59" s="480"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="465"/>
+      <c r="C59" s="466"/>
       <c r="D59" s="163"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="467"/>
+      <c r="H59" s="468"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -16591,16 +16631,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="442"/>
+      <c r="A60" s="443"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="466"/>
+      <c r="C60" s="467"/>
       <c r="D60" s="168"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="468"/>
+      <c r="H60" s="469"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -16623,7 +16663,7 @@
       <c r="V60" s="54"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="415"/>
+      <c r="A61" s="413"/>
       <c r="B61" s="170"/>
       <c r="C61" s="171"/>
       <c r="D61" s="168"/>
@@ -16753,7 +16793,7 @@
       <c r="V63" s="54"/>
     </row>
     <row r="64" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="416" t="s">
+      <c r="A64" s="414" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="382" t="s">
@@ -16823,8 +16863,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="457"/>
-      <c r="P65" s="463"/>
+      <c r="O65" s="458"/>
+      <c r="P65" s="464"/>
       <c r="Q65" s="164"/>
       <c r="R65" s="129"/>
       <c r="S65" s="180"/>
@@ -16853,8 +16893,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="458"/>
-      <c r="P66" s="464"/>
+      <c r="O66" s="459"/>
+      <c r="P66" s="465"/>
       <c r="Q66" s="164"/>
       <c r="R66" s="129"/>
       <c r="S66" s="180"/>
@@ -17243,8 +17283,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="457"/>
-      <c r="P79" s="459"/>
+      <c r="O79" s="458"/>
+      <c r="P79" s="460"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17273,8 +17313,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="458"/>
-      <c r="P80" s="460"/>
+      <c r="O80" s="459"/>
+      <c r="P80" s="461"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17303,8 +17343,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="457"/>
-      <c r="P81" s="459"/>
+      <c r="O81" s="458"/>
+      <c r="P81" s="460"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17336,8 +17376,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="458"/>
-      <c r="P82" s="460"/>
+      <c r="O82" s="459"/>
+      <c r="P82" s="461"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -17495,8 +17535,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="461"/>
-      <c r="M87" s="462"/>
+      <c r="L87" s="462"/>
+      <c r="M87" s="463"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17528,8 +17568,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="461"/>
-      <c r="M88" s="462"/>
+      <c r="L88" s="462"/>
+      <c r="M88" s="463"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17732,8 +17772,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="457"/>
-      <c r="P94" s="453"/>
+      <c r="O94" s="458"/>
+      <c r="P94" s="454"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -17765,8 +17805,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="458"/>
-      <c r="P95" s="454"/>
+      <c r="O95" s="459"/>
+      <c r="P95" s="455"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23158,11 +23198,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="455" t="s">
+      <c r="F259" s="456" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="455"/>
-      <c r="H259" s="456"/>
+      <c r="G259" s="456"/>
+      <c r="H259" s="457"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>385569.10210000002</v>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="188">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -581,6 +581,15 @@
   </si>
   <si>
     <t>0164 Z</t>
+  </si>
+  <si>
+    <t>0174 Z</t>
+  </si>
+  <si>
+    <t>0190 Z</t>
+  </si>
+  <si>
+    <t>0208 Z</t>
   </si>
 </sst>
 </file>
@@ -3058,6 +3067,81 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3091,83 +3175,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3197,12 +3212,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3533,18 +3542,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="433"/>
-      <c r="F1" s="433"/>
-      <c r="G1" s="433"/>
-      <c r="H1" s="433"/>
-      <c r="I1" s="433"/>
-      <c r="J1" s="433"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3558,22 +3567,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="434" t="s">
+      <c r="W1" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="435"/>
+      <c r="X1" s="460"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="433"/>
-      <c r="B2" s="433"/>
-      <c r="C2" s="433"/>
-      <c r="D2" s="433"/>
-      <c r="E2" s="433"/>
-      <c r="F2" s="433"/>
-      <c r="G2" s="433"/>
-      <c r="H2" s="433"/>
-      <c r="I2" s="433"/>
-      <c r="J2" s="433"/>
+      <c r="A2" s="458"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3627,10 +3636,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="436" t="s">
+      <c r="O3" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="437"/>
+      <c r="P3" s="462"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4174,7 +4183,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="438" t="s">
+      <c r="C12" s="463" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4238,7 +4247,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="439"/>
+      <c r="C13" s="464"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6240,13 +6249,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="450" t="s">
+      <c r="A56" s="442" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="452" t="s">
+      <c r="C56" s="444" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6257,7 +6266,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="444">
+      <c r="H56" s="446">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6286,11 +6295,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="451"/>
+      <c r="A57" s="443"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="453"/>
+      <c r="C57" s="445"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6299,7 +6308,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="445"/>
+      <c r="H57" s="447"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6326,13 +6335,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="450" t="s">
+      <c r="A58" s="442" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="452" t="s">
+      <c r="C58" s="444" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6343,7 +6352,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="444">
+      <c r="H58" s="446">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6362,10 +6371,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="446" t="s">
+      <c r="O58" s="448" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="448">
+      <c r="P58" s="469">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6376,11 +6385,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="451"/>
+      <c r="A59" s="443"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="453"/>
+      <c r="C59" s="445"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6389,7 +6398,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="445"/>
+      <c r="H59" s="447"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6406,8 +6415,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="447"/>
-      <c r="P59" s="449"/>
+      <c r="O59" s="449"/>
+      <c r="P59" s="470"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6416,13 +6425,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="442" t="s">
+      <c r="A60" s="467" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="440" t="s">
+      <c r="C60" s="465" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6436,7 +6445,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="444">
+      <c r="H60" s="446">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6455,10 +6464,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="446" t="s">
+      <c r="O60" s="448" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="448">
+      <c r="P60" s="469">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6471,11 +6480,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="443"/>
+      <c r="A61" s="468"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="441"/>
+      <c r="C61" s="466"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6487,7 +6496,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="445"/>
+      <c r="H61" s="447"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6504,8 +6513,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="447"/>
-      <c r="P61" s="449"/>
+      <c r="O61" s="449"/>
+      <c r="P61" s="470"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6571,7 +6580,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="466"/>
+      <c r="C63" s="436"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6579,7 +6588,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="468"/>
+      <c r="H63" s="438"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6608,7 +6617,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="467"/>
+      <c r="C64" s="437"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6616,7 +6625,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="469"/>
+      <c r="H64" s="439"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -6794,8 +6803,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="458"/>
-      <c r="P68" s="464"/>
+      <c r="O68" s="440"/>
+      <c r="P68" s="434"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -6829,8 +6838,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="459"/>
-      <c r="P69" s="465"/>
+      <c r="O69" s="441"/>
+      <c r="P69" s="435"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7320,8 +7329,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="458"/>
-      <c r="P82" s="460"/>
+      <c r="O82" s="440"/>
+      <c r="P82" s="454"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7353,8 +7362,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="459"/>
-      <c r="P83" s="461"/>
+      <c r="O83" s="441"/>
+      <c r="P83" s="455"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7386,8 +7395,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="458"/>
-      <c r="P84" s="460"/>
+      <c r="O84" s="440"/>
+      <c r="P84" s="454"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7419,8 +7428,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="459"/>
-      <c r="P85" s="461"/>
+      <c r="O85" s="441"/>
+      <c r="P85" s="455"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7578,8 +7587,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="462"/>
-      <c r="M90" s="463"/>
+      <c r="L90" s="456"/>
+      <c r="M90" s="457"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7611,8 +7620,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="462"/>
-      <c r="M91" s="463"/>
+      <c r="L91" s="456"/>
+      <c r="M91" s="457"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7815,8 +7824,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="458"/>
-      <c r="P97" s="454"/>
+      <c r="O97" s="440"/>
+      <c r="P97" s="450"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -7848,8 +7857,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="459"/>
-      <c r="P98" s="455"/>
+      <c r="O98" s="441"/>
+      <c r="P98" s="451"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13241,11 +13250,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="456" t="s">
+      <c r="F262" s="452" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="456"/>
-      <c r="H262" s="457"/>
+      <c r="G262" s="452"/>
+      <c r="H262" s="453"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -13819,22 +13828,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -13848,6 +13841,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13862,10 +13871,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13894,49 +13903,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="458" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="433"/>
-      <c r="C1" s="433"/>
-      <c r="D1" s="433"/>
-      <c r="E1" s="433"/>
-      <c r="F1" s="433"/>
-      <c r="G1" s="433"/>
-      <c r="H1" s="433"/>
-      <c r="I1" s="433"/>
-      <c r="J1" s="433"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="476" t="s">
+      <c r="S1" s="478" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="476"/>
+      <c r="T1" s="478"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="434" t="s">
+      <c r="W1" s="459" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="435"/>
+      <c r="X1" s="460"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="433"/>
-      <c r="B2" s="433"/>
-      <c r="C2" s="433"/>
-      <c r="D2" s="433"/>
-      <c r="E2" s="433"/>
-      <c r="F2" s="433"/>
-      <c r="G2" s="433"/>
-      <c r="H2" s="433"/>
-      <c r="I2" s="433"/>
-      <c r="J2" s="433"/>
+      <c r="A2" s="458"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -13944,8 +13953,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="477"/>
-      <c r="T2" s="477"/>
+      <c r="S2" s="479"/>
+      <c r="T2" s="479"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -13990,10 +13999,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="436" t="s">
+      <c r="O3" s="461" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="437"/>
+      <c r="P3" s="462"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -14562,7 +14571,7 @@
       <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="481" t="s">
+      <c r="C13" s="433" t="s">
         <v>184</v>
       </c>
       <c r="D13" s="60"/>
@@ -14682,7 +14691,9 @@
       <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="59" t="s">
+        <v>185</v>
+      </c>
       <c r="D15" s="60"/>
       <c r="E15" s="40"/>
       <c r="F15" s="61">
@@ -14740,7 +14751,9 @@
       <c r="B16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="74" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" s="60"/>
       <c r="E16" s="40"/>
       <c r="F16" s="61">
@@ -14798,7 +14811,9 @@
       <c r="B17" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="59" t="s">
+        <v>186</v>
+      </c>
       <c r="D17" s="60"/>
       <c r="E17" s="40"/>
       <c r="F17" s="61">
@@ -14860,7 +14875,9 @@
       <c r="B18" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="59" t="s">
+        <v>187</v>
+      </c>
       <c r="D18" s="60"/>
       <c r="E18" s="40"/>
       <c r="F18" s="61">
@@ -14922,7 +14939,9 @@
       <c r="B19" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="59"/>
+      <c r="C19" s="59" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" s="60"/>
       <c r="E19" s="40"/>
       <c r="F19" s="61">
@@ -16419,13 +16438,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="478" t="s">
+      <c r="A55" s="480" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="452" t="s">
+      <c r="C55" s="444" t="s">
         <v>161</v>
       </c>
       <c r="D55" s="150"/>
@@ -16436,7 +16455,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="468" t="s">
+      <c r="H55" s="438" t="s">
         <v>162</v>
       </c>
       <c r="I55" s="151">
@@ -16465,11 +16484,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="479"/>
+      <c r="A56" s="481"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="453"/>
+      <c r="C56" s="445"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16478,7 +16497,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="469"/>
+      <c r="H56" s="439"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16507,13 +16526,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="470" t="s">
+      <c r="A57" s="472" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="472" t="s">
+      <c r="C57" s="474" t="s">
         <v>163</v>
       </c>
       <c r="D57" s="165"/>
@@ -16524,7 +16543,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="468" t="s">
+      <c r="H57" s="438" t="s">
         <v>164</v>
       </c>
       <c r="I57" s="151">
@@ -16543,10 +16562,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="458" t="s">
+      <c r="O57" s="440" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="464">
+      <c r="P57" s="434">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -16557,11 +16576,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="471"/>
+      <c r="A58" s="473"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="473"/>
+      <c r="C58" s="475"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -16570,7 +16589,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="469"/>
+      <c r="H58" s="439"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -16587,8 +16606,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="474"/>
-      <c r="P58" s="475"/>
+      <c r="O58" s="476"/>
+      <c r="P58" s="477"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -16597,16 +16616,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="480"/>
+      <c r="A59" s="471"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="466"/>
+      <c r="C59" s="436"/>
       <c r="D59" s="163"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="468"/>
+      <c r="H59" s="438"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -16631,16 +16650,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="443"/>
+      <c r="A60" s="468"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="467"/>
+      <c r="C60" s="437"/>
       <c r="D60" s="168"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="469"/>
+      <c r="H60" s="439"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -16863,8 +16882,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="458"/>
-      <c r="P65" s="464"/>
+      <c r="O65" s="440"/>
+      <c r="P65" s="434"/>
       <c r="Q65" s="164"/>
       <c r="R65" s="129"/>
       <c r="S65" s="180"/>
@@ -16893,8 +16912,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="459"/>
-      <c r="P66" s="465"/>
+      <c r="O66" s="441"/>
+      <c r="P66" s="435"/>
       <c r="Q66" s="164"/>
       <c r="R66" s="129"/>
       <c r="S66" s="180"/>
@@ -17283,8 +17302,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="458"/>
-      <c r="P79" s="460"/>
+      <c r="O79" s="440"/>
+      <c r="P79" s="454"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17313,8 +17332,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="459"/>
-      <c r="P80" s="461"/>
+      <c r="O80" s="441"/>
+      <c r="P80" s="455"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17343,8 +17362,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="458"/>
-      <c r="P81" s="460"/>
+      <c r="O81" s="440"/>
+      <c r="P81" s="454"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17376,8 +17395,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="459"/>
-      <c r="P82" s="461"/>
+      <c r="O82" s="441"/>
+      <c r="P82" s="455"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -17535,8 +17554,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="462"/>
-      <c r="M87" s="463"/>
+      <c r="L87" s="456"/>
+      <c r="M87" s="457"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17568,8 +17587,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="462"/>
-      <c r="M88" s="463"/>
+      <c r="L88" s="456"/>
+      <c r="M88" s="457"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17772,8 +17791,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="458"/>
-      <c r="P94" s="454"/>
+      <c r="O94" s="440"/>
+      <c r="P94" s="450"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -17805,8 +17824,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="459"/>
-      <c r="P95" s="455"/>
+      <c r="O95" s="441"/>
+      <c r="P95" s="451"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23198,11 +23217,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="456" t="s">
+      <c r="F259" s="452" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="456"/>
-      <c r="H259" s="457"/>
+      <c r="G259" s="452"/>
+      <c r="H259" s="453"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>385569.10210000002</v>
@@ -23776,14 +23795,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A57:A58"/>
@@ -23795,12 +23812,14 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O65:O66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="191">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -590,6 +590,15 @@
   </si>
   <si>
     <t>0208 Z</t>
+  </si>
+  <si>
+    <t>0231 Z</t>
+  </si>
+  <si>
+    <t>0240 Z</t>
+  </si>
+  <si>
+    <t>0252 Z</t>
   </si>
 </sst>
 </file>
@@ -3070,6 +3079,99 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,131 +3190,38 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3542,18 +3551,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="434" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3567,22 +3576,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="459" t="s">
+      <c r="W1" s="435" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="460"/>
+      <c r="X1" s="436"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="458"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
+      <c r="A2" s="434"/>
+      <c r="B2" s="434"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3636,10 +3645,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="461" t="s">
+      <c r="O3" s="437" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="462"/>
+      <c r="P3" s="438"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4183,7 +4192,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="463" t="s">
+      <c r="C12" s="439" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4247,7 +4256,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="464"/>
+      <c r="C13" s="440"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6249,13 +6258,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="442" t="s">
+      <c r="A56" s="451" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="444" t="s">
+      <c r="C56" s="453" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6266,7 +6275,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="446">
+      <c r="H56" s="445">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6295,11 +6304,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="443"/>
+      <c r="A57" s="452"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="445"/>
+      <c r="C57" s="454"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6308,7 +6317,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="447"/>
+      <c r="H57" s="446"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6335,13 +6344,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="442" t="s">
+      <c r="A58" s="451" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="444" t="s">
+      <c r="C58" s="453" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6352,7 +6361,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="446">
+      <c r="H58" s="445">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6371,10 +6380,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="448" t="s">
+      <c r="O58" s="447" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="469">
+      <c r="P58" s="449">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6385,11 +6394,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="443"/>
+      <c r="A59" s="452"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="445"/>
+      <c r="C59" s="454"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6398,7 +6407,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="447"/>
+      <c r="H59" s="446"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6415,8 +6424,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="449"/>
-      <c r="P59" s="470"/>
+      <c r="O59" s="448"/>
+      <c r="P59" s="450"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6425,13 +6434,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="467" t="s">
+      <c r="A60" s="443" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="465" t="s">
+      <c r="C60" s="441" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6445,7 +6454,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="446">
+      <c r="H60" s="445">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6464,10 +6473,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="448" t="s">
+      <c r="O60" s="447" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="469">
+      <c r="P60" s="449">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6480,11 +6489,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="468"/>
+      <c r="A61" s="444"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="466"/>
+      <c r="C61" s="442"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6496,7 +6505,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="447"/>
+      <c r="H61" s="446"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6513,8 +6522,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="449"/>
-      <c r="P61" s="470"/>
+      <c r="O61" s="448"/>
+      <c r="P61" s="450"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6580,7 +6589,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="436"/>
+      <c r="C63" s="467"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6588,7 +6597,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="438"/>
+      <c r="H63" s="469"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6617,7 +6626,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="437"/>
+      <c r="C64" s="468"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6625,7 +6634,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="439"/>
+      <c r="H64" s="470"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -6803,8 +6812,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="440"/>
-      <c r="P68" s="434"/>
+      <c r="O68" s="459"/>
+      <c r="P68" s="465"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -6838,8 +6847,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="441"/>
-      <c r="P69" s="435"/>
+      <c r="O69" s="460"/>
+      <c r="P69" s="466"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7329,8 +7338,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="440"/>
-      <c r="P82" s="454"/>
+      <c r="O82" s="459"/>
+      <c r="P82" s="461"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7362,8 +7371,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="441"/>
-      <c r="P83" s="455"/>
+      <c r="O83" s="460"/>
+      <c r="P83" s="462"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7395,8 +7404,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="440"/>
-      <c r="P84" s="454"/>
+      <c r="O84" s="459"/>
+      <c r="P84" s="461"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7428,8 +7437,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="441"/>
-      <c r="P85" s="455"/>
+      <c r="O85" s="460"/>
+      <c r="P85" s="462"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7587,8 +7596,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="456"/>
-      <c r="M90" s="457"/>
+      <c r="L90" s="463"/>
+      <c r="M90" s="464"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7620,8 +7629,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="456"/>
-      <c r="M91" s="457"/>
+      <c r="L91" s="463"/>
+      <c r="M91" s="464"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7824,8 +7833,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="440"/>
-      <c r="P97" s="450"/>
+      <c r="O97" s="459"/>
+      <c r="P97" s="455"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -7857,8 +7866,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="441"/>
-      <c r="P98" s="451"/>
+      <c r="O98" s="460"/>
+      <c r="P98" s="456"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13250,11 +13259,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="452" t="s">
+      <c r="F262" s="457" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="452"/>
-      <c r="H262" s="453"/>
+      <c r="G262" s="457"/>
+      <c r="H262" s="458"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -13828,6 +13837,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -13841,22 +13866,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13871,10 +13880,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13903,49 +13912,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="434" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="434"/>
+      <c r="H1" s="434"/>
+      <c r="I1" s="434"/>
+      <c r="J1" s="434"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="478" t="s">
+      <c r="S1" s="477" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="478"/>
+      <c r="T1" s="477"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="459" t="s">
+      <c r="W1" s="435" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="460"/>
+      <c r="X1" s="436"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="458"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
+      <c r="A2" s="434"/>
+      <c r="B2" s="434"/>
+      <c r="C2" s="434"/>
+      <c r="D2" s="434"/>
+      <c r="E2" s="434"/>
+      <c r="F2" s="434"/>
+      <c r="G2" s="434"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -13953,8 +13962,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="479"/>
-      <c r="T2" s="479"/>
+      <c r="S2" s="478"/>
+      <c r="T2" s="478"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -13999,10 +14008,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="461" t="s">
+      <c r="O3" s="437" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="462"/>
+      <c r="P3" s="438"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -15003,7 +15012,9 @@
       <c r="B20" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="59" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" s="60"/>
       <c r="E20" s="40"/>
       <c r="F20" s="61">
@@ -15063,7 +15074,9 @@
       <c r="B21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="59" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" s="60"/>
       <c r="E21" s="40"/>
       <c r="F21" s="61">
@@ -15123,7 +15136,9 @@
       <c r="B22" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="59" t="s">
+        <v>189</v>
+      </c>
       <c r="D22" s="60"/>
       <c r="E22" s="40"/>
       <c r="F22" s="61">
@@ -15181,7 +15196,9 @@
       <c r="B23" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="59" t="s">
+        <v>189</v>
+      </c>
       <c r="D23" s="60"/>
       <c r="E23" s="40"/>
       <c r="F23" s="61">
@@ -15239,7 +15256,9 @@
       <c r="B24" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="59" t="s">
+        <v>190</v>
+      </c>
       <c r="D24" s="60"/>
       <c r="E24" s="40"/>
       <c r="F24" s="61">
@@ -15297,7 +15316,9 @@
       <c r="B25" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="59" t="s">
+        <v>190</v>
+      </c>
       <c r="D25" s="60"/>
       <c r="E25" s="40"/>
       <c r="F25" s="61">
@@ -16438,13 +16459,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="480" t="s">
+      <c r="A55" s="479" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="444" t="s">
+      <c r="C55" s="453" t="s">
         <v>161</v>
       </c>
       <c r="D55" s="150"/>
@@ -16455,7 +16476,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="438" t="s">
+      <c r="H55" s="469" t="s">
         <v>162</v>
       </c>
       <c r="I55" s="151">
@@ -16484,11 +16505,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="481"/>
+      <c r="A56" s="480"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="445"/>
+      <c r="C56" s="454"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16497,7 +16518,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="439"/>
+      <c r="H56" s="470"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16526,13 +16547,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="472" t="s">
+      <c r="A57" s="471" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="474" t="s">
+      <c r="C57" s="473" t="s">
         <v>163</v>
       </c>
       <c r="D57" s="165"/>
@@ -16543,7 +16564,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="438" t="s">
+      <c r="H57" s="469" t="s">
         <v>164</v>
       </c>
       <c r="I57" s="151">
@@ -16562,10 +16583,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="440" t="s">
+      <c r="O57" s="459" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="434">
+      <c r="P57" s="465">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -16576,11 +16597,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="473"/>
+      <c r="A58" s="472"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="475"/>
+      <c r="C58" s="474"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -16589,7 +16610,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="439"/>
+      <c r="H58" s="470"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -16606,8 +16627,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="476"/>
-      <c r="P58" s="477"/>
+      <c r="O58" s="475"/>
+      <c r="P58" s="476"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -16616,16 +16637,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="471"/>
+      <c r="A59" s="481"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="436"/>
+      <c r="C59" s="467"/>
       <c r="D59" s="163"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="438"/>
+      <c r="H59" s="469"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -16650,16 +16671,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="468"/>
+      <c r="A60" s="444"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="437"/>
+      <c r="C60" s="468"/>
       <c r="D60" s="168"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="439"/>
+      <c r="H60" s="470"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -16882,8 +16903,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="440"/>
-      <c r="P65" s="434"/>
+      <c r="O65" s="459"/>
+      <c r="P65" s="465"/>
       <c r="Q65" s="164"/>
       <c r="R65" s="129"/>
       <c r="S65" s="180"/>
@@ -16912,8 +16933,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="441"/>
-      <c r="P66" s="435"/>
+      <c r="O66" s="460"/>
+      <c r="P66" s="466"/>
       <c r="Q66" s="164"/>
       <c r="R66" s="129"/>
       <c r="S66" s="180"/>
@@ -17302,8 +17323,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="440"/>
-      <c r="P79" s="454"/>
+      <c r="O79" s="459"/>
+      <c r="P79" s="461"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17332,8 +17353,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="441"/>
-      <c r="P80" s="455"/>
+      <c r="O80" s="460"/>
+      <c r="P80" s="462"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17362,8 +17383,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="440"/>
-      <c r="P81" s="454"/>
+      <c r="O81" s="459"/>
+      <c r="P81" s="461"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17395,8 +17416,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="441"/>
-      <c r="P82" s="455"/>
+      <c r="O82" s="460"/>
+      <c r="P82" s="462"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -17554,8 +17575,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="456"/>
-      <c r="M87" s="457"/>
+      <c r="L87" s="463"/>
+      <c r="M87" s="464"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17587,8 +17608,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="456"/>
-      <c r="M88" s="457"/>
+      <c r="L88" s="463"/>
+      <c r="M88" s="464"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17791,8 +17812,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="440"/>
-      <c r="P94" s="450"/>
+      <c r="O94" s="459"/>
+      <c r="P94" s="455"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -17824,8 +17845,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="441"/>
-      <c r="P95" s="451"/>
+      <c r="O95" s="460"/>
+      <c r="P95" s="456"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23217,11 +23238,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="452" t="s">
+      <c r="F259" s="457" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="452"/>
-      <c r="H259" s="453"/>
+      <c r="G259" s="457"/>
+      <c r="H259" s="458"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>385569.10210000002</v>
@@ -23795,12 +23816,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O65:O66"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A57:A58"/>
@@ -23812,14 +23835,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #02  FEBRERO 2022/ENTRADAS OBRADOR FEBRERO  2022.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="193">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>0252 Z</t>
+  </si>
+  <si>
+    <t>0278 Z</t>
+  </si>
+  <si>
+    <t>0298 Z</t>
   </si>
 </sst>
 </file>
@@ -13880,10 +13886,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15376,7 +15382,9 @@
       <c r="B26" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="59" t="s">
+        <v>191</v>
+      </c>
       <c r="D26" s="60"/>
       <c r="E26" s="40"/>
       <c r="F26" s="61">
@@ -15434,7 +15442,9 @@
       <c r="B27" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="59" t="s">
+        <v>191</v>
+      </c>
       <c r="D27" s="60"/>
       <c r="E27" s="40"/>
       <c r="F27" s="61">
@@ -15492,7 +15502,9 @@
       <c r="B28" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="59" t="s">
+        <v>192</v>
+      </c>
       <c r="D28" s="60"/>
       <c r="E28" s="40"/>
       <c r="F28" s="61">
@@ -15550,7 +15562,9 @@
       <c r="B29" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="59" t="s">
+        <v>192</v>
+      </c>
       <c r="D29" s="60"/>
       <c r="E29" s="40"/>
       <c r="F29" s="61">
